--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020CBEC-D223-9E4C-B3EA-760B386CCEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC36CBC-A050-2E41-90B9-D19229807392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="63">
   <si>
     <t>Pipe</t>
   </si>
@@ -553,6 +553,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,19 +596,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,12 +620,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,10 +632,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1588,6 +1588,195 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1915</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <v>11</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" ref="F30:F38" si="3">IF(E30=0,0,(D30/E30))</f>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="16">
+        <v>570</v>
+      </c>
+      <c r="D31" s="3">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>420</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16">
+        <v>735</v>
+      </c>
+      <c r="D33" s="3">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="16">
+        <v>90</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
+      <c r="E36" s="3">
+        <v>14</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="16">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6</v>
+      </c>
+      <c r="E38" s="3">
+        <v>11</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="3"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1595,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2211,6 +2400,216 @@
         <v>0.625</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2010</v>
+      </c>
+      <c r="D30" s="3">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9</v>
+      </c>
+      <c r="F30" s="13">
+        <f>IF(E30=0,0,(D30/E30))</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1280</v>
+      </c>
+      <c r="D31" s="3">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" ref="F31:F39" si="3">IF(E31=0,0,(D31/E31))</f>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>450</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16">
+        <v>935</v>
+      </c>
+      <c r="D33" s="3">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="3"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="16">
+        <v>265</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="16">
+        <v>515</v>
+      </c>
+      <c r="D35" s="3">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16">
+        <v>175</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>7</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>18</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="16">
+        <v>555</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>8</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2218,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2834,6 +3233,216 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1460</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9</v>
+      </c>
+      <c r="F30" s="13">
+        <f>IF(E30=0,0,(D30/E30))</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1250</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" ref="F31:F39" si="3">IF(E31=0,0,(D31/E31))</f>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>280</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="3"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16">
+        <v>630</v>
+      </c>
+      <c r="D33" s="3">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="16">
+        <v>175</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16">
+        <v>525</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>7</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="16">
+        <v>395</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>7</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="16">
+        <v>210</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>6</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2841,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3457,6 +4066,216 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1315</v>
+      </c>
+      <c r="D30" s="3">
+        <v>22</v>
+      </c>
+      <c r="E30" s="3">
+        <v>7</v>
+      </c>
+      <c r="F30" s="13">
+        <f>IF(E30=0,0,(D30/E30))</f>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="16">
+        <v>300</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" ref="F31:F39" si="3">IF(E31=0,0,(D31/E31))</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1370</v>
+      </c>
+      <c r="D32" s="3">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="16">
+        <v>330</v>
+      </c>
+      <c r="D34" s="3">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>11</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="3"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="16">
+        <v>805</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16">
+        <v>445</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16">
+        <v>50</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="16">
+        <v>155</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6</v>
+      </c>
+      <c r="E38" s="3">
+        <v>11</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="3"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="16">
+        <v>95</v>
+      </c>
+      <c r="D39" s="3">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3">
+        <v>8</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3464,10 +4283,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4080,6 +4899,195 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1600</v>
+      </c>
+      <c r="D30" s="3">
+        <v>22</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" ref="F30:F38" si="2">IF(E30=0,0,(D30/E30))</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1030</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1265</v>
+      </c>
+      <c r="D32" s="3">
+        <v>13</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16">
+        <v>310</v>
+      </c>
+      <c r="D33" s="3">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="16">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>7</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="16">
+        <v>495</v>
+      </c>
+      <c r="D35" s="3">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>15</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="2"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="16">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="16">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4087,10 +5095,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4701,6 +5709,195 @@
       <c r="F29" s="13">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1380</v>
+      </c>
+      <c r="D30" s="12">
+        <v>13</v>
+      </c>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30" s="13">
+        <f>IF(E30=0,0,(D30/E30))</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="16">
+        <v>780</v>
+      </c>
+      <c r="D31" s="12">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12">
+        <v>3</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" ref="F31:F38" si="3">IF(E31=0,0,(D31/E31))</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>580</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12">
+        <v>5</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16">
+        <v>760</v>
+      </c>
+      <c r="D33" s="12">
+        <v>8</v>
+      </c>
+      <c r="E33" s="12">
+        <v>4</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="16">
+        <v>250</v>
+      </c>
+      <c r="D34" s="12">
+        <v>5</v>
+      </c>
+      <c r="E34" s="12">
+        <v>6</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="16">
+        <v>335</v>
+      </c>
+      <c r="D35" s="12">
+        <v>8</v>
+      </c>
+      <c r="E35" s="12">
+        <v>9</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="3"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16">
+        <v>310</v>
+      </c>
+      <c r="D36" s="12">
+        <v>4</v>
+      </c>
+      <c r="E36" s="12">
+        <v>13</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="16">
+        <v>225</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2</v>
+      </c>
+      <c r="E37" s="12">
+        <v>7</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="16">
+        <v>115</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>6</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -4713,7 +5910,7 @@
   <dimension ref="B1:AL34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="141" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4745,130 +5942,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="56" t="s">
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="56" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="56" t="s">
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="56" t="s">
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59" t="s">
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="65" t="s">
         <v>14</v>
       </c>
       <c r="AC3" s="28"/>
-      <c r="AD3" s="54" t="s">
+      <c r="AD3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="54" t="s">
+      <c r="AE3" s="60" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="29" t="s">
         <v>36</v>
       </c>
@@ -4941,10 +6138,10 @@
       <c r="AA4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="60"/>
+      <c r="AB4" s="66"/>
       <c r="AC4" s="31"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
       <c r="AF4" s="32"/>
       <c r="AG4" s="33" t="s">
         <v>26</v>
@@ -4964,37 +6161,37 @@
       <c r="C5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="35">
-        <f>Chateau!C2+Chateau!C19</f>
-        <v>3335</v>
-      </c>
-      <c r="E5" s="36">
-        <f>Chateau!D2+Chateau!D10</f>
-        <v>38</v>
-      </c>
-      <c r="F5" s="36">
-        <f>Chateau!E2+Chateau!E19</f>
-        <v>17</v>
-      </c>
-      <c r="G5" s="37">
+      <c r="D5" s="35" t="e">
+        <f>Chateau!C2+Chateau!#REF!+Chateau!C19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="36" t="e">
+        <f>Chateau!D2+Chateau!#REF!+Chateau!D10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="36" t="e">
+        <f>Chateau!E2+Chateau!#REF!+Chateau!E19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="37" t="e">
         <f>IF(F5=0,0,(E5/F5))</f>
-        <v>2.2352941176470589</v>
-      </c>
-      <c r="H5" s="35">
-        <f>'Centro Alpino'!C2+'Centro Alpino'!C19</f>
-        <v>740</v>
-      </c>
-      <c r="I5" s="36">
-        <f>'Centro Alpino'!D2+'Centro Alpino'!D19</f>
-        <v>18</v>
-      </c>
-      <c r="J5" s="36">
-        <f>'Centro Alpino'!E2+'Centro Alpino'!E19</f>
-        <v>24</v>
-      </c>
-      <c r="K5" s="37">
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="35" t="e">
+        <f>'Centro Alpino'!C2+'Centro Alpino'!#REF!+'Centro Alpino'!C19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="36" t="e">
+        <f>'Centro Alpino'!D2+'Centro Alpino'!#REF!+'Centro Alpino'!D19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" s="36" t="e">
+        <f>'Centro Alpino'!E2+'Centro Alpino'!#REF!+'Centro Alpino'!E19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="37" t="e">
         <f>IF(J5=0,0,(I5/J5))</f>
-        <v>0.75</v>
+        <v>#REF!</v>
       </c>
       <c r="L5" s="35" t="e">
         <f>'Ciudad Destruida'!C2+'Ciudad Destruida'!#REF!+'Ciudad Destruida'!C19</f>
@@ -6028,37 +7225,37 @@
       <c r="C13" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="35">
-        <f>Chateau!C10+Chateau!C27</f>
-        <v>710</v>
-      </c>
-      <c r="E13" s="36">
-        <f>Chateau!D10+Chateau!D18</f>
-        <v>17</v>
-      </c>
-      <c r="F13" s="36">
-        <f>Chateau!E10+Chateau!E27</f>
-        <v>16</v>
-      </c>
-      <c r="G13" s="37">
+      <c r="D13" s="35" t="e">
+        <f>Chateau!#REF!+Chateau!C17+Chateau!C27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="36" t="e">
+        <f>Chateau!#REF!+Chateau!D17+Chateau!D18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="36" t="e">
+        <f>Chateau!#REF!+Chateau!E17+Chateau!E27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="37" t="e">
         <f t="shared" si="2"/>
-        <v>1.0625</v>
-      </c>
-      <c r="H13" s="35">
-        <f>'Centro Alpino'!C10+'Centro Alpino'!C27</f>
-        <v>1930</v>
-      </c>
-      <c r="I13" s="36">
-        <f>'Centro Alpino'!D10+'Centro Alpino'!D27</f>
-        <v>23</v>
-      </c>
-      <c r="J13" s="36">
-        <f>'Centro Alpino'!E10+'Centro Alpino'!E27</f>
-        <v>13</v>
-      </c>
-      <c r="K13" s="37">
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="35" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!C17+'Centro Alpino'!C27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="36" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!D17+'Centro Alpino'!D27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="36" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!E17+'Centro Alpino'!E27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="37" t="e">
         <f t="shared" si="3"/>
-        <v>1.7692307692307692</v>
+        <v>#REF!</v>
       </c>
       <c r="L13" s="35" t="e">
         <f>'Ciudad Destruida'!#REF!+'Ciudad Destruida'!C17+'Ciudad Destruida'!C27</f>
@@ -6158,37 +7355,37 @@
       <c r="C14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="35">
-        <f>Chateau!C11+Chateau!C28</f>
-        <v>850</v>
-      </c>
-      <c r="E14" s="36">
-        <f>Chateau!D11+Chateau!D19</f>
-        <v>22</v>
-      </c>
-      <c r="F14" s="36">
-        <f>Chateau!E11+Chateau!E28</f>
-        <v>14</v>
-      </c>
-      <c r="G14" s="37">
+      <c r="D14" s="35" t="e">
+        <f>Chateau!#REF!+Chateau!C18+Chateau!C28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="36" t="e">
+        <f>Chateau!#REF!+Chateau!D18+Chateau!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="36" t="e">
+        <f>Chateau!#REF!+Chateau!E18+Chateau!E28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="37" t="e">
         <f t="shared" si="2"/>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="H14" s="35">
-        <f>'Centro Alpino'!C11+'Centro Alpino'!C28</f>
-        <v>1340</v>
-      </c>
-      <c r="I14" s="36">
-        <f>'Centro Alpino'!D11+'Centro Alpino'!D28</f>
-        <v>14</v>
-      </c>
-      <c r="J14" s="36">
-        <f>'Centro Alpino'!E11+'Centro Alpino'!E28</f>
-        <v>14</v>
-      </c>
-      <c r="K14" s="37">
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="35" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!C18+'Centro Alpino'!C28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="36" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!D18+'Centro Alpino'!D28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="36" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!E18+'Centro Alpino'!E28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="37" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
       <c r="L14" s="35" t="e">
         <f>'Ciudad Destruida'!#REF!+'Ciudad Destruida'!C18+'Ciudad Destruida'!C28</f>
@@ -6288,37 +7485,37 @@
       <c r="C15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="35">
-        <f>Chateau!C12+Chateau!C29</f>
-        <v>1755</v>
-      </c>
-      <c r="E15" s="36">
-        <f>Chateau!D12+Chateau!D20</f>
-        <v>33</v>
-      </c>
-      <c r="F15" s="36">
-        <f>Chateau!E12+Chateau!E29</f>
-        <v>23</v>
-      </c>
-      <c r="G15" s="37">
+      <c r="D15" s="35" t="e">
+        <f>Chateau!#REF!+Chateau!#REF!+Chateau!C29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="36" t="e">
+        <f>Chateau!#REF!+Chateau!#REF!+Chateau!D19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="36" t="e">
+        <f>Chateau!#REF!+Chateau!#REF!+Chateau!E29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="37" t="e">
         <f t="shared" si="2"/>
-        <v>1.4347826086956521</v>
-      </c>
-      <c r="H15" s="35">
-        <f>'Centro Alpino'!C12+'Centro Alpino'!C29</f>
-        <v>100</v>
-      </c>
-      <c r="I15" s="36">
-        <f>'Centro Alpino'!D12+'Centro Alpino'!D29</f>
-        <v>17</v>
-      </c>
-      <c r="J15" s="36">
-        <f>'Centro Alpino'!E12+'Centro Alpino'!E29</f>
-        <v>24</v>
-      </c>
-      <c r="K15" s="37">
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="35" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!#REF!+'Centro Alpino'!C29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="36" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!#REF!+'Centro Alpino'!D29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="36" t="e">
+        <f>'Centro Alpino'!#REF!+'Centro Alpino'!#REF!+'Centro Alpino'!E29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="37" t="e">
         <f t="shared" si="3"/>
-        <v>0.70833333333333337</v>
+        <v>#REF!</v>
       </c>
       <c r="L15" s="35" t="e">
         <f>'Ciudad Destruida'!#REF!+'Ciudad Destruida'!#REF!+'Ciudad Destruida'!C29</f>
@@ -6417,69 +7614,69 @@
       <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="61" t="e">
+      <c r="D17" s="53" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(D5:D15),D5:D15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61" t="e">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(H5:H15),H5:H15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61" t="e">
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(L5:L15),L5:L15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61" t="e">
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(P5:P15),P5:P15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61" t="e">
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(T5:T15),T5:T15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61" t="e">
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(X5:X15),X5:X15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="55" t="s">
         <v>55</v>
       </c>
       <c r="J20" s="24" t="s">
@@ -6487,13 +7684,13 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="43" t="s">
@@ -6518,7 +7715,7 @@
       <c r="H22" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="52">
         <f>E22/D22</f>
         <v>5211.666666666667</v>
       </c>
@@ -6552,7 +7749,7 @@
       <c r="H23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="52">
         <f t="shared" ref="I23:I32" si="12">E23/D23</f>
         <v>4941.666666666667</v>
       </c>
@@ -6588,7 +7785,7 @@
       <c r="H24" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="78">
+      <c r="I24" s="52">
         <f t="shared" si="12"/>
         <v>4631.666666666667</v>
       </c>
@@ -6624,7 +7821,7 @@
       <c r="H25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="78">
+      <c r="I25" s="52">
         <f t="shared" si="12"/>
         <v>6225</v>
       </c>
@@ -6660,7 +7857,7 @@
       <c r="H26" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="52">
         <f t="shared" si="12"/>
         <v>2505</v>
       </c>
@@ -6696,7 +7893,7 @@
       <c r="H27" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="52">
         <f t="shared" si="12"/>
         <v>2298.3333333333335</v>
       </c>
@@ -6732,7 +7929,7 @@
       <c r="H28" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="52">
         <f t="shared" si="12"/>
         <v>2120</v>
       </c>
@@ -6762,7 +7959,7 @@
       <c r="H29" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="52">
         <f t="shared" si="12"/>
         <v>1496.6666666666667</v>
       </c>
@@ -6792,7 +7989,7 @@
       <c r="H30" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="52">
         <f t="shared" si="12"/>
         <v>1462.5</v>
       </c>
@@ -6820,7 +8017,7 @@
       <c r="H31" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="78">
+      <c r="I31" s="52">
         <f t="shared" si="12"/>
         <v>742.5</v>
       </c>
@@ -6848,7 +8045,7 @@
       <c r="H32" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="78">
+      <c r="I32" s="52">
         <f t="shared" si="12"/>
         <v>90</v>
       </c>
@@ -6863,6 +8060,19 @@
     <sortCondition descending="1" ref="E22:E32"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="D1:AE1"/>
+    <mergeCell ref="D2:AE2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="X17:AA17"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
@@ -6876,19 +8086,6 @@
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="P17:S17"/>
     <mergeCell ref="T17:W17"/>
-    <mergeCell ref="D1:AE1"/>
-    <mergeCell ref="D2:AE2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6930,138 +8127,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="73" t="s">
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="73" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="73" t="s">
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="73" t="s">
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="71" t="s">
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="68" t="s">
         <v>14</v>
       </c>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="71" t="s">
+      <c r="AE3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="71" t="s">
+      <c r="AF3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="77" t="s">
+      <c r="AH3" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B4" s="76"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="14" t="s">
         <v>36</v>
       </c>
@@ -7134,10 +8331,10 @@
       <c r="AB4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="72"/>
+      <c r="AC4" s="69"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="20" t="s">
         <v>26</v>
@@ -7153,7 +8350,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -7261,7 +8458,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="67"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -7367,7 +8564,7 @@
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="67"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -7473,7 +8670,7 @@
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="67"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -7579,7 +8776,7 @@
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="67"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -7685,7 +8882,7 @@
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="67"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -7791,7 +8988,7 @@
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="67"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -7897,7 +9094,7 @@
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="67"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
@@ -8003,7 +9200,7 @@
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="67"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
@@ -8109,7 +9306,7 @@
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="67"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -8215,7 +9412,7 @@
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="68"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
@@ -8358,7 +9555,7 @@
       <c r="AK16" s="21"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="70" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -8464,7 +9661,7 @@
       </c>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B18" s="67"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
@@ -8568,7 +9765,7 @@
       </c>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B19" s="67"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
@@ -8672,7 +9869,7 @@
       </c>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B20" s="67"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -8776,7 +9973,7 @@
       </c>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B21" s="67"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -8880,7 +10077,7 @@
       </c>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B22" s="67"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -8984,7 +10181,7 @@
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B23" s="67"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -9088,7 +10285,7 @@
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B24" s="67"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
@@ -9192,7 +10389,7 @@
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B25" s="67"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
@@ -9296,7 +10493,7 @@
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B26" s="67"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
@@ -9400,7 +10597,7 @@
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B27" s="68"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
@@ -9504,7 +10701,7 @@
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="70" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -9613,7 +10810,7 @@
       </c>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B30" s="67"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
@@ -9720,7 +10917,7 @@
       </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B31" s="67"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
@@ -9827,7 +11024,7 @@
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B32" s="67"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
@@ -9934,7 +11131,7 @@
       </c>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B33" s="67"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
@@ -10041,7 +11238,7 @@
       </c>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B34" s="67"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
@@ -10148,7 +11345,7 @@
       </c>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B35" s="67"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
@@ -10255,7 +11452,7 @@
       </c>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B36" s="67"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
@@ -10362,7 +11559,7 @@
       </c>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B37" s="67"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
@@ -10469,7 +11666,7 @@
       </c>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B38" s="67"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -10577,7 +11774,7 @@
       </c>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B39" s="68"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -10689,11 +11886,6 @@
     <sortCondition descending="1" ref="AK29:AK39"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="B29:B39"/>
     <mergeCell ref="E1:AF1"/>
     <mergeCell ref="E2:AF2"/>
     <mergeCell ref="C3:C4"/>
@@ -10704,6 +11896,11 @@
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="B29:B39"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="B17:B27"/>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CD704E-9544-214C-A2D8-3B467608A80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD03F8C1-C63B-C646-9E42-916DA008017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Joako</t>
+  </si>
+  <si>
+    <t>Partida Ganada</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -667,6 +670,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,9 +1020,10 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -1034,8 +1042,11 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1055,8 +1066,11 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>2.2727272727272729</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1076,8 +1090,11 @@
         <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1097,8 +1114,11 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1118,8 +1138,11 @@
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1139,8 +1162,11 @@
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1160,8 +1186,11 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1181,8 +1210,11 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1202,8 +1234,11 @@
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1223,8 +1258,11 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.4444444444444444</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1244,8 +1282,11 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1265,8 +1306,11 @@
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -1286,8 +1330,11 @@
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1307,8 +1354,11 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1328,8 +1378,11 @@
         <f t="shared" si="1"/>
         <v>1.4444444444444444</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1349,8 +1402,11 @@
         <f t="shared" si="1"/>
         <v>0.31578947368421051</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -1370,8 +1426,11 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -1391,8 +1450,11 @@
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -1412,8 +1474,11 @@
         <f t="shared" ref="F19:F29" si="2">IF(E19=0,0,(D19/E19))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -1433,8 +1498,11 @@
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -1454,8 +1522,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -1475,8 +1546,11 @@
         <f t="shared" si="2"/>
         <v>2.4444444444444446</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -1496,8 +1570,11 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -1517,8 +1594,11 @@
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1538,8 +1618,11 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -1559,8 +1642,11 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -1580,8 +1666,11 @@
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -1601,8 +1690,11 @@
         <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -1622,8 +1714,11 @@
         <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1643,8 +1738,11 @@
         <f t="shared" ref="F30:F38" si="3">IF(E30=0,0,(D30/E30))</f>
         <v>1.8181818181818181</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -1664,8 +1762,11 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -1685,8 +1786,11 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -1706,8 +1810,11 @@
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -1727,8 +1834,11 @@
         <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -1748,8 +1858,11 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -1769,8 +1882,11 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -1790,8 +1906,11 @@
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -1811,8 +1930,11 @@
         <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -1832,8 +1954,11 @@
         <f t="shared" ref="F39:F46" si="4">IF(E39=0,0,(D39/E39))</f>
         <v>3.125</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -1853,8 +1978,11 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -1874,8 +2002,11 @@
         <f t="shared" si="4"/>
         <v>1.8333333333333333</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>5</v>
       </c>
@@ -1895,8 +2026,11 @@
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>5</v>
       </c>
@@ -1916,8 +2050,11 @@
         <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>5</v>
       </c>
@@ -1937,8 +2074,11 @@
         <f t="shared" si="4"/>
         <v>0.72222222222222221</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>5</v>
       </c>
@@ -1958,8 +2098,11 @@
         <f t="shared" si="4"/>
         <v>0.17647058823529413</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -1979,8 +2122,11 @@
         <f t="shared" si="4"/>
         <v>0.3888888888888889</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>5</v>
       </c>
@@ -1991,14 +2137,209 @@
         <v>315</v>
       </c>
       <c r="D47" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <f t="shared" ref="F47:F55" si="5">IF(E47=0,0,(D47/E47))</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="16">
+        <v>405</v>
+      </c>
+      <c r="D48" s="3">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11</v>
+      </c>
+      <c r="F48" s="13">
+        <f t="shared" si="5"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="G48" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="16">
+        <v>945</v>
+      </c>
+      <c r="D49" s="3">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9</v>
+      </c>
+      <c r="F49" s="13">
+        <f t="shared" si="5"/>
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="G49" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16">
+        <v>95</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>7</v>
+      </c>
+      <c r="F50" s="13">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G50" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="16">
+        <v>675</v>
+      </c>
+      <c r="D51" s="3">
+        <v>16</v>
+      </c>
+      <c r="E51" s="3">
+        <v>12</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G51" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="16">
+        <v>415</v>
+      </c>
+      <c r="D52" s="3">
         <v>2</v>
       </c>
-      <c r="F47" s="13">
-        <f t="shared" ref="F47" si="5">IF(E47=0,0,(D47/E47))</f>
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>6</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G52" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="16">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3">
+        <v>8</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16">
+        <v>235</v>
+      </c>
+      <c r="D54" s="3">
+        <v>11</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G54" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="16">
+        <v>105</v>
+      </c>
+      <c r="D55" s="3">
+        <v>3</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="88">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2008,15 +2349,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F50"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -2035,8 +2379,11 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2056,8 +2403,11 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.1111111111111112</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2077,8 +2427,11 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2098,8 +2451,11 @@
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2119,8 +2475,11 @@
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2140,8 +2499,11 @@
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2161,8 +2523,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2182,8 +2547,11 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2203,8 +2571,11 @@
         <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -2224,8 +2595,11 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>2.2222222222222223</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2245,8 +2619,11 @@
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -2266,8 +2643,11 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -2287,8 +2667,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -2308,8 +2691,11 @@
         <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -2329,8 +2715,11 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -2350,8 +2739,11 @@
         <f t="shared" si="1"/>
         <v>0.72727272727272729</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2371,8 +2763,11 @@
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -2392,8 +2787,11 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2413,8 +2811,11 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>0.53333333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -2434,8 +2835,11 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>4.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -2455,8 +2859,11 @@
         <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -2476,8 +2883,11 @@
         <f t="shared" si="2"/>
         <v>2.4444444444444446</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -2497,8 +2907,11 @@
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2518,8 +2931,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -2539,8 +2955,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -2560,8 +2979,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -2581,8 +3003,11 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -2602,8 +3027,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -2623,8 +3051,11 @@
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -2644,8 +3075,11 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -2662,11 +3096,14 @@
         <v>6</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" ref="F31:F50" si="3">IF(E31=0,0,(D31/E31))</f>
+        <f t="shared" ref="F31:F58" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>1.8333333333333333</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -2686,8 +3123,11 @@
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -2707,8 +3147,11 @@
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -2728,8 +3171,11 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -2749,8 +3195,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -2770,8 +3219,11 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -2791,8 +3243,11 @@
         <f t="shared" si="3"/>
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -2812,8 +3267,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -2833,8 +3291,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="79">
         <v>5</v>
       </c>
@@ -2854,8 +3315,11 @@
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
         <v>5</v>
       </c>
@@ -2875,8 +3339,11 @@
         <f t="shared" si="3"/>
         <v>1.0769230769230769</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
         <v>5</v>
       </c>
@@ -2896,8 +3363,11 @@
         <f t="shared" si="3"/>
         <v>1.2222222222222223</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
         <v>5</v>
       </c>
@@ -2917,8 +3387,11 @@
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
         <v>5</v>
       </c>
@@ -2938,8 +3411,11 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
         <v>5</v>
       </c>
@@ -2959,8 +3435,11 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
         <v>5</v>
       </c>
@@ -2980,8 +3459,11 @@
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
         <v>5</v>
       </c>
@@ -3001,8 +3483,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
         <v>5</v>
       </c>
@@ -3022,8 +3507,11 @@
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83">
         <v>5</v>
       </c>
@@ -3043,8 +3531,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="83">
         <v>5</v>
       </c>
@@ -3063,6 +3554,225 @@
       <c r="F50" s="13">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
+      </c>
+      <c r="G50" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="16">
+        <v>1890</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="16">
+        <v>50</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1225</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="16">
+        <v>1585</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="16">
+        <v>320</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="16">
+        <v>40</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="16">
+        <v>65</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16">
+        <v>445</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8</v>
+      </c>
+      <c r="F59" s="13">
+        <f t="shared" ref="F59" si="4">IF(E59=0,0,(D59/E59))</f>
+        <v>0.625</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3072,15 +3782,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -3099,8 +3812,11 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3120,8 +3836,11 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.625</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3141,8 +3860,11 @@
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3162,8 +3884,11 @@
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3183,8 +3908,11 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3204,8 +3932,11 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3225,8 +3956,11 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -3246,8 +3980,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -3267,8 +4004,11 @@
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -3288,8 +4028,11 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3309,8 +4052,11 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -3330,8 +4076,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -3351,8 +4100,11 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -3372,8 +4124,11 @@
         <f t="shared" si="1"/>
         <v>1.1818181818181819</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -3393,8 +4148,11 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -3414,8 +4172,11 @@
         <f t="shared" si="1"/>
         <v>1.0833333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3435,8 +4196,11 @@
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -3456,8 +4220,11 @@
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -3477,8 +4244,11 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -3498,8 +4268,11 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.0769230769230769</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -3519,8 +4292,11 @@
         <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -3540,8 +4316,11 @@
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -3561,8 +4340,11 @@
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -3582,8 +4364,11 @@
         <f t="shared" si="2"/>
         <v>0.63636363636363635</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -3603,8 +4388,11 @@
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -3624,8 +4412,11 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -3645,8 +4436,11 @@
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -3666,8 +4460,11 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -3687,8 +4484,11 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -3708,8 +4508,11 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.2222222222222223</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -3726,11 +4529,14 @@
         <v>7</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" ref="F31:F49" si="3">IF(E31=0,0,(D31/E31))</f>
+        <f t="shared" ref="F31:F57" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>1.7142857142857142</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -3750,8 +4556,11 @@
         <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -3771,8 +4580,11 @@
         <f t="shared" si="3"/>
         <v>1.2307692307692308</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -3792,8 +4604,11 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -3813,8 +4628,11 @@
         <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -3834,8 +4652,11 @@
         <f t="shared" si="3"/>
         <v>1.4285714285714286</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -3855,8 +4676,11 @@
         <f t="shared" si="3"/>
         <v>0.46666666666666667</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -3876,8 +4700,11 @@
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -3897,8 +4724,11 @@
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="79">
         <v>5</v>
       </c>
@@ -3918,8 +4748,11 @@
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
         <v>5</v>
       </c>
@@ -3939,8 +4772,11 @@
         <f t="shared" si="3"/>
         <v>1.0909090909090908</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
         <v>5</v>
       </c>
@@ -3960,8 +4796,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
         <v>5</v>
       </c>
@@ -3981,8 +4820,11 @@
         <f t="shared" si="3"/>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
         <v>5</v>
       </c>
@@ -4002,8 +4844,11 @@
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
         <v>5</v>
       </c>
@@ -4023,8 +4868,11 @@
         <f t="shared" si="3"/>
         <v>1.625</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
         <v>5</v>
       </c>
@@ -4044,8 +4892,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
         <v>5</v>
       </c>
@@ -4065,8 +4916,11 @@
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
         <v>5</v>
       </c>
@@ -4086,8 +4940,11 @@
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83">
         <v>5</v>
       </c>
@@ -4106,6 +4963,225 @@
       <c r="F49" s="13">
         <f t="shared" si="3"/>
         <v>1.5714285714285714</v>
+      </c>
+      <c r="G49" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="16">
+        <v>265</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6</v>
+      </c>
+      <c r="E50" s="3">
+        <v>5</v>
+      </c>
+      <c r="F50" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="G50" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="16">
+        <v>325</v>
+      </c>
+      <c r="D51" s="3">
+        <v>6</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="G51" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16">
+        <v>1425</v>
+      </c>
+      <c r="D52" s="3">
+        <v>13</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="G52" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="16">
+        <v>960</v>
+      </c>
+      <c r="D53" s="3">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G53" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="16">
+        <v>160</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="G54" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="16">
+        <v>190</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3">
+        <v>9</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G55" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="16">
+        <v>245</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3">
+        <v>6</v>
+      </c>
+      <c r="F56" s="13">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" ref="F58" si="4">IF(E58=0,0,(D58/E58))</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4115,15 +5191,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -4142,8 +5221,11 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4163,8 +5245,11 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>2.5555555555555554</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4184,8 +5269,11 @@
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4205,8 +5293,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4226,8 +5317,11 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4247,8 +5341,11 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4268,8 +5365,11 @@
         <f t="shared" si="0"/>
         <v>0.72727272727272729</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -4289,8 +5389,11 @@
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -4310,8 +5413,11 @@
         <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -4331,8 +5437,11 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4352,8 +5461,11 @@
         <f t="shared" si="1"/>
         <v>1.1818181818181819</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -4373,8 +5485,11 @@
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -4394,8 +5509,11 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -4415,8 +5533,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -4436,8 +5557,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -4457,8 +5581,11 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -4478,8 +5605,11 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -4499,8 +5629,11 @@
         <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -4520,8 +5653,11 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -4541,8 +5677,11 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -4562,8 +5701,11 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -4583,8 +5725,11 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -4604,8 +5749,11 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -4625,8 +5773,11 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -4646,8 +5797,11 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -4667,8 +5821,11 @@
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -4688,8 +5845,11 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -4709,8 +5869,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -4730,8 +5893,11 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -4751,8 +5917,11 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>3.1428571428571428</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -4769,11 +5938,14 @@
         <v>10</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" ref="F31:F50" si="3">IF(E31=0,0,(D31/E31))</f>
+        <f t="shared" ref="F31:F58" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -4793,8 +5965,11 @@
         <f t="shared" si="3"/>
         <v>1.1428571428571428</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -4814,8 +5989,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -4835,8 +6013,11 @@
         <f t="shared" si="3"/>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -4856,8 +6037,11 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -4877,8 +6061,11 @@
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -4898,8 +6085,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -4919,8 +6109,11 @@
         <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -4940,8 +6133,11 @@
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="79">
         <v>5</v>
       </c>
@@ -4961,8 +6157,11 @@
         <f t="shared" si="3"/>
         <v>1.7272727272727273</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
         <v>5</v>
       </c>
@@ -4982,8 +6181,11 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
         <v>5</v>
       </c>
@@ -5003,8 +6205,11 @@
         <f t="shared" si="3"/>
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
         <v>5</v>
       </c>
@@ -5024,8 +6229,11 @@
         <f t="shared" si="3"/>
         <v>1.2857142857142858</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
         <v>5</v>
       </c>
@@ -5045,8 +6253,11 @@
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
         <v>5</v>
       </c>
@@ -5066,8 +6277,11 @@
         <f t="shared" si="3"/>
         <v>1.1428571428571428</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
         <v>5</v>
       </c>
@@ -5087,8 +6301,11 @@
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
         <v>5</v>
       </c>
@@ -5108,8 +6325,11 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
         <v>5</v>
       </c>
@@ -5129,8 +6349,11 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83">
         <v>5</v>
       </c>
@@ -5150,8 +6373,11 @@
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="83">
         <v>5</v>
       </c>
@@ -5170,6 +6396,225 @@
       <c r="F50" s="13">
         <f t="shared" si="3"/>
         <v>0.36363636363636365</v>
+      </c>
+      <c r="G50" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="16">
+        <v>555</v>
+      </c>
+      <c r="D51" s="3">
+        <v>13</v>
+      </c>
+      <c r="E51" s="3">
+        <v>11</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="G51" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="16">
+        <v>950</v>
+      </c>
+      <c r="D52" s="3">
+        <v>11</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="G52" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1020</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G53" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="16">
+        <v>1350</v>
+      </c>
+      <c r="D54" s="3">
+        <v>11</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="G54" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="16">
+        <v>140</v>
+      </c>
+      <c r="D55" s="3">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3">
+        <v>9</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="3"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G55" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="16">
+        <v>725</v>
+      </c>
+      <c r="D56" s="3">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3">
+        <v>8</v>
+      </c>
+      <c r="F56" s="13">
+        <f t="shared" si="3"/>
+        <v>1.125</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="16">
+        <v>75</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="16">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16">
+        <v>230</v>
+      </c>
+      <c r="D59" s="3">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14</v>
+      </c>
+      <c r="F59" s="13">
+        <f t="shared" ref="F59" si="4">IF(E59=0,0,(D59/E59))</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5179,15 +6624,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F49"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -5206,8 +6654,11 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5227,8 +6678,11 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.6153846153846154</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5248,8 +6702,11 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5269,8 +6726,11 @@
         <f t="shared" si="0"/>
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -5290,8 +6750,11 @@
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -5311,8 +6774,11 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -5332,8 +6798,11 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -5353,8 +6822,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -5374,8 +6846,11 @@
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -5395,8 +6870,11 @@
         <f t="shared" ref="F10:F29" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.2307692307692308</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5416,8 +6894,11 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -5437,8 +6918,11 @@
         <f t="shared" si="1"/>
         <v>1.5833333333333333</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -5458,8 +6942,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -5479,8 +6966,11 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -5500,8 +6990,11 @@
         <f t="shared" si="1"/>
         <v>1.875</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -5521,8 +7014,11 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -5542,8 +7038,11 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -5563,8 +7062,11 @@
         <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -5584,8 +7086,11 @@
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -5605,8 +7110,11 @@
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -5626,8 +7134,11 @@
         <f t="shared" si="1"/>
         <v>1.1428571428571428</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -5647,8 +7158,11 @@
         <f t="shared" si="1"/>
         <v>1.3636363636363635</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -5668,8 +7182,11 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -5689,8 +7206,11 @@
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -5710,8 +7230,11 @@
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -5731,8 +7254,11 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -5752,8 +7278,11 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -5773,8 +7302,11 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -5794,8 +7326,11 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -5812,11 +7347,14 @@
         <v>8</v>
       </c>
       <c r="F30" s="13">
-        <f t="shared" ref="F30:F49" si="2">IF(E30=0,0,(D30/E30))</f>
+        <f t="shared" ref="F30:F57" si="2">IF(E30=0,0,(D30/E30))</f>
         <v>2.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -5836,8 +7374,11 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -5857,8 +7398,11 @@
         <f t="shared" si="2"/>
         <v>1.8571428571428572</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -5878,8 +7422,11 @@
         <f t="shared" si="2"/>
         <v>1.1428571428571428</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -5899,8 +7446,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -5920,8 +7470,11 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -5941,8 +7494,11 @@
         <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -5962,8 +7518,11 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -5983,8 +7542,11 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="79">
         <v>5</v>
       </c>
@@ -6004,8 +7566,11 @@
         <f t="shared" si="2"/>
         <v>2.1428571428571428</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="83">
         <v>5</v>
       </c>
@@ -6025,8 +7590,11 @@
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
         <v>5</v>
       </c>
@@ -6046,8 +7614,11 @@
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
         <v>5</v>
       </c>
@@ -6067,8 +7638,11 @@
         <f t="shared" si="2"/>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
         <v>5</v>
       </c>
@@ -6088,8 +7662,11 @@
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
         <v>5</v>
       </c>
@@ -6109,8 +7686,11 @@
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
         <v>5</v>
       </c>
@@ -6130,8 +7710,11 @@
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
         <v>5</v>
       </c>
@@ -6151,8 +7734,11 @@
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
         <v>5</v>
       </c>
@@ -6172,8 +7758,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
         <v>5</v>
       </c>
@@ -6193,8 +7782,11 @@
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83">
         <v>5</v>
       </c>
@@ -6213,6 +7805,225 @@
       <c r="F49" s="13">
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
+      </c>
+      <c r="G49" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1435</v>
+      </c>
+      <c r="D50" s="3">
+        <v>20</v>
+      </c>
+      <c r="E50" s="3">
+        <v>9</v>
+      </c>
+      <c r="F50" s="13">
+        <f t="shared" si="2"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G50" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="16">
+        <v>680</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3">
+        <v>9</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G51" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16">
+        <v>325</v>
+      </c>
+      <c r="D52" s="3">
+        <v>6</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="G52" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="16">
+        <v>50</v>
+      </c>
+      <c r="D53" s="3">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3">
+        <v>9</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="16">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="G54" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="16">
+        <v>910</v>
+      </c>
+      <c r="D55" s="3">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3">
+        <v>5</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="G55" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="16">
+        <v>75</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3">
+        <v>8</v>
+      </c>
+      <c r="F56" s="13">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" si="2"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16">
+        <v>230</v>
+      </c>
+      <c r="D58" s="3">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" ref="F58" si="3">IF(E58=0,0,(D58/E58))</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6222,15 +8033,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -6249,8 +8063,11 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6270,8 +8087,11 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.875</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -6291,8 +8111,11 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -6312,8 +8135,11 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -6333,8 +8159,11 @@
         <f t="shared" si="0"/>
         <v>1.8888888888888888</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -6354,8 +8183,11 @@
         <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -6375,8 +8207,11 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -6396,8 +8231,11 @@
         <f t="shared" si="0"/>
         <v>1.1428571428571428</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -6417,8 +8255,11 @@
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -6438,8 +8279,11 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -6459,8 +8303,11 @@
         <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -6480,8 +8327,11 @@
         <f t="shared" si="1"/>
         <v>1.8571428571428572</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -6501,8 +8351,11 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -6522,8 +8375,11 @@
         <f t="shared" si="1"/>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -6543,8 +8399,11 @@
         <f t="shared" si="1"/>
         <v>1.3636363636363635</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -6564,8 +8423,11 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -6585,8 +8447,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -6606,8 +8471,11 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -6627,8 +8495,11 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -6648,8 +8519,11 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -6669,8 +8543,11 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -6690,8 +8567,11 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -6711,8 +8591,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -6732,8 +8615,11 @@
         <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -6753,8 +8639,11 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -6774,8 +8663,11 @@
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -6795,8 +8687,11 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -6816,8 +8711,11 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -6837,8 +8735,11 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -6858,8 +8759,11 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -6879,8 +8783,11 @@
         <f t="shared" ref="F31:F38" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>3.3333333333333335</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -6900,8 +8807,11 @@
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -6921,8 +8831,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -6942,8 +8855,11 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -6963,8 +8879,11 @@
         <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -6984,8 +8903,11 @@
         <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -7005,8 +8927,11 @@
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -7026,8 +8951,11 @@
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="79">
         <v>5</v>
       </c>
@@ -7046,8 +8974,11 @@
       <c r="F39" s="82">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="83">
         <v>5</v>
       </c>
@@ -7066,8 +8997,11 @@
       <c r="F40" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
         <v>5</v>
       </c>
@@ -7086,8 +9020,11 @@
       <c r="F41" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
         <v>5</v>
       </c>
@@ -7106,8 +9043,11 @@
       <c r="F42" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
         <v>5</v>
       </c>
@@ -7126,8 +9066,11 @@
       <c r="F43" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
         <v>5</v>
       </c>
@@ -7146,8 +9089,11 @@
       <c r="F44" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
         <v>5</v>
       </c>
@@ -7166,8 +9112,11 @@
       <c r="F45" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
         <v>5</v>
       </c>
@@ -7186,8 +9135,11 @@
       <c r="F46" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
         <v>5</v>
       </c>
@@ -7206,8 +9158,11 @@
       <c r="F47" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
         <v>5</v>
       </c>
@@ -7225,6 +9180,225 @@
       </c>
       <c r="F48" s="86">
         <v>0</v>
+      </c>
+      <c r="G48" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1520</v>
+      </c>
+      <c r="D49" s="3">
+        <v>15</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6</v>
+      </c>
+      <c r="F49" s="13">
+        <f t="shared" ref="F49:F56" si="4">IF(E49=0,0,(D49/E49))</f>
+        <v>2.5</v>
+      </c>
+      <c r="G49" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="16">
+        <v>345</v>
+      </c>
+      <c r="D50" s="3">
+        <v>9</v>
+      </c>
+      <c r="E50" s="3">
+        <v>9</v>
+      </c>
+      <c r="F50" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16">
+        <v>440</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G51" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="16">
+        <v>735</v>
+      </c>
+      <c r="D52" s="3">
+        <v>12</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G52" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="16">
+        <v>45</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3</v>
+      </c>
+      <c r="E53" s="3">
+        <v>8</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="G53" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="16">
+        <v>730</v>
+      </c>
+      <c r="D54" s="3">
+        <v>11</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="G54" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="16">
+        <v>290</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="16">
+        <v>90</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3">
+        <v>7</v>
+      </c>
+      <c r="F56" s="13">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G56" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" ref="F57" si="5">IF(E57=0,0,(D57/E57))</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="G57" s="88">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD03F8C1-C63B-C646-9E42-916DA008017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADCB4F-C59D-0A49-9A33-88259B8B2E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,9 +1066,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>2.2727272727272729</v>
       </c>
-      <c r="G2" s="88">
-        <v>0</v>
-      </c>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1090,9 +1088,7 @@
         <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="G3" s="88">
-        <v>0</v>
-      </c>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1114,9 +1110,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G4" s="88">
-        <v>0</v>
-      </c>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1138,9 +1132,7 @@
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="G5" s="88">
-        <v>0</v>
-      </c>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1162,9 +1154,7 @@
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G6" s="88">
-        <v>0</v>
-      </c>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1186,9 +1176,7 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G7" s="88">
-        <v>0</v>
-      </c>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1210,9 +1198,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G8" s="88">
-        <v>0</v>
-      </c>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1234,9 +1220,7 @@
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="G9" s="88">
-        <v>0</v>
-      </c>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1258,9 +1242,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.4444444444444444</v>
       </c>
-      <c r="G10" s="88">
-        <v>0</v>
-      </c>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1282,9 +1264,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G11" s="88">
-        <v>0</v>
-      </c>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1306,9 +1286,7 @@
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="G12" s="88">
-        <v>0</v>
-      </c>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1330,9 +1308,7 @@
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G13" s="88">
-        <v>0</v>
-      </c>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1354,9 +1330,7 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G14" s="88">
-        <v>0</v>
-      </c>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1378,9 +1352,7 @@
         <f t="shared" si="1"/>
         <v>1.4444444444444444</v>
       </c>
-      <c r="G15" s="88">
-        <v>0</v>
-      </c>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1402,9 +1374,7 @@
         <f t="shared" si="1"/>
         <v>0.31578947368421051</v>
       </c>
-      <c r="G16" s="88">
-        <v>0</v>
-      </c>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1426,9 +1396,7 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="G17" s="88">
-        <v>0</v>
-      </c>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1450,9 +1418,7 @@
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G18" s="88">
-        <v>0</v>
-      </c>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1474,9 +1440,7 @@
         <f t="shared" ref="F19:F29" si="2">IF(E19=0,0,(D19/E19))</f>
         <v>3</v>
       </c>
-      <c r="G19" s="88">
-        <v>0</v>
-      </c>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1498,9 +1462,7 @@
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G20" s="88">
-        <v>0</v>
-      </c>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -1522,9 +1484,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G21" s="88">
-        <v>0</v>
-      </c>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1546,9 +1506,7 @@
         <f t="shared" si="2"/>
         <v>2.4444444444444446</v>
       </c>
-      <c r="G22" s="88">
-        <v>0</v>
-      </c>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -1570,9 +1528,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="G23" s="88">
-        <v>0</v>
-      </c>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1594,9 +1550,7 @@
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-      <c r="G24" s="88">
-        <v>0</v>
-      </c>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1618,9 +1572,7 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="G25" s="88">
-        <v>0</v>
-      </c>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1642,9 +1594,7 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -1666,9 +1616,7 @@
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G27" s="88">
-        <v>0</v>
-      </c>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1690,9 +1638,7 @@
         <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G28" s="88">
-        <v>0</v>
-      </c>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -1714,9 +1660,7 @@
         <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="G29" s="88">
-        <v>0</v>
-      </c>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -1738,9 +1682,7 @@
         <f t="shared" ref="F30:F38" si="3">IF(E30=0,0,(D30/E30))</f>
         <v>1.8181818181818181</v>
       </c>
-      <c r="G30" s="88">
-        <v>0</v>
-      </c>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -1762,9 +1704,7 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G31" s="88">
-        <v>0</v>
-      </c>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -1786,9 +1726,7 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G32" s="88">
-        <v>0</v>
-      </c>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1810,9 +1748,7 @@
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G33" s="88">
-        <v>0</v>
-      </c>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -1834,9 +1770,7 @@
         <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
-      <c r="G34" s="88">
-        <v>0</v>
-      </c>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -1858,9 +1792,7 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G35" s="88">
-        <v>0</v>
-      </c>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1882,9 +1814,7 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G36" s="88">
-        <v>0</v>
-      </c>
+      <c r="G36" s="88"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -1906,9 +1836,7 @@
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="G37" s="88">
-        <v>0</v>
-      </c>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -1930,9 +1858,7 @@
         <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="G38" s="88">
-        <v>0</v>
-      </c>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -1954,9 +1880,7 @@
         <f t="shared" ref="F39:F46" si="4">IF(E39=0,0,(D39/E39))</f>
         <v>3.125</v>
       </c>
-      <c r="G39" s="88">
-        <v>0</v>
-      </c>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -1978,9 +1902,7 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="G40" s="88">
-        <v>0</v>
-      </c>
+      <c r="G40" s="88"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -2002,9 +1924,7 @@
         <f t="shared" si="4"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="G41" s="88">
-        <v>0</v>
-      </c>
+      <c r="G41" s="88"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -2026,9 +1946,7 @@
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-      <c r="G42" s="88">
-        <v>0</v>
-      </c>
+      <c r="G42" s="88"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -2050,9 +1968,7 @@
         <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G43" s="88">
-        <v>0</v>
-      </c>
+      <c r="G43" s="88"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -2074,9 +1990,7 @@
         <f t="shared" si="4"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="G44" s="88">
-        <v>0</v>
-      </c>
+      <c r="G44" s="88"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -2098,9 +2012,7 @@
         <f t="shared" si="4"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="G45" s="88">
-        <v>0</v>
-      </c>
+      <c r="G45" s="88"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
@@ -2122,9 +2034,7 @@
         <f t="shared" si="4"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="G46" s="88">
-        <v>0</v>
-      </c>
+      <c r="G46" s="88"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
@@ -2146,9 +2056,7 @@
         <f t="shared" ref="F47:F55" si="5">IF(E47=0,0,(D47/E47))</f>
         <v>0</v>
       </c>
-      <c r="G47" s="88">
-        <v>0</v>
-      </c>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
@@ -2351,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2403,9 +2311,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="G2" s="88">
-        <v>0</v>
-      </c>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -2427,9 +2333,7 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G3" s="88">
-        <v>0</v>
-      </c>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -2451,9 +2355,7 @@
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="G4" s="88">
-        <v>0</v>
-      </c>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -2475,9 +2377,7 @@
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="G5" s="88">
-        <v>0</v>
-      </c>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2499,9 +2399,7 @@
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="G6" s="88">
-        <v>0</v>
-      </c>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -2523,9 +2421,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="88">
-        <v>0</v>
-      </c>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -2547,9 +2443,7 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G8" s="88">
-        <v>0</v>
-      </c>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -2571,9 +2465,7 @@
         <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="G9" s="88">
-        <v>0</v>
-      </c>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -2595,9 +2487,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="G10" s="88">
-        <v>0</v>
-      </c>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -2619,9 +2509,7 @@
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="G11" s="88">
-        <v>0</v>
-      </c>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -2643,9 +2531,7 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="G12" s="88">
-        <v>0</v>
-      </c>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -2667,9 +2553,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G13" s="88">
-        <v>0</v>
-      </c>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -2691,9 +2575,7 @@
         <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="G14" s="88">
-        <v>0</v>
-      </c>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2715,9 +2597,7 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="G15" s="88">
-        <v>0</v>
-      </c>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2739,9 +2619,7 @@
         <f t="shared" si="1"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="G16" s="88">
-        <v>0</v>
-      </c>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2763,9 +2641,7 @@
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G17" s="88">
-        <v>0</v>
-      </c>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2787,9 +2663,7 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="G18" s="88">
-        <v>0</v>
-      </c>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2811,9 +2685,7 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="G19" s="88">
-        <v>0</v>
-      </c>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2835,9 +2707,7 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>4.25</v>
       </c>
-      <c r="G20" s="88">
-        <v>0</v>
-      </c>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2859,9 +2729,7 @@
         <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G21" s="88">
-        <v>0</v>
-      </c>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -2883,9 +2751,7 @@
         <f t="shared" si="2"/>
         <v>2.4444444444444446</v>
       </c>
-      <c r="G22" s="88">
-        <v>0</v>
-      </c>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -2907,9 +2773,7 @@
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G23" s="88">
-        <v>0</v>
-      </c>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -2931,9 +2795,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G24" s="88">
-        <v>0</v>
-      </c>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -2955,9 +2817,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G25" s="88">
-        <v>0</v>
-      </c>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -2979,9 +2839,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -3003,9 +2861,7 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G27" s="88">
-        <v>0</v>
-      </c>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -3027,9 +2883,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G28" s="88">
-        <v>0</v>
-      </c>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -3051,9 +2905,7 @@
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-      <c r="G29" s="88">
-        <v>0</v>
-      </c>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -3075,9 +2927,7 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G30" s="88">
-        <v>0</v>
-      </c>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -3099,9 +2949,7 @@
         <f t="shared" ref="F31:F58" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="G31" s="88">
-        <v>0</v>
-      </c>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -3123,9 +2971,7 @@
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="G32" s="88">
-        <v>0</v>
-      </c>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -3147,9 +2993,7 @@
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G33" s="88">
-        <v>0</v>
-      </c>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -3171,9 +3015,7 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G34" s="88">
-        <v>0</v>
-      </c>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -3195,9 +3037,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G35" s="88">
-        <v>0</v>
-      </c>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -3219,9 +3059,7 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G36" s="88">
-        <v>0</v>
-      </c>
+      <c r="G36" s="88"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -3243,9 +3081,7 @@
         <f t="shared" si="3"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="G37" s="88">
-        <v>0</v>
-      </c>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -3267,9 +3103,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G38" s="88">
-        <v>0</v>
-      </c>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -3291,9 +3125,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G39" s="88">
-        <v>0</v>
-      </c>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="79">
@@ -3315,9 +3147,7 @@
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G40" s="88">
-        <v>0</v>
-      </c>
+      <c r="G40" s="88"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
@@ -3339,9 +3169,7 @@
         <f t="shared" si="3"/>
         <v>1.0769230769230769</v>
       </c>
-      <c r="G41" s="88">
-        <v>0</v>
-      </c>
+      <c r="G41" s="88"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
@@ -3363,9 +3191,7 @@
         <f t="shared" si="3"/>
         <v>1.2222222222222223</v>
       </c>
-      <c r="G42" s="88">
-        <v>0</v>
-      </c>
+      <c r="G42" s="88"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
@@ -3387,9 +3213,7 @@
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-      <c r="G43" s="88">
-        <v>0</v>
-      </c>
+      <c r="G43" s="88"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
@@ -3411,9 +3235,7 @@
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="G44" s="88">
-        <v>0</v>
-      </c>
+      <c r="G44" s="88"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
@@ -3435,9 +3257,7 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G45" s="88">
-        <v>0</v>
-      </c>
+      <c r="G45" s="88"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
@@ -3459,9 +3279,7 @@
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="G46" s="88">
-        <v>0</v>
-      </c>
+      <c r="G46" s="88"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
@@ -3483,9 +3301,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G47" s="88">
-        <v>0</v>
-      </c>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
@@ -3507,9 +3323,7 @@
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G48" s="88">
-        <v>1</v>
-      </c>
+      <c r="G48" s="88"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83">
@@ -3531,9 +3345,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G49" s="88">
-        <v>0</v>
-      </c>
+      <c r="G49" s="88"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="83">
@@ -3555,9 +3367,7 @@
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G50" s="88">
-        <v>1</v>
-      </c>
+      <c r="G50" s="88"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
@@ -3784,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G49" sqref="G2:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3836,9 +3646,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.625</v>
       </c>
-      <c r="G2" s="88">
-        <v>0</v>
-      </c>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3860,9 +3668,7 @@
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G3" s="88">
-        <v>0</v>
-      </c>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -3884,9 +3690,7 @@
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G4" s="88">
-        <v>0</v>
-      </c>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -3908,9 +3712,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G5" s="88">
-        <v>0</v>
-      </c>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3932,9 +3734,7 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="G6" s="88">
-        <v>0</v>
-      </c>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -3956,9 +3756,7 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G7" s="88">
-        <v>0</v>
-      </c>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -3980,9 +3778,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="88">
-        <v>0</v>
-      </c>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -4004,9 +3800,7 @@
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G9" s="88">
-        <v>0</v>
-      </c>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -4028,9 +3822,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>0.8</v>
       </c>
-      <c r="G10" s="88">
-        <v>0</v>
-      </c>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -4052,9 +3844,7 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G11" s="88">
-        <v>0</v>
-      </c>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -4076,9 +3866,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G12" s="88">
-        <v>0</v>
-      </c>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -4100,9 +3888,7 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G13" s="88">
-        <v>0</v>
-      </c>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -4124,9 +3910,7 @@
         <f t="shared" si="1"/>
         <v>1.1818181818181819</v>
       </c>
-      <c r="G14" s="88">
-        <v>0</v>
-      </c>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -4148,9 +3932,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G15" s="88">
-        <v>0</v>
-      </c>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -4172,9 +3954,7 @@
         <f t="shared" si="1"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="G16" s="88">
-        <v>0</v>
-      </c>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -4196,9 +3976,7 @@
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="G17" s="88">
-        <v>0</v>
-      </c>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -4220,9 +3998,7 @@
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G18" s="88">
-        <v>0</v>
-      </c>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -4244,9 +4020,7 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G19" s="88">
-        <v>0</v>
-      </c>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -4268,9 +4042,7 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.0769230769230769</v>
       </c>
-      <c r="G20" s="88">
-        <v>0</v>
-      </c>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -4292,9 +4064,7 @@
         <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="G21" s="88">
-        <v>0</v>
-      </c>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -4316,9 +4086,7 @@
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="G22" s="88">
-        <v>0</v>
-      </c>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -4340,9 +4108,7 @@
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G23" s="88">
-        <v>0</v>
-      </c>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -4364,9 +4130,7 @@
         <f t="shared" si="2"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="G24" s="88">
-        <v>0</v>
-      </c>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -4388,9 +4152,7 @@
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="G25" s="88">
-        <v>0</v>
-      </c>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -4412,9 +4174,7 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -4436,9 +4196,7 @@
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G27" s="88">
-        <v>0</v>
-      </c>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -4460,9 +4218,7 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="G28" s="88">
-        <v>0</v>
-      </c>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -4484,9 +4240,7 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G29" s="88">
-        <v>0</v>
-      </c>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -4508,9 +4262,7 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="G30" s="88">
-        <v>0</v>
-      </c>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -4532,9 +4284,7 @@
         <f t="shared" ref="F31:F57" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G31" s="88">
-        <v>0</v>
-      </c>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -4556,9 +4306,7 @@
         <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G32" s="88">
-        <v>0</v>
-      </c>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -4580,9 +4328,7 @@
         <f t="shared" si="3"/>
         <v>1.2307692307692308</v>
       </c>
-      <c r="G33" s="88">
-        <v>0</v>
-      </c>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -4604,9 +4350,7 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G34" s="88">
-        <v>0</v>
-      </c>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -4628,9 +4372,7 @@
         <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="G35" s="88">
-        <v>0</v>
-      </c>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -4652,9 +4394,7 @@
         <f t="shared" si="3"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G36" s="88">
-        <v>0</v>
-      </c>
+      <c r="G36" s="88"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -4676,9 +4416,7 @@
         <f t="shared" si="3"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="G37" s="88">
-        <v>0</v>
-      </c>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -4700,9 +4438,7 @@
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G38" s="88">
-        <v>0</v>
-      </c>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -4724,9 +4460,7 @@
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G39" s="88">
-        <v>0</v>
-      </c>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="79">
@@ -4748,9 +4482,7 @@
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-      <c r="G40" s="88">
-        <v>0</v>
-      </c>
+      <c r="G40" s="88"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
@@ -4772,9 +4504,7 @@
         <f t="shared" si="3"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="G41" s="88">
-        <v>0</v>
-      </c>
+      <c r="G41" s="88"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
@@ -4796,9 +4526,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G42" s="88">
-        <v>0</v>
-      </c>
+      <c r="G42" s="88"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
@@ -4820,9 +4548,7 @@
         <f t="shared" si="3"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G43" s="88">
-        <v>0</v>
-      </c>
+      <c r="G43" s="88"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
@@ -4844,9 +4570,7 @@
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G44" s="88">
-        <v>0</v>
-      </c>
+      <c r="G44" s="88"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
@@ -4868,9 +4592,7 @@
         <f t="shared" si="3"/>
         <v>1.625</v>
       </c>
-      <c r="G45" s="88">
-        <v>0</v>
-      </c>
+      <c r="G45" s="88"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
@@ -4892,9 +4614,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G46" s="88">
-        <v>0</v>
-      </c>
+      <c r="G46" s="88"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
@@ -4916,9 +4636,7 @@
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="G47" s="88">
-        <v>0</v>
-      </c>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
@@ -4940,9 +4658,7 @@
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="G48" s="88">
-        <v>1</v>
-      </c>
+      <c r="G48" s="88"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83">
@@ -4964,9 +4680,7 @@
         <f t="shared" si="3"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="G49" s="88">
-        <v>0</v>
-      </c>
+      <c r="G49" s="88"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -5193,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G50" sqref="G2:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5245,9 +4959,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>2.5555555555555554</v>
       </c>
-      <c r="G2" s="88">
-        <v>0</v>
-      </c>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -5269,9 +4981,7 @@
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="G3" s="88">
-        <v>0</v>
-      </c>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -5293,9 +5003,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="88">
-        <v>0</v>
-      </c>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -5317,9 +5025,7 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G5" s="88">
-        <v>0</v>
-      </c>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -5341,9 +5047,7 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G6" s="88">
-        <v>0</v>
-      </c>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -5365,9 +5069,7 @@
         <f t="shared" si="0"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="G7" s="88">
-        <v>0</v>
-      </c>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -5389,9 +5091,7 @@
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G8" s="88">
-        <v>0</v>
-      </c>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -5413,9 +5113,7 @@
         <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="G9" s="88">
-        <v>0</v>
-      </c>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -5437,9 +5135,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.8</v>
       </c>
-      <c r="G10" s="88">
-        <v>0</v>
-      </c>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -5461,9 +5157,7 @@
         <f t="shared" si="1"/>
         <v>1.1818181818181819</v>
       </c>
-      <c r="G11" s="88">
-        <v>0</v>
-      </c>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -5485,9 +5179,7 @@
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G12" s="88">
-        <v>0</v>
-      </c>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -5509,9 +5201,7 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G13" s="88">
-        <v>0</v>
-      </c>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -5533,9 +5223,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="88">
-        <v>0</v>
-      </c>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -5557,9 +5245,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G15" s="88">
-        <v>0</v>
-      </c>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -5581,9 +5267,7 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G16" s="88">
-        <v>0</v>
-      </c>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -5605,9 +5289,7 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G17" s="88">
-        <v>0</v>
-      </c>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -5629,9 +5311,7 @@
         <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="G18" s="88">
-        <v>0</v>
-      </c>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -5653,9 +5333,7 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>2.5</v>
       </c>
-      <c r="G19" s="88">
-        <v>0</v>
-      </c>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -5677,9 +5355,7 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.7</v>
       </c>
-      <c r="G20" s="88">
-        <v>0</v>
-      </c>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -5701,9 +5377,7 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G21" s="88">
-        <v>0</v>
-      </c>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -5725,9 +5399,7 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G22" s="88">
-        <v>0</v>
-      </c>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -5749,9 +5421,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="G23" s="88">
-        <v>0</v>
-      </c>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -5773,9 +5443,7 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G24" s="88">
-        <v>0</v>
-      </c>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -5797,9 +5465,7 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="G25" s="88">
-        <v>0</v>
-      </c>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -5821,9 +5487,7 @@
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -5845,9 +5509,7 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="G27" s="88">
-        <v>0</v>
-      </c>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -5869,9 +5531,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="88">
-        <v>0</v>
-      </c>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -5893,9 +5553,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G29" s="88">
-        <v>0</v>
-      </c>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -5917,9 +5575,7 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>3.1428571428571428</v>
       </c>
-      <c r="G30" s="88">
-        <v>0</v>
-      </c>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -5941,9 +5597,7 @@
         <f t="shared" ref="F31:F58" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>0.9</v>
       </c>
-      <c r="G31" s="88">
-        <v>0</v>
-      </c>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -5965,9 +5619,7 @@
         <f t="shared" si="3"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G32" s="88">
-        <v>0</v>
-      </c>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -5989,9 +5641,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="88">
-        <v>0</v>
-      </c>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -6013,9 +5663,7 @@
         <f t="shared" si="3"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G34" s="88">
-        <v>0</v>
-      </c>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -6037,9 +5685,7 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G35" s="88">
-        <v>0</v>
-      </c>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -6061,9 +5707,7 @@
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="G36" s="88">
-        <v>0</v>
-      </c>
+      <c r="G36" s="88"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -6085,9 +5729,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G37" s="88">
-        <v>0</v>
-      </c>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -6109,9 +5751,7 @@
         <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="G38" s="88">
-        <v>0</v>
-      </c>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -6133,9 +5773,7 @@
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="G39" s="88">
-        <v>0</v>
-      </c>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="79">
@@ -6157,9 +5795,7 @@
         <f t="shared" si="3"/>
         <v>1.7272727272727273</v>
       </c>
-      <c r="G40" s="88">
-        <v>0</v>
-      </c>
+      <c r="G40" s="88"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
@@ -6181,9 +5817,7 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G41" s="88">
-        <v>0</v>
-      </c>
+      <c r="G41" s="88"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
@@ -6205,9 +5839,7 @@
         <f t="shared" si="3"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="G42" s="88">
-        <v>0</v>
-      </c>
+      <c r="G42" s="88"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
@@ -6229,9 +5861,7 @@
         <f t="shared" si="3"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="G43" s="88">
-        <v>0</v>
-      </c>
+      <c r="G43" s="88"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
@@ -6253,9 +5883,7 @@
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G44" s="88">
-        <v>0</v>
-      </c>
+      <c r="G44" s="88"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
@@ -6277,9 +5905,7 @@
         <f t="shared" si="3"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G45" s="88">
-        <v>0</v>
-      </c>
+      <c r="G45" s="88"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
@@ -6301,9 +5927,7 @@
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G46" s="88">
-        <v>0</v>
-      </c>
+      <c r="G46" s="88"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
@@ -6325,9 +5949,7 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G47" s="88">
-        <v>0</v>
-      </c>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
@@ -6349,9 +5971,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G48" s="88">
-        <v>1</v>
-      </c>
+      <c r="G48" s="88"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83">
@@ -6373,9 +5993,7 @@
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G49" s="88">
-        <v>0</v>
-      </c>
+      <c r="G49" s="88"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="83">
@@ -6397,9 +6015,7 @@
         <f t="shared" si="3"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="G50" s="88">
-        <v>1</v>
-      </c>
+      <c r="G50" s="88"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
@@ -6626,8 +6242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G49" sqref="G2:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6678,9 +6294,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.6153846153846154</v>
       </c>
-      <c r="G2" s="88">
-        <v>0</v>
-      </c>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -6702,9 +6316,7 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="G3" s="88">
-        <v>0</v>
-      </c>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -6726,9 +6338,7 @@
         <f t="shared" si="0"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="G4" s="88">
-        <v>0</v>
-      </c>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -6750,9 +6360,7 @@
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G5" s="88">
-        <v>0</v>
-      </c>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -6774,9 +6382,7 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="G6" s="88">
-        <v>0</v>
-      </c>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -6798,9 +6404,7 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="G7" s="88">
-        <v>0</v>
-      </c>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -6822,9 +6426,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="88">
-        <v>0</v>
-      </c>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -6846,9 +6448,7 @@
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G9" s="88">
-        <v>0</v>
-      </c>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -6870,9 +6470,7 @@
         <f t="shared" ref="F10:F29" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.2307692307692308</v>
       </c>
-      <c r="G10" s="88">
-        <v>0</v>
-      </c>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -6894,9 +6492,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G11" s="88">
-        <v>0</v>
-      </c>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -6918,9 +6514,7 @@
         <f t="shared" si="1"/>
         <v>1.5833333333333333</v>
       </c>
-      <c r="G12" s="88">
-        <v>0</v>
-      </c>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -6942,9 +6536,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G13" s="88">
-        <v>0</v>
-      </c>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -6966,9 +6558,7 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G14" s="88">
-        <v>0</v>
-      </c>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -6990,9 +6580,7 @@
         <f t="shared" si="1"/>
         <v>1.875</v>
       </c>
-      <c r="G15" s="88">
-        <v>0</v>
-      </c>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -7014,9 +6602,7 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="G16" s="88">
-        <v>0</v>
-      </c>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -7038,9 +6624,7 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="G17" s="88">
-        <v>0</v>
-      </c>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -7062,9 +6646,7 @@
         <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="G18" s="88">
-        <v>0</v>
-      </c>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -7086,9 +6668,7 @@
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G19" s="88">
-        <v>0</v>
-      </c>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -7110,9 +6690,7 @@
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G20" s="88">
-        <v>0</v>
-      </c>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -7134,9 +6712,7 @@
         <f t="shared" si="1"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G21" s="88">
-        <v>0</v>
-      </c>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -7158,9 +6734,7 @@
         <f t="shared" si="1"/>
         <v>1.3636363636363635</v>
       </c>
-      <c r="G22" s="88">
-        <v>0</v>
-      </c>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -7182,9 +6756,7 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="G23" s="88">
-        <v>0</v>
-      </c>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -7206,9 +6778,7 @@
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G24" s="88">
-        <v>0</v>
-      </c>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -7230,9 +6800,7 @@
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G25" s="88">
-        <v>0</v>
-      </c>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -7254,9 +6822,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -7278,9 +6844,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G27" s="88">
-        <v>0</v>
-      </c>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -7302,9 +6866,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G28" s="88">
-        <v>0</v>
-      </c>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -7326,9 +6888,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G29" s="88">
-        <v>0</v>
-      </c>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -7350,9 +6910,7 @@
         <f t="shared" ref="F30:F57" si="2">IF(E30=0,0,(D30/E30))</f>
         <v>2.75</v>
       </c>
-      <c r="G30" s="88">
-        <v>0</v>
-      </c>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -7374,9 +6932,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="G31" s="88">
-        <v>0</v>
-      </c>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -7398,9 +6954,7 @@
         <f t="shared" si="2"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G32" s="88">
-        <v>0</v>
-      </c>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -7422,9 +6976,7 @@
         <f t="shared" si="2"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G33" s="88">
-        <v>0</v>
-      </c>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -7446,9 +6998,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G34" s="88">
-        <v>0</v>
-      </c>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -7470,9 +7020,7 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="G35" s="88">
-        <v>0</v>
-      </c>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -7494,9 +7042,7 @@
         <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="G36" s="88">
-        <v>0</v>
-      </c>
+      <c r="G36" s="88"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -7518,9 +7064,7 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G37" s="88">
-        <v>0</v>
-      </c>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -7542,9 +7086,7 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G38" s="88">
-        <v>0</v>
-      </c>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="79">
@@ -7566,9 +7108,7 @@
         <f t="shared" si="2"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="G39" s="88">
-        <v>0</v>
-      </c>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="83">
@@ -7590,9 +7130,7 @@
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="G40" s="88">
-        <v>0</v>
-      </c>
+      <c r="G40" s="88"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
@@ -7614,9 +7152,7 @@
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G41" s="88">
-        <v>0</v>
-      </c>
+      <c r="G41" s="88"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
@@ -7638,9 +7174,7 @@
         <f t="shared" si="2"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G42" s="88">
-        <v>0</v>
-      </c>
+      <c r="G42" s="88"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
@@ -7662,9 +7196,7 @@
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
-      <c r="G43" s="88">
-        <v>0</v>
-      </c>
+      <c r="G43" s="88"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
@@ -7686,9 +7218,7 @@
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G44" s="88">
-        <v>0</v>
-      </c>
+      <c r="G44" s="88"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
@@ -7710,9 +7240,7 @@
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="G45" s="88">
-        <v>0</v>
-      </c>
+      <c r="G45" s="88"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
@@ -7734,9 +7262,7 @@
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G46" s="88">
-        <v>0</v>
-      </c>
+      <c r="G46" s="88"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
@@ -7758,9 +7284,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G47" s="88">
-        <v>0</v>
-      </c>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
@@ -7782,9 +7306,7 @@
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G48" s="88">
-        <v>1</v>
-      </c>
+      <c r="G48" s="88"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="83">
@@ -7806,9 +7328,7 @@
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G49" s="88">
-        <v>0</v>
-      </c>
+      <c r="G49" s="88"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -8035,8 +7555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G48" sqref="G2:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8087,9 +7607,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.875</v>
       </c>
-      <c r="G2" s="88">
-        <v>0</v>
-      </c>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -8111,9 +7629,7 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="G3" s="88">
-        <v>0</v>
-      </c>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -8135,9 +7651,7 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G4" s="88">
-        <v>0</v>
-      </c>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -8159,9 +7673,7 @@
         <f t="shared" si="0"/>
         <v>1.8888888888888888</v>
       </c>
-      <c r="G5" s="88">
-        <v>0</v>
-      </c>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -8183,9 +7695,7 @@
         <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="G6" s="88">
-        <v>0</v>
-      </c>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -8207,9 +7717,7 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G7" s="88">
-        <v>0</v>
-      </c>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -8231,9 +7739,7 @@
         <f t="shared" si="0"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G8" s="88">
-        <v>0</v>
-      </c>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -8255,9 +7761,7 @@
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="G9" s="88">
-        <v>0</v>
-      </c>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -8279,9 +7783,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.9</v>
       </c>
-      <c r="G10" s="88">
-        <v>0</v>
-      </c>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -8303,9 +7805,7 @@
         <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G11" s="88">
-        <v>0</v>
-      </c>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -8327,9 +7827,7 @@
         <f t="shared" si="1"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G12" s="88">
-        <v>0</v>
-      </c>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -8351,9 +7849,7 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G13" s="88">
-        <v>0</v>
-      </c>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -8375,9 +7871,7 @@
         <f t="shared" si="1"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="G14" s="88">
-        <v>0</v>
-      </c>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -8399,9 +7893,7 @@
         <f t="shared" si="1"/>
         <v>1.3636363636363635</v>
       </c>
-      <c r="G15" s="88">
-        <v>0</v>
-      </c>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -8423,9 +7915,7 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G16" s="88">
-        <v>0</v>
-      </c>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -8447,9 +7937,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="88">
-        <v>0</v>
-      </c>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -8471,9 +7959,7 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="G18" s="88">
-        <v>0</v>
-      </c>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -8495,9 +7981,7 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>1.8</v>
       </c>
-      <c r="G19" s="88">
-        <v>0</v>
-      </c>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -8519,9 +8003,7 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.5</v>
       </c>
-      <c r="G20" s="88">
-        <v>0</v>
-      </c>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -8543,9 +8025,7 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G21" s="88">
-        <v>0</v>
-      </c>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -8567,9 +8047,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="G22" s="88">
-        <v>0</v>
-      </c>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -8591,9 +8069,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G23" s="88">
-        <v>0</v>
-      </c>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -8615,9 +8091,7 @@
         <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G24" s="88">
-        <v>0</v>
-      </c>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -8639,9 +8113,7 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G25" s="88">
-        <v>0</v>
-      </c>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -8663,9 +8135,7 @@
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -8687,9 +8157,7 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G27" s="88">
-        <v>0</v>
-      </c>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -8711,9 +8179,7 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G28" s="88">
-        <v>0</v>
-      </c>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -8735,9 +8201,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G29" s="88">
-        <v>0</v>
-      </c>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -8759,9 +8223,7 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.6</v>
       </c>
-      <c r="G30" s="88">
-        <v>0</v>
-      </c>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -8783,9 +8245,7 @@
         <f t="shared" ref="F31:F38" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="G31" s="88">
-        <v>0</v>
-      </c>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -8807,9 +8267,7 @@
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="G32" s="88">
-        <v>0</v>
-      </c>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -8831,9 +8289,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G33" s="88">
-        <v>0</v>
-      </c>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -8855,9 +8311,7 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G34" s="88">
-        <v>0</v>
-      </c>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -8879,9 +8333,7 @@
         <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G35" s="88">
-        <v>0</v>
-      </c>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -8903,9 +8355,7 @@
         <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="G36" s="88">
-        <v>0</v>
-      </c>
+      <c r="G36" s="88"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -8927,9 +8377,7 @@
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G37" s="88">
-        <v>0</v>
-      </c>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -8951,9 +8399,7 @@
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G38" s="88">
-        <v>0</v>
-      </c>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="79">
@@ -8974,9 +8420,7 @@
       <c r="F39" s="82">
         <v>0</v>
       </c>
-      <c r="G39" s="88">
-        <v>0</v>
-      </c>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="83">
@@ -8997,9 +8441,7 @@
       <c r="F40" s="86">
         <v>0</v>
       </c>
-      <c r="G40" s="88">
-        <v>0</v>
-      </c>
+      <c r="G40" s="88"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="83">
@@ -9020,9 +8462,7 @@
       <c r="F41" s="86">
         <v>0</v>
       </c>
-      <c r="G41" s="88">
-        <v>0</v>
-      </c>
+      <c r="G41" s="88"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="83">
@@ -9043,9 +8483,7 @@
       <c r="F42" s="86">
         <v>0</v>
       </c>
-      <c r="G42" s="88">
-        <v>0</v>
-      </c>
+      <c r="G42" s="88"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="83">
@@ -9066,9 +8504,7 @@
       <c r="F43" s="86">
         <v>0</v>
       </c>
-      <c r="G43" s="88">
-        <v>0</v>
-      </c>
+      <c r="G43" s="88"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="83">
@@ -9089,9 +8525,7 @@
       <c r="F44" s="86">
         <v>0</v>
       </c>
-      <c r="G44" s="88">
-        <v>0</v>
-      </c>
+      <c r="G44" s="88"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="83">
@@ -9112,9 +8546,7 @@
       <c r="F45" s="86">
         <v>0</v>
       </c>
-      <c r="G45" s="88">
-        <v>0</v>
-      </c>
+      <c r="G45" s="88"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="83">
@@ -9135,9 +8567,7 @@
       <c r="F46" s="86">
         <v>0</v>
       </c>
-      <c r="G46" s="88">
-        <v>0</v>
-      </c>
+      <c r="G46" s="88"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="83">
@@ -9158,9 +8588,7 @@
       <c r="F47" s="86">
         <v>0</v>
       </c>
-      <c r="G47" s="88">
-        <v>0</v>
-      </c>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="83">
@@ -9181,9 +8609,7 @@
       <c r="F48" s="86">
         <v>0</v>
       </c>
-      <c r="G48" s="88">
-        <v>1</v>
-      </c>
+      <c r="G48" s="88"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADCB4F-C59D-0A49-9A33-88259B8B2E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67898402-5B20-3343-B174-840BD22192D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -1008,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G47"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2250,6 +2250,198 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="16">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3">
+        <v>9</v>
+      </c>
+      <c r="F56" s="13">
+        <f t="shared" ref="F56:F63" si="6">IF(E56=0,0,(D56/E56))</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G56" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="16">
+        <v>660</v>
+      </c>
+      <c r="D57" s="3">
+        <v>16</v>
+      </c>
+      <c r="E57" s="3">
+        <v>15</v>
+      </c>
+      <c r="F57" s="13">
+        <f t="shared" si="6"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="G57" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="16">
+        <v>65</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G58" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="16">
+        <v>1345</v>
+      </c>
+      <c r="D59" s="3">
+        <v>22</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13</v>
+      </c>
+      <c r="F59" s="13">
+        <f t="shared" si="6"/>
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="G59" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="16">
+        <v>305</v>
+      </c>
+      <c r="D60" s="3">
+        <v>9</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="6"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G60" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="16">
+        <v>240</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10</v>
+      </c>
+      <c r="F61" s="13">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="G61" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="16">
+        <v>135</v>
+      </c>
+      <c r="D62" s="3">
+        <v>9</v>
+      </c>
+      <c r="E62" s="3">
+        <v>12</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="G62" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="16">
+        <v>645</v>
+      </c>
+      <c r="D63" s="3">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="88">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2257,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3578,11 +3770,203 @@
         <v>8</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F67" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.625</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="16">
+        <v>1735</v>
+      </c>
+      <c r="D60" s="3">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="4"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G60" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="16">
+        <v>260</v>
+      </c>
+      <c r="D61" s="3">
+        <v>6</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9</v>
+      </c>
+      <c r="F61" s="13">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G61" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="16">
+        <v>95</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="16">
+        <v>720</v>
+      </c>
+      <c r="D63" s="3">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3">
+        <v>11</v>
+      </c>
+      <c r="F63" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="16">
+        <v>140</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3">
+        <v>7</v>
+      </c>
+      <c r="F64" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G64" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="16">
+        <v>230</v>
+      </c>
+      <c r="D65" s="3">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="G65" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="16">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="G66" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="16">
+        <v>285</v>
+      </c>
+      <c r="D67" s="3">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3">
+        <v>8</v>
+      </c>
+      <c r="F67" s="13">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="G67" s="88">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3592,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G49" sqref="G2:G49"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4891,10 +5275,202 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58" si="4">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F66" si="4">IF(E58=0,0,(D58/E58))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="16">
+        <v>540</v>
+      </c>
+      <c r="D59" s="3">
+        <v>11</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6</v>
+      </c>
+      <c r="F59" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="G59" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="16">
+        <v>935</v>
+      </c>
+      <c r="D60" s="3">
+        <v>9</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="G60" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="16">
+        <v>600</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8</v>
+      </c>
+      <c r="F61" s="13">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="G61" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="16">
+        <v>825</v>
+      </c>
+      <c r="D62" s="3">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="G62" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="16">
+        <v>50</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="16">
+        <v>50</v>
+      </c>
+      <c r="D64" s="3">
+        <v>8</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10</v>
+      </c>
+      <c r="F64" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G64" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="16">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3">
+        <v>11</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G65" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="16">
+        <v>565</v>
+      </c>
+      <c r="D66" s="3">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="G66" s="88">
         <v>1</v>
       </c>
     </row>
@@ -4905,10 +5481,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G50" sqref="G2:G50"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6226,10 +6802,202 @@
         <v>14</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F67" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="16">
+        <v>315</v>
+      </c>
+      <c r="D60" s="3">
+        <v>9</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="4"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G60" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="16">
+        <v>845</v>
+      </c>
+      <c r="D61" s="3">
+        <v>14</v>
+      </c>
+      <c r="E61" s="3">
+        <v>12</v>
+      </c>
+      <c r="F61" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="G61" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="16">
+        <v>395</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="G62" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="16">
+        <v>895</v>
+      </c>
+      <c r="D63" s="3">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3">
+        <v>5</v>
+      </c>
+      <c r="F63" s="13">
+        <f t="shared" si="4"/>
+        <v>2.6</v>
+      </c>
+      <c r="G63" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="16">
+        <v>975</v>
+      </c>
+      <c r="D64" s="3">
+        <v>13</v>
+      </c>
+      <c r="E64" s="3">
+        <v>8</v>
+      </c>
+      <c r="F64" s="13">
+        <f t="shared" si="4"/>
+        <v>1.625</v>
+      </c>
+      <c r="G64" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="16">
+        <v>810</v>
+      </c>
+      <c r="D65" s="3">
+        <v>9</v>
+      </c>
+      <c r="E65" s="3">
+        <v>8</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+      <c r="G65" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="16">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" si="4"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G66" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="16">
+        <v>230</v>
+      </c>
+      <c r="D67" s="3">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3">
+        <v>8</v>
+      </c>
+      <c r="F67" s="13">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="G67" s="88">
         <v>1</v>
       </c>
     </row>
@@ -6240,10 +7008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G49" sqref="G2:G49"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7539,10 +8307,202 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58" si="3">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F66" si="3">IF(E58=0,0,(D58/E58))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="16">
+        <v>1430</v>
+      </c>
+      <c r="D59" s="3">
+        <v>23</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12</v>
+      </c>
+      <c r="F59" s="13">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="G59" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="16">
+        <v>1105</v>
+      </c>
+      <c r="D60" s="3">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="G60" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="16">
+        <v>685</v>
+      </c>
+      <c r="D61" s="3">
+        <v>9</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4</v>
+      </c>
+      <c r="F61" s="13">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="G61" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="16">
+        <v>70</v>
+      </c>
+      <c r="D62" s="3">
+        <v>15</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="3"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="G62" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="16">
+        <v>925</v>
+      </c>
+      <c r="D63" s="3">
+        <v>12</v>
+      </c>
+      <c r="E63" s="3">
+        <v>14</v>
+      </c>
+      <c r="F63" s="13">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G63" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="16">
+        <v>40</v>
+      </c>
+      <c r="D64" s="3">
+        <v>8</v>
+      </c>
+      <c r="E64" s="3">
+        <v>12</v>
+      </c>
+      <c r="F64" s="13">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G64" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="16">
+        <v>90</v>
+      </c>
+      <c r="D65" s="3">
+        <v>6</v>
+      </c>
+      <c r="E65" s="3">
+        <v>12</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="16">
+        <v>230</v>
+      </c>
+      <c r="D66" s="3">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G66" s="88">
         <v>1</v>
       </c>
     </row>
@@ -7553,10 +8513,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G48" sqref="G2:G48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8820,10 +9780,202 @@
         <v>13</v>
       </c>
       <c r="F57" s="13">
-        <f t="shared" ref="F57" si="5">IF(E57=0,0,(D57/E57))</f>
+        <f t="shared" ref="F57:F65" si="5">IF(E57=0,0,(D57/E57))</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="G57" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="16">
+        <v>215</v>
+      </c>
+      <c r="D58" s="3">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="G58" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="16">
+        <v>520</v>
+      </c>
+      <c r="D59" s="3">
+        <v>16</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18</v>
+      </c>
+      <c r="F59" s="13">
+        <f t="shared" si="5"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G59" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2090</v>
+      </c>
+      <c r="D60" s="3">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="G60" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="16">
+        <v>1075</v>
+      </c>
+      <c r="D61" s="3">
+        <v>6</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3</v>
+      </c>
+      <c r="F61" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G61" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="16">
+        <v>470</v>
+      </c>
+      <c r="D62" s="3">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="G62" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="16">
+        <v>860</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>7</v>
+      </c>
+      <c r="F63" s="13">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G63" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="16">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>12</v>
+      </c>
+      <c r="E64" s="3">
+        <v>14</v>
+      </c>
+      <c r="F64" s="13">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G64" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="16">
+        <v>265</v>
+      </c>
+      <c r="D65" s="3">
+        <v>8</v>
+      </c>
+      <c r="E65" s="3">
+        <v>11</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="5"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G65" s="88">
         <v>1</v>
       </c>
     </row>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67898402-5B20-3343-B174-840BD22192D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467DB58-2514-BE4B-A1AD-FF30CE807E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" firstSheet="3" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Acumulado" sheetId="3" r:id="rId7"/>
     <sheet name="Detalle" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -488,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -584,20 +583,16 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -626,7 +621,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,6 +647,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -644,36 +669,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1040,7 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="61" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1066,7 +1064,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>2.2727272727272729</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1088,7 +1086,7 @@
         <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1110,7 +1108,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1132,7 +1130,7 @@
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1154,7 +1152,7 @@
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1176,7 +1174,7 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1198,7 +1196,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1220,7 +1218,7 @@
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1242,7 +1240,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.4444444444444444</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1264,7 +1262,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1286,7 +1284,7 @@
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1308,7 +1306,7 @@
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G13" s="88"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1330,7 +1328,7 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1352,7 +1350,7 @@
         <f t="shared" si="1"/>
         <v>1.4444444444444444</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1374,7 +1372,7 @@
         <f t="shared" si="1"/>
         <v>0.31578947368421051</v>
       </c>
-      <c r="G16" s="88"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1396,7 +1394,7 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="G17" s="88"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1418,7 +1416,7 @@
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G18" s="88"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1440,7 +1438,7 @@
         <f t="shared" ref="F19:F29" si="2">IF(E19=0,0,(D19/E19))</f>
         <v>3</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1462,7 +1460,7 @@
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -1484,7 +1482,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1506,7 +1504,7 @@
         <f t="shared" si="2"/>
         <v>2.4444444444444446</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -1528,7 +1526,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="G23" s="88"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1550,7 +1548,7 @@
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-      <c r="G24" s="88"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1572,7 +1570,7 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="G25" s="88"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1594,7 +1592,7 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -1616,7 +1614,7 @@
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G27" s="88"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1638,7 +1636,7 @@
         <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G28" s="88"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -1660,7 +1658,7 @@
         <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="G29" s="88"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -1682,7 +1680,7 @@
         <f t="shared" ref="F30:F38" si="3">IF(E30=0,0,(D30/E30))</f>
         <v>1.8181818181818181</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -1704,7 +1702,7 @@
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G31" s="88"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -1726,7 +1724,7 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G32" s="88"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1748,7 +1746,7 @@
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G33" s="88"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -1770,7 +1768,7 @@
         <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
-      <c r="G34" s="88"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -1792,7 +1790,7 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G35" s="88"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1814,7 +1812,7 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G36" s="88"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -1836,7 +1834,7 @@
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="G37" s="88"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -1858,7 +1856,7 @@
         <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="G38" s="88"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -1880,7 +1878,7 @@
         <f t="shared" ref="F39:F46" si="4">IF(E39=0,0,(D39/E39))</f>
         <v>3.125</v>
       </c>
-      <c r="G39" s="88"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -1902,7 +1900,7 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="G40" s="88"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -1924,7 +1922,7 @@
         <f t="shared" si="4"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="G41" s="88"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -1946,7 +1944,7 @@
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-      <c r="G42" s="88"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -1968,7 +1966,7 @@
         <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G43" s="88"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -1990,7 +1988,7 @@
         <f t="shared" si="4"/>
         <v>0.72222222222222221</v>
       </c>
-      <c r="G44" s="88"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -2012,7 +2010,7 @@
         <f t="shared" si="4"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="G45" s="88"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
@@ -2034,7 +2032,7 @@
         <f t="shared" si="4"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="G46" s="88"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
@@ -2056,7 +2054,7 @@
         <f t="shared" ref="F47:F55" si="5">IF(E47=0,0,(D47/E47))</f>
         <v>0</v>
       </c>
-      <c r="G47" s="88"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
@@ -2078,7 +2076,7 @@
         <f t="shared" si="5"/>
         <v>1.1818181818181819</v>
       </c>
-      <c r="G48" s="88">
+      <c r="G48" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2102,7 +2100,7 @@
         <f t="shared" si="5"/>
         <v>1.5555555555555556</v>
       </c>
-      <c r="G49" s="88">
+      <c r="G49" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2126,7 +2124,7 @@
         <f t="shared" si="5"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G50" s="88">
+      <c r="G50" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2148,7 @@
         <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G51" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2174,7 +2172,7 @@
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G52" s="88">
+      <c r="G52" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2198,7 +2196,7 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="G53" s="88">
+      <c r="G53" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2222,7 +2220,7 @@
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G54" s="88">
+      <c r="G54" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2246,7 +2244,7 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="G55" s="88">
+      <c r="G55" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2267,10 +2265,10 @@
         <v>9</v>
       </c>
       <c r="F56" s="13">
-        <f t="shared" ref="F56:F63" si="6">IF(E56=0,0,(D56/E56))</f>
+        <f t="shared" ref="F56:F76" si="6">IF(E56=0,0,(D56/E56))</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G56" s="88">
+      <c r="G56" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2294,7 +2292,7 @@
         <f t="shared" si="6"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="G57" s="88">
+      <c r="G57" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2318,7 +2316,7 @@
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G58" s="88">
+      <c r="G58" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2342,7 +2340,7 @@
         <f t="shared" si="6"/>
         <v>1.6923076923076923</v>
       </c>
-      <c r="G59" s="88">
+      <c r="G59" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2366,7 +2364,7 @@
         <f t="shared" si="6"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="G60" s="88">
+      <c r="G60" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2390,7 +2388,7 @@
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
-      <c r="G61" s="88">
+      <c r="G61" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2414,7 +2412,7 @@
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="G62" s="88">
+      <c r="G62" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2438,9 +2436,419 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G63" s="88">
-        <v>1</v>
-      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="16">
+        <v>1155</v>
+      </c>
+      <c r="D64" s="3">
+        <v>17</v>
+      </c>
+      <c r="E64" s="3">
+        <v>8</v>
+      </c>
+      <c r="F64" s="13">
+        <f t="shared" si="6"/>
+        <v>2.125</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="16">
+        <v>215</v>
+      </c>
+      <c r="D65" s="3">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3">
+        <v>12</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" si="6"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="16">
+        <v>295</v>
+      </c>
+      <c r="D66" s="3">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" si="6"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="16">
+        <v>815</v>
+      </c>
+      <c r="D67" s="3">
+        <v>27</v>
+      </c>
+      <c r="E67" s="3">
+        <v>16</v>
+      </c>
+      <c r="F67" s="13">
+        <f t="shared" si="6"/>
+        <v>1.6875</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16">
+        <v>480</v>
+      </c>
+      <c r="D68" s="3">
+        <v>16</v>
+      </c>
+      <c r="E68" s="3">
+        <v>18</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" si="6"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="16">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="16">
+        <v>145</v>
+      </c>
+      <c r="D70" s="3">
+        <v>6</v>
+      </c>
+      <c r="E70" s="3">
+        <v>12</v>
+      </c>
+      <c r="F70" s="13">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>9</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>9</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="16">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>9</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="16">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="16">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="16">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="16">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>10</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="16">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13">
+        <f t="shared" ref="F77:F81" si="7">IF(E77=0,0,(D77/E77))</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>10</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="16">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="16">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>10</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="16">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="16">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2449,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2479,7 +2887,7 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="61" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2503,7 +2911,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -2525,7 +2933,7 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -2547,7 +2955,7 @@
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -2569,7 +2977,7 @@
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2591,7 +2999,7 @@
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -2613,7 +3021,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -2635,7 +3043,7 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -2657,7 +3065,7 @@
         <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -2679,7 +3087,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -2701,7 +3109,7 @@
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -2723,7 +3131,7 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -2745,7 +3153,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G13" s="88"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -2767,7 +3175,7 @@
         <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2789,7 +3197,7 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2811,7 +3219,7 @@
         <f t="shared" si="1"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="G16" s="88"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2833,7 +3241,7 @@
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G17" s="88"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2855,7 +3263,7 @@
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="G18" s="88"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2877,7 +3285,7 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2899,7 +3307,7 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>4.25</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2921,7 +3329,7 @@
         <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -2943,7 +3351,7 @@
         <f t="shared" si="2"/>
         <v>2.4444444444444446</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -2965,7 +3373,7 @@
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G23" s="88"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -2987,7 +3395,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G24" s="88"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -3009,7 +3417,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G25" s="88"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -3031,7 +3439,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -3053,7 +3461,7 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G27" s="88"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -3075,7 +3483,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G28" s="88"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -3097,7 +3505,7 @@
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-      <c r="G29" s="88"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -3119,7 +3527,7 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -3141,7 +3549,7 @@
         <f t="shared" ref="F31:F58" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="G31" s="88"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -3163,7 +3571,7 @@
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="G32" s="88"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -3185,7 +3593,7 @@
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G33" s="88"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -3207,7 +3615,7 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G34" s="88"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -3229,7 +3637,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G35" s="88"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -3251,7 +3659,7 @@
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G36" s="88"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -3273,7 +3681,7 @@
         <f t="shared" si="3"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="G37" s="88"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -3295,7 +3703,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G38" s="88"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -3317,249 +3725,249 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G39" s="88"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="79">
-        <v>5</v>
-      </c>
-      <c r="B40" s="80" t="s">
+      <c r="A40" s="53">
+        <v>5</v>
+      </c>
+      <c r="B40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="55">
         <v>1260</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="54">
         <v>13</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="54">
         <v>7</v>
       </c>
       <c r="F40" s="13">
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G40" s="88"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="83">
-        <v>5</v>
-      </c>
-      <c r="B41" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="85">
+      <c r="A41" s="57">
+        <v>5</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="59">
         <v>665</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D41" s="58">
         <v>14</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="58">
         <v>13</v>
       </c>
       <c r="F41" s="13">
         <f t="shared" si="3"/>
         <v>1.0769230769230769</v>
       </c>
-      <c r="G41" s="88"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="83">
-        <v>5</v>
-      </c>
-      <c r="B42" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="85">
+      <c r="A42" s="57">
+        <v>5</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="59">
         <v>1180</v>
       </c>
-      <c r="D42" s="84">
+      <c r="D42" s="58">
         <v>11</v>
       </c>
-      <c r="E42" s="84">
+      <c r="E42" s="58">
         <v>9</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="3"/>
         <v>1.2222222222222223</v>
       </c>
-      <c r="G42" s="88"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="83">
-        <v>5</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="85">
+      <c r="A43" s="57">
+        <v>5</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="59">
         <v>1325</v>
       </c>
-      <c r="D43" s="84">
+      <c r="D43" s="58">
         <v>19</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="58">
         <v>10</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-      <c r="G43" s="88"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="83">
-        <v>5</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="85">
+      <c r="A44" s="57">
+        <v>5</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="59">
         <v>725</v>
       </c>
-      <c r="D44" s="84">
-        <v>9</v>
-      </c>
-      <c r="E44" s="84">
+      <c r="D44" s="58">
+        <v>9</v>
+      </c>
+      <c r="E44" s="58">
         <v>10</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="G44" s="88"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="83">
-        <v>5</v>
-      </c>
-      <c r="B45" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="85">
+      <c r="A45" s="57">
+        <v>5</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="59">
         <v>1040</v>
       </c>
-      <c r="D45" s="84">
+      <c r="D45" s="58">
         <v>10</v>
       </c>
-      <c r="E45" s="84">
+      <c r="E45" s="58">
         <v>6</v>
       </c>
       <c r="F45" s="13">
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G45" s="88"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="83">
-        <v>5</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="85">
-        <v>0</v>
-      </c>
-      <c r="D46" s="84">
-        <v>3</v>
-      </c>
-      <c r="E46" s="84">
+      <c r="A46" s="57">
+        <v>5</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="59">
+        <v>0</v>
+      </c>
+      <c r="D46" s="58">
+        <v>3</v>
+      </c>
+      <c r="E46" s="58">
         <v>10</v>
       </c>
       <c r="F46" s="13">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="G46" s="88"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="83">
-        <v>5</v>
-      </c>
-      <c r="B47" s="84" t="s">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="85">
-        <v>5</v>
-      </c>
-      <c r="D47" s="84">
-        <v>0</v>
-      </c>
-      <c r="E47" s="84">
+      <c r="C47" s="59">
+        <v>5</v>
+      </c>
+      <c r="D47" s="58">
+        <v>0</v>
+      </c>
+      <c r="E47" s="58">
         <v>6</v>
       </c>
       <c r="F47" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G47" s="88"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="83">
-        <v>5</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="85">
-        <v>0</v>
-      </c>
-      <c r="D48" s="84">
+      <c r="A48" s="57">
+        <v>5</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="59">
+        <v>0</v>
+      </c>
+      <c r="D48" s="58">
         <v>2</v>
       </c>
-      <c r="E48" s="84">
+      <c r="E48" s="58">
         <v>10</v>
       </c>
       <c r="F48" s="13">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G48" s="88"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="83">
-        <v>5</v>
-      </c>
-      <c r="B49" s="84" t="s">
+      <c r="A49" s="57">
+        <v>5</v>
+      </c>
+      <c r="B49" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="85">
-        <v>0</v>
-      </c>
-      <c r="D49" s="84">
-        <v>0</v>
-      </c>
-      <c r="E49" s="84">
+      <c r="C49" s="59">
+        <v>0</v>
+      </c>
+      <c r="D49" s="58">
+        <v>0</v>
+      </c>
+      <c r="E49" s="58">
         <v>0</v>
       </c>
       <c r="F49" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G49" s="88"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="83">
-        <v>5</v>
-      </c>
-      <c r="B50" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="85">
-        <v>0</v>
-      </c>
-      <c r="D50" s="84">
-        <v>6</v>
-      </c>
-      <c r="E50" s="84">
+      <c r="A50" s="57">
+        <v>5</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="59">
+        <v>0</v>
+      </c>
+      <c r="D50" s="58">
+        <v>6</v>
+      </c>
+      <c r="E50" s="58">
         <v>9</v>
       </c>
       <c r="F50" s="13">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G50" s="88"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
@@ -3581,7 +3989,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G51" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3605,7 +4013,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G52" s="88">
+      <c r="G52" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3629,7 +4037,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G53" s="88">
+      <c r="G53" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3653,7 +4061,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G54" s="88">
+      <c r="G54" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3677,7 +4085,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G55" s="88">
+      <c r="G55" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3770,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F67" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F85" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.625</v>
       </c>
       <c r="G59" s="3">
@@ -3797,7 +4205,7 @@
         <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="G60" s="88">
+      <c r="G60" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3821,7 +4229,7 @@
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G61" s="88">
+      <c r="G61" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3845,7 +4253,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G62" s="88">
+      <c r="G62" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3869,7 +4277,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G63" s="88">
+      <c r="G63" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3893,7 +4301,7 @@
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G64" s="88">
+      <c r="G64" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3917,7 +4325,7 @@
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="G65" s="88">
+      <c r="G65" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3941,7 +4349,7 @@
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="G66" s="88">
+      <c r="G66" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3965,9 +4373,419 @@
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="G67" s="88">
-        <v>0</v>
-      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1445</v>
+      </c>
+      <c r="D68" s="3">
+        <v>12</v>
+      </c>
+      <c r="E68" s="3">
+        <v>7</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="16">
+        <v>385</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5</v>
+      </c>
+      <c r="E69" s="3">
+        <v>4</v>
+      </c>
+      <c r="F69" s="13">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="16">
+        <v>775</v>
+      </c>
+      <c r="D70" s="3">
+        <v>11</v>
+      </c>
+      <c r="E70" s="3">
+        <v>11</v>
+      </c>
+      <c r="F70" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="16">
+        <v>330</v>
+      </c>
+      <c r="D71" s="3">
+        <v>7</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7</v>
+      </c>
+      <c r="F71" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16">
+        <v>410</v>
+      </c>
+      <c r="D72" s="3">
+        <v>7</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10</v>
+      </c>
+      <c r="F72" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="16">
+        <v>480</v>
+      </c>
+      <c r="D73" s="3">
+        <v>7</v>
+      </c>
+      <c r="E73" s="3">
+        <v>18</v>
+      </c>
+      <c r="F73" s="13">
+        <f t="shared" si="4"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="16">
+        <v>550</v>
+      </c>
+      <c r="D74" s="3">
+        <v>6</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4</v>
+      </c>
+      <c r="F74" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="16">
+        <v>1400</v>
+      </c>
+      <c r="D75" s="3">
+        <v>16</v>
+      </c>
+      <c r="E75" s="3">
+        <v>6</v>
+      </c>
+      <c r="F75" s="13">
+        <f t="shared" si="4"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1180</v>
+      </c>
+      <c r="D76" s="3">
+        <v>12</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7</v>
+      </c>
+      <c r="F76" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="16">
+        <v>850</v>
+      </c>
+      <c r="D77" s="3">
+        <v>8</v>
+      </c>
+      <c r="E77" s="3">
+        <v>9</v>
+      </c>
+      <c r="F77" s="13">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="16">
+        <v>1210</v>
+      </c>
+      <c r="D78" s="3">
+        <v>14</v>
+      </c>
+      <c r="E78" s="3">
+        <v>8</v>
+      </c>
+      <c r="F78" s="13">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>9</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="16">
+        <v>160</v>
+      </c>
+      <c r="D79" s="3">
+        <v>7</v>
+      </c>
+      <c r="E79" s="3">
+        <v>7</v>
+      </c>
+      <c r="F79" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>9</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="16">
+        <v>110</v>
+      </c>
+      <c r="D80" s="3">
+        <v>5</v>
+      </c>
+      <c r="E80" s="3">
+        <v>10</v>
+      </c>
+      <c r="F80" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="16">
+        <v>2010</v>
+      </c>
+      <c r="D81" s="3">
+        <v>22</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10</v>
+      </c>
+      <c r="F81" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1660</v>
+      </c>
+      <c r="D82" s="3">
+        <v>17</v>
+      </c>
+      <c r="E82" s="3">
+        <v>9</v>
+      </c>
+      <c r="F82" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1035</v>
+      </c>
+      <c r="D83" s="3">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10</v>
+      </c>
+      <c r="F83" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>10</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="16">
+        <v>305</v>
+      </c>
+      <c r="D84" s="3">
+        <v>6</v>
+      </c>
+      <c r="E84" s="3">
+        <v>7</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>10</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="16">
+        <v>235</v>
+      </c>
+      <c r="D85" s="3">
+        <v>13</v>
+      </c>
+      <c r="E85" s="3">
+        <v>17</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" si="4"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G85" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3976,10 +4794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4006,7 +4824,7 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="61" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4030,7 +4848,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.625</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -4052,7 +4870,7 @@
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -4074,7 +4892,7 @@
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -4096,7 +4914,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -4118,7 +4936,7 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -4140,7 +4958,7 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -4162,7 +4980,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -4184,7 +5002,7 @@
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -4206,7 +5024,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>0.8</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -4228,7 +5046,7 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -4250,7 +5068,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -4272,7 +5090,7 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G13" s="88"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -4294,7 +5112,7 @@
         <f t="shared" si="1"/>
         <v>1.1818181818181819</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -4316,7 +5134,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -4338,7 +5156,7 @@
         <f t="shared" si="1"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="G16" s="88"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -4360,7 +5178,7 @@
         <f t="shared" si="1"/>
         <v>1.375</v>
       </c>
-      <c r="G17" s="88"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -4382,7 +5200,7 @@
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G18" s="88"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -4404,7 +5222,7 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -4426,7 +5244,7 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.0769230769230769</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -4448,7 +5266,7 @@
         <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -4470,7 +5288,7 @@
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -4492,7 +5310,7 @@
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G23" s="88"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -4514,7 +5332,7 @@
         <f t="shared" si="2"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="G24" s="88"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -4536,7 +5354,7 @@
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="G25" s="88"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -4558,7 +5376,7 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -4580,7 +5398,7 @@
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G27" s="88"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -4602,7 +5420,7 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="G28" s="88"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -4624,7 +5442,7 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G29" s="88"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -4646,7 +5464,7 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -4668,7 +5486,7 @@
         <f t="shared" ref="F31:F57" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G31" s="88"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -4690,7 +5508,7 @@
         <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G32" s="88"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -4712,7 +5530,7 @@
         <f t="shared" si="3"/>
         <v>1.2307692307692308</v>
       </c>
-      <c r="G33" s="88"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -4734,7 +5552,7 @@
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
-      <c r="G34" s="88"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -4756,7 +5574,7 @@
         <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="G35" s="88"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -4778,7 +5596,7 @@
         <f t="shared" si="3"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G36" s="88"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -4800,7 +5618,7 @@
         <f t="shared" si="3"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="G37" s="88"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -4822,7 +5640,7 @@
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G38" s="88"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -4844,227 +5662,227 @@
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G39" s="88"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="79">
-        <v>5</v>
-      </c>
-      <c r="B40" s="80" t="s">
+      <c r="A40" s="53">
+        <v>5</v>
+      </c>
+      <c r="B40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="55">
         <v>780</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="54">
         <v>14</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="54">
         <v>8</v>
       </c>
       <c r="F40" s="13">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-      <c r="G40" s="88"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="83">
-        <v>5</v>
-      </c>
-      <c r="B41" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="85">
+      <c r="A41" s="57">
+        <v>5</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="59">
         <v>370</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D41" s="58">
         <v>12</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="58">
         <v>11</v>
       </c>
       <c r="F41" s="13">
         <f t="shared" si="3"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="G41" s="88"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="83">
-        <v>5</v>
-      </c>
-      <c r="B42" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="85">
+      <c r="A42" s="57">
+        <v>5</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="59">
         <v>710</v>
       </c>
-      <c r="D42" s="84">
+      <c r="D42" s="58">
         <v>12</v>
       </c>
-      <c r="E42" s="84">
+      <c r="E42" s="58">
         <v>12</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G42" s="88"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="83">
-        <v>5</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="85">
+      <c r="A43" s="57">
+        <v>5</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="59">
         <v>425</v>
       </c>
-      <c r="D43" s="84">
+      <c r="D43" s="58">
         <v>11</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="58">
         <v>13</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="3"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G43" s="88"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="83">
-        <v>5</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="85">
+      <c r="A44" s="57">
+        <v>5</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="59">
         <v>340</v>
       </c>
-      <c r="D44" s="84">
-        <v>8</v>
-      </c>
-      <c r="E44" s="84">
+      <c r="D44" s="58">
+        <v>8</v>
+      </c>
+      <c r="E44" s="58">
         <v>6</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G44" s="88"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="83">
-        <v>5</v>
-      </c>
-      <c r="B45" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="85">
+      <c r="A45" s="57">
+        <v>5</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="59">
         <v>565</v>
       </c>
-      <c r="D45" s="84">
+      <c r="D45" s="58">
         <v>13</v>
       </c>
-      <c r="E45" s="84">
+      <c r="E45" s="58">
         <v>8</v>
       </c>
       <c r="F45" s="13">
         <f t="shared" si="3"/>
         <v>1.625</v>
       </c>
-      <c r="G45" s="88"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="83">
-        <v>5</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="85">
+      <c r="A46" s="57">
+        <v>5</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="59">
         <v>115</v>
       </c>
-      <c r="D46" s="84">
-        <v>6</v>
-      </c>
-      <c r="E46" s="84">
+      <c r="D46" s="58">
+        <v>6</v>
+      </c>
+      <c r="E46" s="58">
         <v>12</v>
       </c>
       <c r="F46" s="13">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G46" s="88"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="83">
-        <v>5</v>
-      </c>
-      <c r="B47" s="84" t="s">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="85">
-        <v>0</v>
-      </c>
-      <c r="D47" s="84">
+      <c r="C47" s="59">
+        <v>0</v>
+      </c>
+      <c r="D47" s="58">
         <v>4</v>
       </c>
-      <c r="E47" s="84">
+      <c r="E47" s="58">
         <v>10</v>
       </c>
       <c r="F47" s="13">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="G47" s="88"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="83">
-        <v>5</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="85">
-        <v>0</v>
-      </c>
-      <c r="D48" s="84">
-        <v>5</v>
-      </c>
-      <c r="E48" s="84">
+      <c r="A48" s="57">
+        <v>5</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="59">
+        <v>0</v>
+      </c>
+      <c r="D48" s="58">
+        <v>5</v>
+      </c>
+      <c r="E48" s="58">
         <v>9</v>
       </c>
       <c r="F48" s="13">
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="G48" s="88"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="83">
-        <v>5</v>
-      </c>
-      <c r="B49" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="85">
+      <c r="A49" s="57">
+        <v>5</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="59">
         <v>425</v>
       </c>
-      <c r="D49" s="84">
+      <c r="D49" s="58">
         <v>11</v>
       </c>
-      <c r="E49" s="84">
+      <c r="E49" s="58">
         <v>7</v>
       </c>
       <c r="F49" s="13">
         <f t="shared" si="3"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="G49" s="88"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -5086,7 +5904,7 @@
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="G50" s="88">
+      <c r="G50" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5110,7 +5928,7 @@
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G51" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5134,7 +5952,7 @@
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="G52" s="88">
+      <c r="G52" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5158,7 +5976,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G53" s="88">
+      <c r="G53" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5182,7 +6000,7 @@
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="G54" s="88">
+      <c r="G54" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5206,7 +6024,7 @@
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="G55" s="88">
+      <c r="G55" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5275,7 +6093,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F66" si="4">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F84" si="4">IF(E58=0,0,(D58/E58))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G58" s="3">
@@ -5302,7 +6120,7 @@
         <f t="shared" si="4"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="G59" s="88">
+      <c r="G59" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5326,7 +6144,7 @@
         <f t="shared" si="4"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="G60" s="88">
+      <c r="G60" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5350,7 +6168,7 @@
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="G61" s="88">
+      <c r="G61" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5374,7 +6192,7 @@
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="G62" s="88">
+      <c r="G62" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5398,7 +6216,7 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="G63" s="88">
+      <c r="G63" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5422,7 +6240,7 @@
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="G64" s="88">
+      <c r="G64" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5446,7 +6264,7 @@
         <f t="shared" si="4"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G65" s="88">
+      <c r="G65" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5470,9 +6288,419 @@
         <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
-      <c r="G66" s="88">
-        <v>1</v>
-      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="16">
+        <v>695</v>
+      </c>
+      <c r="D67" s="3">
+        <v>9</v>
+      </c>
+      <c r="E67" s="3">
+        <v>6</v>
+      </c>
+      <c r="F67" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="16">
+        <v>20</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>4</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="16">
+        <v>685</v>
+      </c>
+      <c r="D69" s="3">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3">
+        <v>7</v>
+      </c>
+      <c r="F69" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="16">
+        <v>675</v>
+      </c>
+      <c r="D70" s="3">
+        <v>15</v>
+      </c>
+      <c r="E70" s="3">
+        <v>9</v>
+      </c>
+      <c r="F70" s="13">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="16">
+        <v>390</v>
+      </c>
+      <c r="D72" s="3">
+        <v>7</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7</v>
+      </c>
+      <c r="F72" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="16">
+        <v>330</v>
+      </c>
+      <c r="D73" s="3">
+        <v>12</v>
+      </c>
+      <c r="E73" s="3">
+        <v>12</v>
+      </c>
+      <c r="F73" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1280</v>
+      </c>
+      <c r="D74" s="3">
+        <v>14</v>
+      </c>
+      <c r="E74" s="3">
+        <v>7</v>
+      </c>
+      <c r="F74" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="16">
+        <v>970</v>
+      </c>
+      <c r="D75" s="3">
+        <v>9</v>
+      </c>
+      <c r="E75" s="3">
+        <v>8</v>
+      </c>
+      <c r="F75" s="13">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="16">
+        <v>720</v>
+      </c>
+      <c r="D76" s="3">
+        <v>7</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10</v>
+      </c>
+      <c r="F76" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D77" s="3">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3">
+        <v>9</v>
+      </c>
+      <c r="F77" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="16">
+        <v>150</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3">
+        <v>6</v>
+      </c>
+      <c r="F78" s="13">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>9</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="16">
+        <v>90</v>
+      </c>
+      <c r="D79" s="3">
+        <v>4</v>
+      </c>
+      <c r="E79" s="3">
+        <v>11</v>
+      </c>
+      <c r="F79" s="13">
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>10</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1680</v>
+      </c>
+      <c r="D80" s="3">
+        <v>14</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3</v>
+      </c>
+      <c r="F80" s="13">
+        <f t="shared" si="4"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="16">
+        <v>745</v>
+      </c>
+      <c r="D81" s="3">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10</v>
+      </c>
+      <c r="F81" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="16">
+        <v>250</v>
+      </c>
+      <c r="D82" s="3">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3">
+        <v>6</v>
+      </c>
+      <c r="F82" s="13">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="16">
+        <v>445</v>
+      </c>
+      <c r="D83" s="3">
+        <v>13</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17</v>
+      </c>
+      <c r="F83" s="13">
+        <f t="shared" si="4"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>10</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="16">
+        <v>190</v>
+      </c>
+      <c r="D84" s="3">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3">
+        <v>11</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" si="4"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5481,10 +6709,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5511,7 +6739,7 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="61" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5535,7 +6763,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>2.5555555555555554</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -5557,7 +6785,7 @@
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -5579,7 +6807,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -5601,7 +6829,7 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -5623,7 +6851,7 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -5645,7 +6873,7 @@
         <f t="shared" si="0"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -5667,7 +6895,7 @@
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -5689,7 +6917,7 @@
         <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -5711,7 +6939,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.8</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -5733,7 +6961,7 @@
         <f t="shared" si="1"/>
         <v>1.1818181818181819</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -5755,7 +6983,7 @@
         <f t="shared" si="1"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -5777,7 +7005,7 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G13" s="88"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -5799,7 +7027,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -5821,7 +7049,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -5843,7 +7071,7 @@
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G16" s="88"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -5865,7 +7093,7 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G17" s="88"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -5887,7 +7115,7 @@
         <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="G18" s="88"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -5909,7 +7137,7 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>2.5</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -5931,7 +7159,7 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.7</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -5953,7 +7181,7 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -5975,7 +7203,7 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -5997,7 +7225,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="G23" s="88"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -6019,7 +7247,7 @@
         <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G24" s="88"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -6041,7 +7269,7 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="G25" s="88"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -6063,7 +7291,7 @@
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -6085,7 +7313,7 @@
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="G27" s="88"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -6107,7 +7335,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="88"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -6129,7 +7357,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G29" s="88"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -6151,7 +7379,7 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>3.1428571428571428</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -6173,7 +7401,7 @@
         <f t="shared" ref="F31:F58" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>0.9</v>
       </c>
-      <c r="G31" s="88"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -6195,7 +7423,7 @@
         <f t="shared" si="3"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G32" s="88"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -6217,7 +7445,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="88"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -6239,7 +7467,7 @@
         <f t="shared" si="3"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G34" s="88"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -6261,7 +7489,7 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G35" s="88"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -6283,7 +7511,7 @@
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="G36" s="88"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -6305,7 +7533,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G37" s="88"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -6327,7 +7555,7 @@
         <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="G38" s="88"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -6349,249 +7577,249 @@
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="G39" s="88"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="79">
-        <v>5</v>
-      </c>
-      <c r="B40" s="80" t="s">
+      <c r="A40" s="53">
+        <v>5</v>
+      </c>
+      <c r="B40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="55">
         <v>1040</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="54">
         <v>19</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="54">
         <v>11</v>
       </c>
       <c r="F40" s="13">
         <f t="shared" si="3"/>
         <v>1.7272727272727273</v>
       </c>
-      <c r="G40" s="88"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="83">
-        <v>5</v>
-      </c>
-      <c r="B41" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="85">
+      <c r="A41" s="57">
+        <v>5</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="59">
         <v>15</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D41" s="58">
         <v>10</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="58">
         <v>12</v>
       </c>
       <c r="F41" s="13">
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G41" s="88"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="83">
-        <v>5</v>
-      </c>
-      <c r="B42" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="85">
+      <c r="A42" s="57">
+        <v>5</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="59">
         <v>585</v>
       </c>
-      <c r="D42" s="84">
+      <c r="D42" s="58">
         <v>11</v>
       </c>
-      <c r="E42" s="84">
+      <c r="E42" s="58">
         <v>12</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="3"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="G42" s="88"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="83">
-        <v>5</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="85">
+      <c r="A43" s="57">
+        <v>5</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="59">
         <v>425</v>
       </c>
-      <c r="D43" s="84">
-        <v>9</v>
-      </c>
-      <c r="E43" s="84">
+      <c r="D43" s="58">
+        <v>9</v>
+      </c>
+      <c r="E43" s="58">
         <v>7</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="3"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="G43" s="88"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="83">
-        <v>5</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="85">
+      <c r="A44" s="57">
+        <v>5</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="59">
         <v>850</v>
       </c>
-      <c r="D44" s="84">
+      <c r="D44" s="58">
         <v>13</v>
       </c>
-      <c r="E44" s="84">
+      <c r="E44" s="58">
         <v>7</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="3"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G44" s="88"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="83">
-        <v>5</v>
-      </c>
-      <c r="B45" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="85">
+      <c r="A45" s="57">
+        <v>5</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="59">
         <v>1245</v>
       </c>
-      <c r="D45" s="84">
-        <v>8</v>
-      </c>
-      <c r="E45" s="84">
+      <c r="D45" s="58">
+        <v>8</v>
+      </c>
+      <c r="E45" s="58">
         <v>7</v>
       </c>
       <c r="F45" s="13">
         <f t="shared" si="3"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G45" s="88"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="83">
-        <v>5</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="85">
+      <c r="A46" s="57">
+        <v>5</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="59">
         <v>630</v>
       </c>
-      <c r="D46" s="84">
-        <v>5</v>
-      </c>
-      <c r="E46" s="84">
+      <c r="D46" s="58">
+        <v>5</v>
+      </c>
+      <c r="E46" s="58">
         <v>7</v>
       </c>
       <c r="F46" s="13">
         <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G46" s="88"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="83">
-        <v>5</v>
-      </c>
-      <c r="B47" s="84" t="s">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="85">
+      <c r="C47" s="59">
         <v>150</v>
       </c>
-      <c r="D47" s="84">
-        <v>3</v>
-      </c>
-      <c r="E47" s="84">
+      <c r="D47" s="58">
+        <v>3</v>
+      </c>
+      <c r="E47" s="58">
         <v>7</v>
       </c>
       <c r="F47" s="13">
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G47" s="88"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="83">
-        <v>5</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="85">
-        <v>0</v>
-      </c>
-      <c r="D48" s="84">
-        <v>3</v>
-      </c>
-      <c r="E48" s="84">
+      <c r="A48" s="57">
+        <v>5</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="59">
+        <v>0</v>
+      </c>
+      <c r="D48" s="58">
+        <v>3</v>
+      </c>
+      <c r="E48" s="58">
         <v>6</v>
       </c>
       <c r="F48" s="13">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G48" s="88"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="83">
-        <v>5</v>
-      </c>
-      <c r="B49" s="84" t="s">
+      <c r="A49" s="57">
+        <v>5</v>
+      </c>
+      <c r="B49" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="85">
+      <c r="C49" s="59">
         <v>460</v>
       </c>
-      <c r="D49" s="84">
-        <v>8</v>
-      </c>
-      <c r="E49" s="84">
+      <c r="D49" s="58">
+        <v>8</v>
+      </c>
+      <c r="E49" s="58">
         <v>6</v>
       </c>
       <c r="F49" s="13">
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G49" s="88"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="83">
-        <v>5</v>
-      </c>
-      <c r="B50" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="85">
-        <v>0</v>
-      </c>
-      <c r="D50" s="84">
+      <c r="A50" s="57">
+        <v>5</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="59">
+        <v>0</v>
+      </c>
+      <c r="D50" s="58">
         <v>4</v>
       </c>
-      <c r="E50" s="84">
+      <c r="E50" s="58">
         <v>11</v>
       </c>
       <c r="F50" s="13">
         <f t="shared" si="3"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="G50" s="88"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
@@ -6613,7 +7841,7 @@
         <f t="shared" si="3"/>
         <v>1.1818181818181819</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G51" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6637,7 +7865,7 @@
         <f t="shared" si="3"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="G52" s="88">
+      <c r="G52" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6661,7 +7889,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G53" s="88">
+      <c r="G53" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6685,7 +7913,7 @@
         <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
-      <c r="G54" s="88">
+      <c r="G54" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6709,7 +7937,7 @@
         <f t="shared" si="3"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G55" s="88">
+      <c r="G55" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6802,7 +8030,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F67" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F85" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G59" s="3">
@@ -6829,7 +8057,7 @@
         <f t="shared" si="4"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="G60" s="88">
+      <c r="G60" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6853,7 +8081,7 @@
         <f t="shared" si="4"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G61" s="88">
+      <c r="G61" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6877,7 +8105,7 @@
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="G62" s="88">
+      <c r="G62" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6901,7 +8129,7 @@
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-      <c r="G63" s="88">
+      <c r="G63" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6925,7 +8153,7 @@
         <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
-      <c r="G64" s="88">
+      <c r="G64" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6949,7 +8177,7 @@
         <f t="shared" si="4"/>
         <v>1.125</v>
       </c>
-      <c r="G65" s="88">
+      <c r="G65" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6973,7 +8201,7 @@
         <f t="shared" si="4"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="G66" s="88">
+      <c r="G66" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6997,9 +8225,419 @@
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="G67" s="88">
-        <v>1</v>
-      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="16">
+        <v>695</v>
+      </c>
+      <c r="D68" s="3">
+        <v>10</v>
+      </c>
+      <c r="E68" s="3">
+        <v>7</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="16">
+        <v>550</v>
+      </c>
+      <c r="D69" s="3">
+        <v>7</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6</v>
+      </c>
+      <c r="F69" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="16">
+        <v>765</v>
+      </c>
+      <c r="D70" s="3">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10</v>
+      </c>
+      <c r="F70" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="16">
+        <v>1595</v>
+      </c>
+      <c r="D71" s="3">
+        <v>17</v>
+      </c>
+      <c r="E71" s="3">
+        <v>5</v>
+      </c>
+      <c r="F71" s="13">
+        <f t="shared" si="4"/>
+        <v>3.4</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16">
+        <v>730</v>
+      </c>
+      <c r="D72" s="3">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3">
+        <v>12</v>
+      </c>
+      <c r="F72" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="16">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="16">
+        <v>575</v>
+      </c>
+      <c r="D74" s="3">
+        <v>9</v>
+      </c>
+      <c r="E74" s="3">
+        <v>11</v>
+      </c>
+      <c r="F74" s="13">
+        <f t="shared" si="4"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="16">
+        <v>1450</v>
+      </c>
+      <c r="D75" s="3">
+        <v>18</v>
+      </c>
+      <c r="E75" s="3">
+        <v>7</v>
+      </c>
+      <c r="F75" s="13">
+        <f t="shared" si="4"/>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D76" s="3">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8</v>
+      </c>
+      <c r="F76" s="13">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="16">
+        <v>750</v>
+      </c>
+      <c r="D77" s="3">
+        <v>9</v>
+      </c>
+      <c r="E77" s="3">
+        <v>9</v>
+      </c>
+      <c r="F77" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="16">
+        <v>1250</v>
+      </c>
+      <c r="D78" s="3">
+        <v>15</v>
+      </c>
+      <c r="E78" s="3">
+        <v>10</v>
+      </c>
+      <c r="F78" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>9</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="16">
+        <v>140</v>
+      </c>
+      <c r="D79" s="3">
+        <v>5</v>
+      </c>
+      <c r="E79" s="3">
+        <v>8</v>
+      </c>
+      <c r="F79" s="13">
+        <f t="shared" si="4"/>
+        <v>0.625</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>9</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="16">
+        <v>95</v>
+      </c>
+      <c r="D80" s="3">
+        <v>4</v>
+      </c>
+      <c r="E80" s="3">
+        <v>12</v>
+      </c>
+      <c r="F80" s="13">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="16">
+        <v>2225</v>
+      </c>
+      <c r="D81" s="3">
+        <v>26</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11</v>
+      </c>
+      <c r="F81" s="13">
+        <f t="shared" si="4"/>
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1155</v>
+      </c>
+      <c r="D82" s="3">
+        <v>13</v>
+      </c>
+      <c r="E82" s="3">
+        <v>13</v>
+      </c>
+      <c r="F82" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1765</v>
+      </c>
+      <c r="D83" s="3">
+        <v>9</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3</v>
+      </c>
+      <c r="F83" s="13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>10</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="16">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3">
+        <v>10</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>10</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="16">
+        <v>800</v>
+      </c>
+      <c r="D85" s="3">
+        <v>16</v>
+      </c>
+      <c r="E85" s="3">
+        <v>20</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G85" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7008,10 +8646,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7038,7 +8676,7 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="61" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7062,7 +8700,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.6153846153846154</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -7084,7 +8722,7 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -7106,7 +8744,7 @@
         <f t="shared" si="0"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -7128,7 +8766,7 @@
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -7150,7 +8788,7 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -7172,7 +8810,7 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -7194,7 +8832,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -7216,7 +8854,7 @@
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -7238,7 +8876,7 @@
         <f t="shared" ref="F10:F29" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.2307692307692308</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -7260,7 +8898,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -7282,7 +8920,7 @@
         <f t="shared" si="1"/>
         <v>1.5833333333333333</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -7304,7 +8942,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G13" s="88"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -7326,7 +8964,7 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -7348,7 +8986,7 @@
         <f t="shared" si="1"/>
         <v>1.875</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -7370,7 +9008,7 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="G16" s="88"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -7392,7 +9030,7 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="G17" s="88"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -7414,7 +9052,7 @@
         <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="G18" s="88"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -7436,7 +9074,7 @@
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -7458,7 +9096,7 @@
         <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -7480,7 +9118,7 @@
         <f t="shared" si="1"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -7502,7 +9140,7 @@
         <f t="shared" si="1"/>
         <v>1.3636363636363635</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -7524,7 +9162,7 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="G23" s="88"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -7546,7 +9184,7 @@
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G24" s="88"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -7568,7 +9206,7 @@
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G25" s="88"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -7590,7 +9228,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -7612,7 +9250,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G27" s="88"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -7634,7 +9272,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G28" s="88"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -7656,7 +9294,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G29" s="88"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -7678,7 +9316,7 @@
         <f t="shared" ref="F30:F57" si="2">IF(E30=0,0,(D30/E30))</f>
         <v>2.75</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -7700,7 +9338,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="G31" s="88"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -7722,7 +9360,7 @@
         <f t="shared" si="2"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G32" s="88"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -7744,7 +9382,7 @@
         <f t="shared" si="2"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G33" s="88"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -7766,7 +9404,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G34" s="88"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -7788,7 +9426,7 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="G35" s="88"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -7810,7 +9448,7 @@
         <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="G36" s="88"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -7832,7 +9470,7 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G37" s="88"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -7854,249 +9492,249 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G38" s="88"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="79">
-        <v>5</v>
-      </c>
-      <c r="B39" s="80" t="s">
+      <c r="A39" s="53">
+        <v>5</v>
+      </c>
+      <c r="B39" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="81">
+      <c r="C39" s="55">
         <v>1215</v>
       </c>
-      <c r="D39" s="80">
+      <c r="D39" s="54">
         <v>15</v>
       </c>
-      <c r="E39" s="80">
+      <c r="E39" s="54">
         <v>7</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="2"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="G39" s="88"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="83">
-        <v>5</v>
-      </c>
-      <c r="B40" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="85">
+      <c r="A40" s="57">
+        <v>5</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="59">
         <v>1215</v>
       </c>
-      <c r="D40" s="84">
+      <c r="D40" s="58">
         <v>17</v>
       </c>
-      <c r="E40" s="84">
+      <c r="E40" s="58">
         <v>10</v>
       </c>
       <c r="F40" s="13">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="G40" s="88"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="83">
-        <v>5</v>
-      </c>
-      <c r="B41" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="85">
+      <c r="A41" s="57">
+        <v>5</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="59">
         <v>770</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D41" s="58">
         <v>10</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="58">
         <v>7</v>
       </c>
       <c r="F41" s="13">
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G41" s="88"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="83">
-        <v>5</v>
-      </c>
-      <c r="B42" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="85">
+      <c r="A42" s="57">
+        <v>5</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="59">
         <v>95</v>
       </c>
-      <c r="D42" s="84">
-        <v>9</v>
-      </c>
-      <c r="E42" s="84">
+      <c r="D42" s="58">
+        <v>9</v>
+      </c>
+      <c r="E42" s="58">
         <v>11</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="2"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="G42" s="88"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="83">
-        <v>5</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="85">
+      <c r="A43" s="57">
+        <v>5</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="59">
         <v>440</v>
       </c>
-      <c r="D43" s="84">
-        <v>9</v>
-      </c>
-      <c r="E43" s="84">
+      <c r="D43" s="58">
+        <v>9</v>
+      </c>
+      <c r="E43" s="58">
         <v>8</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
-      <c r="G43" s="88"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="83">
-        <v>5</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="85">
-        <v>0</v>
-      </c>
-      <c r="D44" s="84">
-        <v>7</v>
-      </c>
-      <c r="E44" s="84">
+      <c r="A44" s="57">
+        <v>5</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="59">
+        <v>0</v>
+      </c>
+      <c r="D44" s="58">
+        <v>7</v>
+      </c>
+      <c r="E44" s="58">
         <v>9</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="G44" s="88"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="83">
-        <v>5</v>
-      </c>
-      <c r="B45" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="85">
+      <c r="A45" s="57">
+        <v>5</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="59">
         <v>250</v>
       </c>
-      <c r="D45" s="84">
-        <v>7</v>
-      </c>
-      <c r="E45" s="84">
+      <c r="D45" s="58">
+        <v>7</v>
+      </c>
+      <c r="E45" s="58">
         <v>10</v>
       </c>
       <c r="F45" s="13">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="G45" s="88"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="83">
-        <v>5</v>
-      </c>
-      <c r="B46" s="84" t="s">
+      <c r="A46" s="57">
+        <v>5</v>
+      </c>
+      <c r="B46" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="85">
-        <v>0</v>
-      </c>
-      <c r="D46" s="84">
+      <c r="C46" s="59">
+        <v>0</v>
+      </c>
+      <c r="D46" s="58">
         <v>2</v>
       </c>
-      <c r="E46" s="84">
+      <c r="E46" s="58">
         <v>7</v>
       </c>
       <c r="F46" s="13">
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G46" s="88"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="83">
-        <v>5</v>
-      </c>
-      <c r="B47" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="85">
-        <v>0</v>
-      </c>
-      <c r="D47" s="84">
-        <v>0</v>
-      </c>
-      <c r="E47" s="84">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="59">
+        <v>0</v>
+      </c>
+      <c r="D47" s="58">
+        <v>0</v>
+      </c>
+      <c r="E47" s="58">
         <v>10</v>
       </c>
       <c r="F47" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G47" s="88"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="83">
-        <v>5</v>
-      </c>
-      <c r="B48" s="84" t="s">
+      <c r="A48" s="57">
+        <v>5</v>
+      </c>
+      <c r="B48" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="85">
+      <c r="C48" s="59">
         <v>335</v>
       </c>
-      <c r="D48" s="84">
-        <v>6</v>
-      </c>
-      <c r="E48" s="84">
+      <c r="D48" s="58">
+        <v>6</v>
+      </c>
+      <c r="E48" s="58">
         <v>7</v>
       </c>
       <c r="F48" s="13">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G48" s="88"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="83">
-        <v>5</v>
-      </c>
-      <c r="B49" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="85">
+      <c r="A49" s="57">
+        <v>5</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="59">
         <v>715</v>
       </c>
-      <c r="D49" s="84">
+      <c r="D49" s="58">
         <v>10</v>
       </c>
-      <c r="E49" s="84">
+      <c r="E49" s="58">
         <v>7</v>
       </c>
       <c r="F49" s="13">
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G49" s="88"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -8118,7 +9756,7 @@
         <f t="shared" si="2"/>
         <v>2.2222222222222223</v>
       </c>
-      <c r="G50" s="88">
+      <c r="G50" s="3">
         <v>1</v>
       </c>
     </row>
@@ -8142,7 +9780,7 @@
         <f t="shared" si="2"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G51" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8166,7 +9804,7 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G52" s="88">
+      <c r="G52" s="3">
         <v>1</v>
       </c>
     </row>
@@ -8190,7 +9828,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G53" s="88">
+      <c r="G53" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8214,7 +9852,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="G54" s="88">
+      <c r="G54" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8238,7 +9876,7 @@
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="G55" s="88">
+      <c r="G55" s="3">
         <v>1</v>
       </c>
     </row>
@@ -8307,7 +9945,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F66" si="3">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F84" si="3">IF(E58=0,0,(D58/E58))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G58" s="3">
@@ -8334,7 +9972,7 @@
         <f t="shared" si="3"/>
         <v>1.9166666666666667</v>
       </c>
-      <c r="G59" s="88">
+      <c r="G59" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8358,7 +9996,7 @@
         <f t="shared" si="3"/>
         <v>1.2307692307692308</v>
       </c>
-      <c r="G60" s="88">
+      <c r="G60" s="3">
         <v>1</v>
       </c>
     </row>
@@ -8382,7 +10020,7 @@
         <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
-      <c r="G61" s="88">
+      <c r="G61" s="3">
         <v>1</v>
       </c>
     </row>
@@ -8406,7 +10044,7 @@
         <f t="shared" si="3"/>
         <v>0.88235294117647056</v>
       </c>
-      <c r="G62" s="88">
+      <c r="G62" s="3">
         <v>1</v>
       </c>
     </row>
@@ -8430,7 +10068,7 @@
         <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G63" s="88">
+      <c r="G63" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8454,7 +10092,7 @@
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G64" s="88">
+      <c r="G64" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8478,7 +10116,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="G65" s="88">
+      <c r="G65" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8502,9 +10140,419 @@
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G66" s="88">
-        <v>1</v>
-      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="16">
+        <v>1280</v>
+      </c>
+      <c r="D67" s="3">
+        <v>18</v>
+      </c>
+      <c r="E67" s="3">
+        <v>11</v>
+      </c>
+      <c r="F67" s="13">
+        <f t="shared" si="3"/>
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1010</v>
+      </c>
+      <c r="D68" s="3">
+        <v>10</v>
+      </c>
+      <c r="E68" s="3">
+        <v>14</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="16">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>20</v>
+      </c>
+      <c r="F69" s="13">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="16">
+        <v>740</v>
+      </c>
+      <c r="D70" s="3">
+        <v>17</v>
+      </c>
+      <c r="E70" s="3">
+        <v>12</v>
+      </c>
+      <c r="F70" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16">
+        <v>830</v>
+      </c>
+      <c r="D71" s="3">
+        <v>11</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7</v>
+      </c>
+      <c r="F71" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="16">
+        <v>870</v>
+      </c>
+      <c r="D72" s="3">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9</v>
+      </c>
+      <c r="F72" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="16">
+        <v>1015</v>
+      </c>
+      <c r="D73" s="3">
+        <v>6</v>
+      </c>
+      <c r="E73" s="3">
+        <v>3</v>
+      </c>
+      <c r="F73" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D74" s="3">
+        <v>20</v>
+      </c>
+      <c r="E74" s="3">
+        <v>6</v>
+      </c>
+      <c r="F74" s="13">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="16">
+        <v>1250</v>
+      </c>
+      <c r="D75" s="3">
+        <v>13</v>
+      </c>
+      <c r="E75" s="3">
+        <v>7</v>
+      </c>
+      <c r="F75" s="13">
+        <f t="shared" si="3"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="16">
+        <v>970</v>
+      </c>
+      <c r="D76" s="3">
+        <v>11</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8</v>
+      </c>
+      <c r="F76" s="13">
+        <f t="shared" si="3"/>
+        <v>1.375</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="16">
+        <v>1300</v>
+      </c>
+      <c r="D77" s="3">
+        <v>18</v>
+      </c>
+      <c r="E77" s="3">
+        <v>9</v>
+      </c>
+      <c r="F77" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="16">
+        <v>200</v>
+      </c>
+      <c r="D78" s="3">
+        <v>9</v>
+      </c>
+      <c r="E78" s="3">
+        <v>7</v>
+      </c>
+      <c r="F78" s="13">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>9</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="16">
+        <v>120</v>
+      </c>
+      <c r="D79" s="3">
+        <v>6</v>
+      </c>
+      <c r="E79" s="3">
+        <v>10</v>
+      </c>
+      <c r="F79" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>10</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="16">
+        <v>870</v>
+      </c>
+      <c r="D80" s="3">
+        <v>20</v>
+      </c>
+      <c r="E80" s="3">
+        <v>17</v>
+      </c>
+      <c r="F80" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="16">
+        <v>1995</v>
+      </c>
+      <c r="D81" s="3">
+        <v>21</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15</v>
+      </c>
+      <c r="F81" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D82" s="3">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3">
+        <v>10</v>
+      </c>
+      <c r="F82" s="13">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="16">
+        <v>170</v>
+      </c>
+      <c r="D83" s="3">
+        <v>12</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15</v>
+      </c>
+      <c r="F83" s="13">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>10</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="16">
+        <v>275</v>
+      </c>
+      <c r="D84" s="3">
+        <v>18</v>
+      </c>
+      <c r="E84" s="3">
+        <v>16</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" si="3"/>
+        <v>1.125</v>
+      </c>
+      <c r="G84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8513,10 +10561,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8543,7 +10591,7 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="61" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8567,7 +10615,7 @@
         <f t="shared" ref="F2:F9" si="0">IF(E2=0,0,(D2/E2))</f>
         <v>1.875</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -8589,7 +10637,7 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -8611,7 +10659,7 @@
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -8633,7 +10681,7 @@
         <f t="shared" si="0"/>
         <v>1.8888888888888888</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -8655,7 +10703,7 @@
         <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -8677,7 +10725,7 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -8699,7 +10747,7 @@
         <f t="shared" si="0"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -8721,7 +10769,7 @@
         <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -8743,7 +10791,7 @@
         <f t="shared" ref="F10:F18" si="1">IF(E10=0,0,(D10/E10))</f>
         <v>1.9</v>
       </c>
-      <c r="G10" s="88"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -8765,7 +10813,7 @@
         <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -8787,7 +10835,7 @@
         <f t="shared" si="1"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -8809,7 +10857,7 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G13" s="88"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -8831,7 +10879,7 @@
         <f t="shared" si="1"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -8853,7 +10901,7 @@
         <f t="shared" si="1"/>
         <v>1.3636363636363635</v>
       </c>
-      <c r="G15" s="88"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -8875,7 +10923,7 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G16" s="88"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -8897,7 +10945,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="88"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -8919,7 +10967,7 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="G18" s="88"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -8941,7 +10989,7 @@
         <f>IF(E19=0,0,(D19/E19))</f>
         <v>1.8</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -8963,7 +11011,7 @@
         <f t="shared" ref="F20:F29" si="2">IF(E20=0,0,(D20/E20))</f>
         <v>1.5</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -8985,7 +11033,7 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -9007,7 +11055,7 @@
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -9029,7 +11077,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G23" s="88"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -9051,7 +11099,7 @@
         <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G24" s="88"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -9073,7 +11121,7 @@
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G25" s="88"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -9095,7 +11143,7 @@
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -9117,7 +11165,7 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G27" s="88"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -9139,7 +11187,7 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G28" s="88"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -9161,7 +11209,7 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G29" s="88"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -9183,7 +11231,7 @@
         <f>IF(E30=0,0,(D30/E30))</f>
         <v>2.6</v>
       </c>
-      <c r="G30" s="88"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -9205,7 +11253,7 @@
         <f t="shared" ref="F31:F38" si="3">IF(E31=0,0,(D31/E31))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="G31" s="88"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -9227,7 +11275,7 @@
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="G32" s="88"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -9249,7 +11297,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G33" s="88"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -9271,7 +11319,7 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G34" s="88"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -9293,7 +11341,7 @@
         <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G35" s="88"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -9315,7 +11363,7 @@
         <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="G36" s="88"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -9337,7 +11385,7 @@
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G37" s="88"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -9359,217 +11407,217 @@
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G38" s="88"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="79">
-        <v>5</v>
-      </c>
-      <c r="B39" s="80" t="s">
+      <c r="A39" s="53">
+        <v>5</v>
+      </c>
+      <c r="B39" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="81">
+      <c r="C39" s="55">
         <v>395</v>
       </c>
-      <c r="D39" s="80">
+      <c r="D39" s="54">
         <v>12</v>
       </c>
-      <c r="E39" s="80">
+      <c r="E39" s="54">
         <v>14</v>
       </c>
-      <c r="F39" s="82">
-        <v>0</v>
-      </c>
-      <c r="G39" s="88"/>
+      <c r="F39" s="56">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="83">
-        <v>5</v>
-      </c>
-      <c r="B40" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="85">
+      <c r="A40" s="57">
+        <v>5</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="59">
         <v>420</v>
       </c>
-      <c r="D40" s="84">
+      <c r="D40" s="58">
         <v>10</v>
       </c>
-      <c r="E40" s="84">
-        <v>9</v>
-      </c>
-      <c r="F40" s="86">
-        <v>0</v>
-      </c>
-      <c r="G40" s="88"/>
+      <c r="E40" s="58">
+        <v>9</v>
+      </c>
+      <c r="F40" s="60">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="83">
-        <v>5</v>
-      </c>
-      <c r="B41" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="85">
+      <c r="A41" s="57">
+        <v>5</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="59">
         <v>890</v>
       </c>
-      <c r="D41" s="84">
-        <v>9</v>
-      </c>
-      <c r="E41" s="84">
-        <v>8</v>
-      </c>
-      <c r="F41" s="86">
-        <v>0</v>
-      </c>
-      <c r="G41" s="88"/>
+      <c r="D41" s="58">
+        <v>9</v>
+      </c>
+      <c r="E41" s="58">
+        <v>8</v>
+      </c>
+      <c r="F41" s="60">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="83">
-        <v>5</v>
-      </c>
-      <c r="B42" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="85">
+      <c r="A42" s="57">
+        <v>5</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="59">
         <v>930</v>
       </c>
-      <c r="D42" s="84">
+      <c r="D42" s="58">
         <v>11</v>
       </c>
-      <c r="E42" s="84">
-        <v>8</v>
-      </c>
-      <c r="F42" s="86">
-        <v>0</v>
-      </c>
-      <c r="G42" s="88"/>
+      <c r="E42" s="58">
+        <v>8</v>
+      </c>
+      <c r="F42" s="60">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="83">
-        <v>5</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="85">
+      <c r="A43" s="57">
+        <v>5</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="59">
         <v>1070</v>
       </c>
-      <c r="D43" s="84">
-        <v>8</v>
-      </c>
-      <c r="E43" s="84">
-        <v>5</v>
-      </c>
-      <c r="F43" s="86">
-        <v>0</v>
-      </c>
-      <c r="G43" s="88"/>
+      <c r="D43" s="58">
+        <v>8</v>
+      </c>
+      <c r="E43" s="58">
+        <v>5</v>
+      </c>
+      <c r="F43" s="60">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="83">
-        <v>5</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="85">
+      <c r="A44" s="57">
+        <v>5</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="59">
         <v>1235</v>
       </c>
-      <c r="D44" s="84">
+      <c r="D44" s="58">
         <v>12</v>
       </c>
-      <c r="E44" s="84">
-        <v>5</v>
-      </c>
-      <c r="F44" s="86">
-        <v>0</v>
-      </c>
-      <c r="G44" s="88"/>
+      <c r="E44" s="58">
+        <v>5</v>
+      </c>
+      <c r="F44" s="60">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="83">
-        <v>5</v>
-      </c>
-      <c r="B45" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="85">
+      <c r="A45" s="57">
+        <v>5</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="59">
         <v>525</v>
       </c>
-      <c r="D45" s="84">
-        <v>5</v>
-      </c>
-      <c r="E45" s="84">
-        <v>7</v>
-      </c>
-      <c r="F45" s="86">
-        <v>0</v>
-      </c>
-      <c r="G45" s="88"/>
+      <c r="D45" s="58">
+        <v>5</v>
+      </c>
+      <c r="E45" s="58">
+        <v>7</v>
+      </c>
+      <c r="F45" s="60">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="83">
-        <v>5</v>
-      </c>
-      <c r="B46" s="84" t="s">
+      <c r="A46" s="57">
+        <v>5</v>
+      </c>
+      <c r="B46" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="85">
+      <c r="C46" s="59">
         <v>130</v>
       </c>
-      <c r="D46" s="84">
-        <v>5</v>
-      </c>
-      <c r="E46" s="84">
-        <v>8</v>
-      </c>
-      <c r="F46" s="86">
-        <v>0</v>
-      </c>
-      <c r="G46" s="88"/>
+      <c r="D46" s="58">
+        <v>5</v>
+      </c>
+      <c r="E46" s="58">
+        <v>8</v>
+      </c>
+      <c r="F46" s="60">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="83">
-        <v>5</v>
-      </c>
-      <c r="B47" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="85">
-        <v>5</v>
-      </c>
-      <c r="D47" s="84">
-        <v>3</v>
-      </c>
-      <c r="E47" s="84">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="59">
+        <v>5</v>
+      </c>
+      <c r="D47" s="58">
+        <v>3</v>
+      </c>
+      <c r="E47" s="58">
         <v>12</v>
       </c>
-      <c r="F47" s="86">
-        <v>0</v>
-      </c>
-      <c r="G47" s="88"/>
+      <c r="F47" s="60">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="83">
-        <v>5</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="85">
+      <c r="A48" s="57">
+        <v>5</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="59">
         <v>520</v>
       </c>
-      <c r="D48" s="84">
-        <v>5</v>
-      </c>
-      <c r="E48" s="84">
+      <c r="D48" s="58">
+        <v>5</v>
+      </c>
+      <c r="E48" s="58">
         <v>4</v>
       </c>
-      <c r="F48" s="86">
-        <v>0</v>
-      </c>
-      <c r="G48" s="88"/>
+      <c r="F48" s="60">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
@@ -9591,7 +11639,7 @@
         <f t="shared" ref="F49:F56" si="4">IF(E49=0,0,(D49/E49))</f>
         <v>2.5</v>
       </c>
-      <c r="G49" s="88">
+      <c r="G49" s="3">
         <v>1</v>
       </c>
     </row>
@@ -9615,7 +11663,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G50" s="88">
+      <c r="G50" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9639,7 +11687,7 @@
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G51" s="3">
         <v>1</v>
       </c>
     </row>
@@ -9663,7 +11711,7 @@
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G52" s="88">
+      <c r="G52" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9687,7 +11735,7 @@
         <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
-      <c r="G53" s="88">
+      <c r="G53" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9711,7 +11759,7 @@
         <f t="shared" si="4"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="G54" s="88">
+      <c r="G54" s="3">
         <v>1</v>
       </c>
     </row>
@@ -9735,7 +11783,7 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="G55" s="88">
+      <c r="G55" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9759,7 +11807,7 @@
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G56" s="88">
+      <c r="G56" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9780,10 +11828,10 @@
         <v>13</v>
       </c>
       <c r="F57" s="13">
-        <f t="shared" ref="F57:F65" si="5">IF(E57=0,0,(D57/E57))</f>
+        <f t="shared" ref="F57:F83" si="5">IF(E57=0,0,(D57/E57))</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="G57" s="88">
+      <c r="G57" s="3">
         <v>1</v>
       </c>
     </row>
@@ -9807,7 +11855,7 @@
         <f t="shared" si="5"/>
         <v>1.0769230769230769</v>
       </c>
-      <c r="G58" s="88">
+      <c r="G58" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9831,7 +11879,7 @@
         <f t="shared" si="5"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G59" s="88">
+      <c r="G59" s="3">
         <v>1</v>
       </c>
     </row>
@@ -9855,7 +11903,7 @@
         <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
-      <c r="G60" s="88">
+      <c r="G60" s="3">
         <v>1</v>
       </c>
     </row>
@@ -9879,7 +11927,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G61" s="88">
+      <c r="G61" s="3">
         <v>1</v>
       </c>
     </row>
@@ -9903,7 +11951,7 @@
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="G62" s="88">
+      <c r="G62" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9927,7 +11975,7 @@
         <f t="shared" si="5"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G63" s="88">
+      <c r="G63" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9951,7 +11999,7 @@
         <f t="shared" si="5"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G64" s="88">
+      <c r="G64" s="3">
         <v>0</v>
       </c>
     </row>
@@ -9975,9 +12023,419 @@
         <f t="shared" si="5"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="G65" s="88">
-        <v>1</v>
-      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="16">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="16">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="16">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="16">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="16">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>9</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="16">
+        <v>1355</v>
+      </c>
+      <c r="D73" s="3">
+        <v>17</v>
+      </c>
+      <c r="E73" s="3">
+        <v>8</v>
+      </c>
+      <c r="F73" s="13">
+        <f t="shared" si="5"/>
+        <v>2.125</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1165</v>
+      </c>
+      <c r="D74" s="3">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3">
+        <v>7</v>
+      </c>
+      <c r="F74" s="13">
+        <f t="shared" si="5"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="16">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3">
+        <v>16</v>
+      </c>
+      <c r="F75" s="13">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1040</v>
+      </c>
+      <c r="D76" s="3">
+        <v>17</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9</v>
+      </c>
+      <c r="F76" s="13">
+        <f t="shared" si="5"/>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="16">
+        <v>75</v>
+      </c>
+      <c r="D77" s="3">
+        <v>6</v>
+      </c>
+      <c r="E77" s="3">
+        <v>7</v>
+      </c>
+      <c r="F77" s="13">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>9</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="16">
+        <v>35</v>
+      </c>
+      <c r="D78" s="3">
+        <v>4</v>
+      </c>
+      <c r="E78" s="3">
+        <v>12</v>
+      </c>
+      <c r="F78" s="13">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="16">
+        <v>1395</v>
+      </c>
+      <c r="D79" s="3">
+        <v>14</v>
+      </c>
+      <c r="E79" s="3">
+        <v>5</v>
+      </c>
+      <c r="F79" s="13">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>10</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1595</v>
+      </c>
+      <c r="D80" s="3">
+        <v>11</v>
+      </c>
+      <c r="E80" s="3">
+        <v>6</v>
+      </c>
+      <c r="F80" s="13">
+        <f t="shared" si="5"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="16">
+        <v>1080</v>
+      </c>
+      <c r="D81" s="3">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8</v>
+      </c>
+      <c r="F81" s="13">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="16">
+        <v>455</v>
+      </c>
+      <c r="D82" s="3">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3">
+        <v>12</v>
+      </c>
+      <c r="F82" s="13">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="16">
+        <v>135</v>
+      </c>
+      <c r="D83" s="3">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11</v>
+      </c>
+      <c r="F83" s="13">
+        <f t="shared" si="5"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10021,130 +12479,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="62" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="62" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="62" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="62" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="62" t="s">
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="65" t="s">
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="69" t="s">
         <v>14</v>
       </c>
       <c r="AC3" s="28"/>
-      <c r="AD3" s="60" t="s">
+      <c r="AD3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="60" t="s">
+      <c r="AE3" s="64" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="29" t="s">
         <v>36</v>
       </c>
@@ -10217,10 +12675,10 @@
       <c r="AA4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="66"/>
+      <c r="AB4" s="70"/>
       <c r="AC4" s="31"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
       <c r="AF4" s="32"/>
       <c r="AG4" s="33" t="s">
         <v>26</v>
@@ -11693,69 +14151,69 @@
       <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="53" t="e">
+      <c r="D17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(D5:D15),D5:D15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53" t="e">
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(H5:H15),H5:H15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53" t="e">
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(L5:L15),L5:L15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53" t="e">
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(P5:P15),P5:P15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53" t="e">
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(T5:T15),T5:T15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53" t="e">
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(X5:X15),X5:X15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="73" t="s">
         <v>55</v>
       </c>
       <c r="J20" s="24" t="s">
@@ -11763,13 +14221,13 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="43" t="s">
@@ -12139,6 +14597,19 @@
     <sortCondition descending="1" ref="E22:E32"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
     <mergeCell ref="D1:AE1"/>
     <mergeCell ref="D2:AE2"/>
     <mergeCell ref="B3:B4"/>
@@ -12152,19 +14623,6 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -12206,138 +14664,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="75" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="75" t="s">
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="75" t="s">
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="75" t="s">
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="75" t="s">
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="68" t="s">
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="78" t="s">
         <v>14</v>
       </c>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="68" t="s">
+      <c r="AE3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="68" t="s">
+      <c r="AF3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="67" t="s">
+      <c r="AH3" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B4" s="78"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="14" t="s">
         <v>36</v>
       </c>
@@ -12410,10 +14868,10 @@
       <c r="AB4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="69"/>
+      <c r="AC4" s="79"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="20" t="s">
         <v>26</v>
@@ -12429,7 +14887,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -12537,7 +14995,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="71"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -12643,7 +15101,7 @@
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="71"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -12749,7 +15207,7 @@
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="71"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -12855,7 +15313,7 @@
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="71"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -12961,7 +15419,7 @@
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="71"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -13067,7 +15525,7 @@
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="71"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -13173,7 +15631,7 @@
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="71"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
@@ -13279,7 +15737,7 @@
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="71"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
@@ -13385,7 +15843,7 @@
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="71"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -13491,7 +15949,7 @@
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
@@ -13634,7 +16092,7 @@
       <c r="AK16" s="21"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="84" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -13740,7 +16198,7 @@
       </c>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B18" s="71"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
@@ -13844,7 +16302,7 @@
       </c>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B19" s="71"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
@@ -13948,7 +16406,7 @@
       </c>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B20" s="71"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -14052,7 +16510,7 @@
       </c>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B21" s="71"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -14156,7 +16614,7 @@
       </c>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B22" s="71"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -14260,7 +16718,7 @@
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B23" s="71"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -14364,7 +16822,7 @@
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B24" s="71"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
@@ -14468,7 +16926,7 @@
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B25" s="71"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
@@ -14572,7 +17030,7 @@
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B26" s="71"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
@@ -14676,7 +17134,7 @@
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B27" s="72"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
@@ -14780,7 +17238,7 @@
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="84" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -14889,7 +17347,7 @@
       </c>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B30" s="71"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
@@ -14996,7 +17454,7 @@
       </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B31" s="71"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
@@ -15103,7 +17561,7 @@
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B32" s="71"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
@@ -15210,7 +17668,7 @@
       </c>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B33" s="71"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
@@ -15317,7 +17775,7 @@
       </c>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B34" s="71"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
@@ -15424,7 +17882,7 @@
       </c>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B35" s="71"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
@@ -15531,7 +17989,7 @@
       </c>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B36" s="71"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
@@ -15638,7 +18096,7 @@
       </c>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B37" s="71"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
@@ -15745,7 +18203,7 @@
       </c>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B38" s="71"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -15853,7 +18311,7 @@
       </c>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B39" s="72"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -15965,6 +18423,14 @@
     <sortCondition descending="1" ref="AK29:AK39"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B17:B27"/>
     <mergeCell ref="E1:AF1"/>
     <mergeCell ref="E2:AF2"/>
     <mergeCell ref="C3:C4"/>
@@ -15975,14 +18441,6 @@
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="B17:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467DB58-2514-BE4B-A1AD-FF30CE807E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3023B89-1323-C64E-A6AE-30ACA3C72E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" firstSheet="3" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="11780" windowHeight="17720" activeTab="3" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -1006,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:G81"/>
+    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2748,17 +2748,17 @@
         <v>4</v>
       </c>
       <c r="C77" s="16">
-        <v>0</v>
+        <v>1735</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F77" s="13">
-        <f t="shared" ref="F77:F81" si="7">IF(E77=0,0,(D77/E77))</f>
-        <v>0</v>
+        <f t="shared" ref="F77:F89" si="7">IF(E77=0,0,(D77/E77))</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -2770,17 +2770,17 @@
         <v>63</v>
       </c>
       <c r="C78" s="16">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="D78" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E78" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F78" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="G78" s="3"/>
     </row>
@@ -2792,17 +2792,17 @@
         <v>5</v>
       </c>
       <c r="C79" s="16">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="D79" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E79" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F79" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G79" s="3"/>
     </row>
@@ -2814,17 +2814,17 @@
         <v>7</v>
       </c>
       <c r="C80" s="16">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="D80" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F80" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="G80" s="3"/>
     </row>
@@ -2836,19 +2836,195 @@
         <v>6</v>
       </c>
       <c r="C81" s="16">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F81" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3">
+        <v>21</v>
+      </c>
+      <c r="F82" s="13">
+        <f t="shared" ref="F82" si="8">IF(E82=0,0,(D82/E82))</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>11</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1185</v>
+      </c>
+      <c r="D83" s="3">
+        <v>22</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11</v>
+      </c>
+      <c r="F83" s="13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>11</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="16">
+        <v>755</v>
+      </c>
+      <c r="D84" s="3">
+        <v>13</v>
+      </c>
+      <c r="E84" s="3">
+        <v>10</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" si="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>11</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="16">
+        <v>645</v>
+      </c>
+      <c r="D85" s="3">
+        <v>13</v>
+      </c>
+      <c r="E85" s="3">
+        <v>14</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="16">
+        <v>335</v>
+      </c>
+      <c r="D86" s="3">
+        <v>13</v>
+      </c>
+      <c r="E86" s="3">
+        <v>15</v>
+      </c>
+      <c r="F86" s="13">
+        <f t="shared" si="7"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="16">
+        <v>585</v>
+      </c>
+      <c r="D87" s="3">
+        <v>16</v>
+      </c>
+      <c r="E87" s="3">
+        <v>11</v>
+      </c>
+      <c r="F87" s="13">
+        <f t="shared" si="7"/>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="16">
+        <v>275</v>
+      </c>
+      <c r="D88" s="3">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3">
+        <v>9</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16">
+        <v>10</v>
+      </c>
+      <c r="D89" s="3">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <v>17</v>
+      </c>
+      <c r="F89" s="13">
+        <f t="shared" si="7"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="G89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2857,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81:E85"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4178,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F85" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F92" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.625</v>
       </c>
       <c r="G59" s="3">
@@ -4786,6 +4962,160 @@
         <v>0.76470588235294112</v>
       </c>
       <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="16">
+        <v>490</v>
+      </c>
+      <c r="D86" s="3">
+        <v>8</v>
+      </c>
+      <c r="E86" s="3">
+        <v>6</v>
+      </c>
+      <c r="F86" s="13">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="16">
+        <v>140</v>
+      </c>
+      <c r="D87" s="3">
+        <v>4</v>
+      </c>
+      <c r="E87" s="3">
+        <v>5</v>
+      </c>
+      <c r="F87" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="16">
+        <v>585</v>
+      </c>
+      <c r="D88" s="3">
+        <v>6</v>
+      </c>
+      <c r="E88" s="3">
+        <v>6</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="16">
+        <v>1740</v>
+      </c>
+      <c r="D89" s="3">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>11</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="16">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>3</v>
+      </c>
+      <c r="E90" s="3">
+        <v>8</v>
+      </c>
+      <c r="F90" s="13">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>11</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="16">
+        <v>45</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>5</v>
+      </c>
+      <c r="F91" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>11</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16">
+        <v>55</v>
+      </c>
+      <c r="D92" s="3">
+        <v>4</v>
+      </c>
+      <c r="E92" s="3">
+        <v>5</v>
+      </c>
+      <c r="F92" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4794,10 +5124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:E84"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6093,7 +6423,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F84" si="4">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F91" si="4">IF(E58=0,0,(D58/E58))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G58" s="3">
@@ -6701,6 +7031,160 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>11</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="16">
+        <v>1375</v>
+      </c>
+      <c r="D85" s="3">
+        <v>16</v>
+      </c>
+      <c r="E85" s="3">
+        <v>8</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="16">
+        <v>100</v>
+      </c>
+      <c r="D86" s="3">
+        <v>5</v>
+      </c>
+      <c r="E86" s="3">
+        <v>12</v>
+      </c>
+      <c r="F86" s="13">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="16">
+        <v>10</v>
+      </c>
+      <c r="D87" s="3">
+        <v>9</v>
+      </c>
+      <c r="E87" s="3">
+        <v>10</v>
+      </c>
+      <c r="F87" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="16">
+        <v>635</v>
+      </c>
+      <c r="D88" s="3">
+        <v>9</v>
+      </c>
+      <c r="E88" s="3">
+        <v>8</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="16">
+        <v>525</v>
+      </c>
+      <c r="D89" s="3">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7</v>
+      </c>
+      <c r="F89" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>11</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="16">
+        <v>645</v>
+      </c>
+      <c r="D90" s="3">
+        <v>4</v>
+      </c>
+      <c r="E90" s="3">
+        <v>6</v>
+      </c>
+      <c r="F90" s="13">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>11</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16">
+        <v>260</v>
+      </c>
+      <c r="D91" s="3">
+        <v>6</v>
+      </c>
+      <c r="E91" s="3">
+        <v>9</v>
+      </c>
+      <c r="F91" s="13">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6709,10 +7193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:E80"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8030,7 +8514,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F85" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F92" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G59" s="3">
@@ -8638,6 +9122,160 @@
         <v>0.8</v>
       </c>
       <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="16">
+        <v>1335</v>
+      </c>
+      <c r="D86" s="3">
+        <v>17</v>
+      </c>
+      <c r="E86" s="3">
+        <v>10</v>
+      </c>
+      <c r="F86" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="16">
+        <v>1285</v>
+      </c>
+      <c r="D87" s="3">
+        <v>13</v>
+      </c>
+      <c r="E87" s="3">
+        <v>13</v>
+      </c>
+      <c r="F87" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="16">
+        <v>715</v>
+      </c>
+      <c r="D88" s="3">
+        <v>15</v>
+      </c>
+      <c r="E88" s="3">
+        <v>17</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" si="4"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="16">
+        <v>425</v>
+      </c>
+      <c r="D89" s="3">
+        <v>12</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10</v>
+      </c>
+      <c r="F89" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>11</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="16">
+        <v>885</v>
+      </c>
+      <c r="D90" s="3">
+        <v>14</v>
+      </c>
+      <c r="E90" s="3">
+        <v>8</v>
+      </c>
+      <c r="F90" s="13">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>11</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="16">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>12</v>
+      </c>
+      <c r="F91" s="13">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>11</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="16">
+        <v>375</v>
+      </c>
+      <c r="D92" s="3">
+        <v>6</v>
+      </c>
+      <c r="E92" s="3">
+        <v>11</v>
+      </c>
+      <c r="F92" s="13">
+        <f t="shared" si="4"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8646,10 +9284,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:E84"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9945,7 +10583,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F84" si="3">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F91" si="3">IF(E58=0,0,(D58/E58))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G58" s="3">
@@ -10553,6 +11191,160 @@
         <v>1.125</v>
       </c>
       <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>11</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="16">
+        <v>615</v>
+      </c>
+      <c r="D85" s="3">
+        <v>23</v>
+      </c>
+      <c r="E85" s="3">
+        <v>16</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4375</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="16">
+        <v>1740</v>
+      </c>
+      <c r="D86" s="3">
+        <v>17</v>
+      </c>
+      <c r="E86" s="3">
+        <v>10</v>
+      </c>
+      <c r="F86" s="13">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="16">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
+        <v>9</v>
+      </c>
+      <c r="E87" s="3">
+        <v>22</v>
+      </c>
+      <c r="F87" s="13">
+        <f t="shared" si="3"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="16">
+        <v>955</v>
+      </c>
+      <c r="D88" s="3">
+        <v>14</v>
+      </c>
+      <c r="E88" s="3">
+        <v>7</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="16">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>6</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12</v>
+      </c>
+      <c r="F89" s="13">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>11</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="16">
+        <v>375</v>
+      </c>
+      <c r="D90" s="3">
+        <v>4</v>
+      </c>
+      <c r="E90" s="3">
+        <v>6</v>
+      </c>
+      <c r="F90" s="13">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>11</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16">
+        <v>215</v>
+      </c>
+      <c r="D91" s="3">
+        <v>15</v>
+      </c>
+      <c r="E91" s="3">
+        <v>16</v>
+      </c>
+      <c r="F91" s="13">
+        <f t="shared" si="3"/>
+        <v>0.9375</v>
+      </c>
+      <c r="G91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10561,10 +11353,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12436,6 +13228,182 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>10</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16">
+        <v>105</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>12</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" ref="F84" si="6">IF(E84=0,0,(D84/E84))</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>11</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="16">
+        <v>1130</v>
+      </c>
+      <c r="D85" s="3">
+        <v>18</v>
+      </c>
+      <c r="E85" s="3">
+        <v>15</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" ref="F85" si="7">IF(E85=0,0,(D85/E85))</f>
+        <v>1.2</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="16">
+        <v>1145</v>
+      </c>
+      <c r="D86" s="3">
+        <v>13</v>
+      </c>
+      <c r="E86" s="3">
+        <v>8</v>
+      </c>
+      <c r="F86" s="13">
+        <f t="shared" ref="F86:F91" si="8">IF(E86=0,0,(D86/E86))</f>
+        <v>1.625</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="16">
+        <v>240</v>
+      </c>
+      <c r="D87" s="3">
+        <v>14</v>
+      </c>
+      <c r="E87" s="3">
+        <v>16</v>
+      </c>
+      <c r="F87" s="13">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="16">
+        <v>1040</v>
+      </c>
+      <c r="D88" s="3">
+        <v>20</v>
+      </c>
+      <c r="E88" s="3">
+        <v>12</v>
+      </c>
+      <c r="F88" s="13">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="16">
+        <v>150</v>
+      </c>
+      <c r="D89" s="3">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <v>16</v>
+      </c>
+      <c r="F89" s="13">
+        <f t="shared" si="8"/>
+        <v>0.4375</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>11</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="16">
+        <v>795</v>
+      </c>
+      <c r="D90" s="3">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3">
+        <v>9</v>
+      </c>
+      <c r="F90" s="13">
+        <f t="shared" si="8"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>11</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16">
+        <v>545</v>
+      </c>
+      <c r="D91" s="3">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>10</v>
+      </c>
+      <c r="F91" s="13">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3023B89-1323-C64E-A6AE-30ACA3C72E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A889728C-F56B-7C41-8A49-F443FEF953A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="11780" windowHeight="17720" activeTab="3" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="2" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -1006,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:B89"/>
+    <sheetView showGridLines="0" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3026,6 +3026,182 @@
       </c>
       <c r="G89" s="3"/>
     </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>12</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="16">
+        <v>875</v>
+      </c>
+      <c r="D90" s="3">
+        <v>20</v>
+      </c>
+      <c r="E90" s="3">
+        <v>14</v>
+      </c>
+      <c r="F90" s="13">
+        <f t="shared" ref="F90:F96" si="9">IF(E90=0,0,(D90/E90))</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>12</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="16">
+        <v>625</v>
+      </c>
+      <c r="D91" s="3">
+        <v>12</v>
+      </c>
+      <c r="E91" s="3">
+        <v>11</v>
+      </c>
+      <c r="F91" s="13">
+        <f t="shared" si="9"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>12</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="16">
+        <v>525</v>
+      </c>
+      <c r="D92" s="3">
+        <v>10</v>
+      </c>
+      <c r="E92" s="3">
+        <v>7</v>
+      </c>
+      <c r="F92" s="13">
+        <f t="shared" si="9"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="16">
+        <v>400</v>
+      </c>
+      <c r="D93" s="3">
+        <v>14</v>
+      </c>
+      <c r="E93" s="3">
+        <v>16</v>
+      </c>
+      <c r="F93" s="13">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>12</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="16">
+        <v>700</v>
+      </c>
+      <c r="D94" s="3">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8</v>
+      </c>
+      <c r="F94" s="13">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>12</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="16">
+        <v>65</v>
+      </c>
+      <c r="D95" s="3">
+        <v>9</v>
+      </c>
+      <c r="E95" s="3">
+        <v>12</v>
+      </c>
+      <c r="F95" s="13">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16">
+        <v>180</v>
+      </c>
+      <c r="D96" s="3">
+        <v>8</v>
+      </c>
+      <c r="E96" s="3">
+        <v>12</v>
+      </c>
+      <c r="F96" s="13">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="16">
+        <v>660</v>
+      </c>
+      <c r="D97" s="3">
+        <v>9</v>
+      </c>
+      <c r="E97" s="3">
+        <v>11</v>
+      </c>
+      <c r="F97" s="13">
+        <f t="shared" ref="F97" si="10">IF(E97=0,0,(D97/E97))</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3033,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4354,7 +4530,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F92" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F100" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.625</v>
       </c>
       <c r="G59" s="3">
@@ -5116,6 +5292,182 @@
         <v>0.8</v>
       </c>
       <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="16">
+        <v>1135</v>
+      </c>
+      <c r="D93" s="3">
+        <v>8</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3</v>
+      </c>
+      <c r="F93" s="13">
+        <f t="shared" si="4"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>12</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="16">
+        <v>1020</v>
+      </c>
+      <c r="D94" s="3">
+        <v>9</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5</v>
+      </c>
+      <c r="F94" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>12</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="16">
+        <v>570</v>
+      </c>
+      <c r="D95" s="3">
+        <v>9</v>
+      </c>
+      <c r="E95" s="3">
+        <v>7</v>
+      </c>
+      <c r="F95" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="16">
+        <v>370</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4</v>
+      </c>
+      <c r="F96" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="16">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>12</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="16">
+        <v>270</v>
+      </c>
+      <c r="D98" s="3">
+        <v>9</v>
+      </c>
+      <c r="E98" s="3">
+        <v>10</v>
+      </c>
+      <c r="F98" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>12</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
+        <v>5</v>
+      </c>
+      <c r="E99" s="3">
+        <v>11</v>
+      </c>
+      <c r="F99" s="13">
+        <f t="shared" si="4"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>12</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="16">
+        <v>695</v>
+      </c>
+      <c r="D100" s="3">
+        <v>6</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4</v>
+      </c>
+      <c r="F100" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5124,10 +5476,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6423,7 +6775,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F91" si="4">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F99" si="4">IF(E58=0,0,(D58/E58))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G58" s="3">
@@ -7185,6 +7537,182 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>12</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="16">
+        <v>995</v>
+      </c>
+      <c r="D92" s="3">
+        <v>16</v>
+      </c>
+      <c r="E92" s="3">
+        <v>7</v>
+      </c>
+      <c r="F92" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="16">
+        <v>810</v>
+      </c>
+      <c r="D93" s="3">
+        <v>8</v>
+      </c>
+      <c r="E93" s="3">
+        <v>11</v>
+      </c>
+      <c r="F93" s="13">
+        <f t="shared" si="4"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>12</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="16">
+        <v>1355</v>
+      </c>
+      <c r="D94" s="3">
+        <v>20</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8</v>
+      </c>
+      <c r="F94" s="13">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>12</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="16">
+        <v>855</v>
+      </c>
+      <c r="D95" s="3">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3">
+        <v>12</v>
+      </c>
+      <c r="F95" s="13">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="16">
+        <v>125</v>
+      </c>
+      <c r="D96" s="3">
+        <v>5</v>
+      </c>
+      <c r="E96" s="3">
+        <v>7</v>
+      </c>
+      <c r="F96" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="16">
+        <v>155</v>
+      </c>
+      <c r="D97" s="3">
+        <v>9</v>
+      </c>
+      <c r="E97" s="3">
+        <v>11</v>
+      </c>
+      <c r="F97" s="13">
+        <f t="shared" si="4"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>12</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4</v>
+      </c>
+      <c r="E98" s="3">
+        <v>12</v>
+      </c>
+      <c r="F98" s="13">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>12</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="16">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
+        <v>5</v>
+      </c>
+      <c r="E99" s="3">
+        <v>14</v>
+      </c>
+      <c r="F99" s="13">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="G99" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7193,10 +7721,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8514,7 +9042,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F92" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F100" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G59" s="3">
@@ -9276,6 +9804,182 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="16">
+        <v>1495</v>
+      </c>
+      <c r="D93" s="3">
+        <v>18</v>
+      </c>
+      <c r="E93" s="3">
+        <v>9</v>
+      </c>
+      <c r="F93" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>12</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="16">
+        <v>1365</v>
+      </c>
+      <c r="D94" s="3">
+        <v>13</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8</v>
+      </c>
+      <c r="F94" s="13">
+        <f t="shared" si="4"/>
+        <v>1.625</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>12</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="16">
+        <v>1080</v>
+      </c>
+      <c r="D95" s="3">
+        <v>13</v>
+      </c>
+      <c r="E95" s="3">
+        <v>5</v>
+      </c>
+      <c r="F95" s="13">
+        <f t="shared" si="4"/>
+        <v>2.6</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="16">
+        <v>180</v>
+      </c>
+      <c r="D96" s="3">
+        <v>8</v>
+      </c>
+      <c r="E96" s="3">
+        <v>14</v>
+      </c>
+      <c r="F96" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="16">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>9</v>
+      </c>
+      <c r="F97" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>12</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D98" s="3">
+        <v>11</v>
+      </c>
+      <c r="E98" s="3">
+        <v>7</v>
+      </c>
+      <c r="F98" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>12</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
+        <v>5</v>
+      </c>
+      <c r="E99" s="3">
+        <v>14</v>
+      </c>
+      <c r="F99" s="13">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>12</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="16">
+        <v>395</v>
+      </c>
+      <c r="D100" s="3">
+        <v>7</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10</v>
+      </c>
+      <c r="F100" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="G100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9284,10 +9988,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10583,7 +11287,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F91" si="3">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F99" si="3">IF(E58=0,0,(D58/E58))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G58" s="3">
@@ -11345,6 +12049,182 @@
         <v>0.9375</v>
       </c>
       <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>12</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="16">
+        <v>1525</v>
+      </c>
+      <c r="D92" s="3">
+        <v>21</v>
+      </c>
+      <c r="E92" s="3">
+        <v>8</v>
+      </c>
+      <c r="F92" s="13">
+        <f t="shared" si="3"/>
+        <v>2.625</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="16">
+        <v>425</v>
+      </c>
+      <c r="D93" s="3">
+        <v>11</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+      <c r="F93" s="13">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>12</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="16">
+        <v>1345</v>
+      </c>
+      <c r="D94" s="3">
+        <v>14</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4</v>
+      </c>
+      <c r="F94" s="13">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>12</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="16">
+        <v>415</v>
+      </c>
+      <c r="D95" s="3">
+        <v>6</v>
+      </c>
+      <c r="E95" s="3">
+        <v>3</v>
+      </c>
+      <c r="F95" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="16">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="E96" s="3">
+        <v>9</v>
+      </c>
+      <c r="F96" s="13">
+        <f t="shared" si="3"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="16">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <v>6</v>
+      </c>
+      <c r="E97" s="3">
+        <v>10</v>
+      </c>
+      <c r="F97" s="13">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>12</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
+        <v>5</v>
+      </c>
+      <c r="E98" s="3">
+        <v>21</v>
+      </c>
+      <c r="F98" s="13">
+        <f t="shared" si="3"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>12</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="16">
+        <v>350</v>
+      </c>
+      <c r="D99" s="3">
+        <v>8</v>
+      </c>
+      <c r="E99" s="3">
+        <v>9</v>
+      </c>
+      <c r="F99" s="13">
+        <f t="shared" si="3"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G99" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11353,10 +12233,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13290,7 +14170,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" ref="F86:F91" si="8">IF(E86=0,0,(D86/E86))</f>
+        <f t="shared" ref="F86:F99" si="8">IF(E86=0,0,(D86/E86))</f>
         <v>1.625</v>
       </c>
       <c r="G86" s="3"/>
@@ -13404,6 +14284,182 @@
         <v>0.5</v>
       </c>
       <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>12</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="16">
+        <v>460</v>
+      </c>
+      <c r="D92" s="3">
+        <v>13</v>
+      </c>
+      <c r="E92" s="3">
+        <v>11</v>
+      </c>
+      <c r="F92" s="13">
+        <f t="shared" si="8"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="16">
+        <v>110</v>
+      </c>
+      <c r="D93" s="3">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3">
+        <v>14</v>
+      </c>
+      <c r="F93" s="13">
+        <f t="shared" si="8"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>12</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="16">
+        <v>980</v>
+      </c>
+      <c r="D94" s="3">
+        <v>14</v>
+      </c>
+      <c r="E94" s="3">
+        <v>14</v>
+      </c>
+      <c r="F94" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>12</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="16">
+        <v>3165</v>
+      </c>
+      <c r="D95" s="3">
+        <v>23</v>
+      </c>
+      <c r="E95" s="3">
+        <v>4</v>
+      </c>
+      <c r="F95" s="13">
+        <f t="shared" si="8"/>
+        <v>5.75</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="16">
+        <v>155</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3">
+        <v>9</v>
+      </c>
+      <c r="F96" s="13">
+        <f t="shared" si="8"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="16">
+        <v>690</v>
+      </c>
+      <c r="D97" s="3">
+        <v>6</v>
+      </c>
+      <c r="E97" s="3">
+        <v>7</v>
+      </c>
+      <c r="F97" s="13">
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>12</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16">
+        <v>975</v>
+      </c>
+      <c r="D98" s="3">
+        <v>9</v>
+      </c>
+      <c r="E98" s="3">
+        <v>8</v>
+      </c>
+      <c r="F98" s="13">
+        <f t="shared" si="8"/>
+        <v>1.125</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>12</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="16">
+        <v>620</v>
+      </c>
+      <c r="D99" s="3">
+        <v>9</v>
+      </c>
+      <c r="E99" s="3">
+        <v>7</v>
+      </c>
+      <c r="F99" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="G99" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A889728C-F56B-7C41-8A49-F443FEF953A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF87D528-85A2-3C4B-A6C7-F39EBBFD95AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" activeTab="2" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17700" activeTab="3" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -594,6 +594,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,25 +636,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,18 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -671,6 +656,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,16 +1006,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView showGridLines="0" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
@@ -3197,10 +3197,230 @@
         <v>11</v>
       </c>
       <c r="F97" s="13">
-        <f t="shared" ref="F97" si="10">IF(E97=0,0,(D97/E97))</f>
+        <f t="shared" ref="F97:F104" si="10">IF(E97=0,0,(D97/E97))</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>1225</v>
+      </c>
+      <c r="D98">
+        <v>21</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98" s="13">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>590</v>
+      </c>
+      <c r="D99">
+        <v>11</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99" s="13">
+        <f t="shared" si="10"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100">
+        <v>910</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100" s="13">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>175</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>9</v>
+      </c>
+      <c r="F101" s="13">
+        <f t="shared" si="10"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>235</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102" s="13">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>240</v>
+      </c>
+      <c r="D103">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>12</v>
+      </c>
+      <c r="F103" s="13">
+        <f t="shared" si="10"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>585</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>9</v>
+      </c>
+      <c r="F104" s="13">
+        <f t="shared" si="10"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>260</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>13</v>
+      </c>
+      <c r="F105" s="13">
+        <f t="shared" ref="F105" si="11">IF(E105=0,0,(D105/E105))</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="F106" s="13">
+        <f t="shared" ref="F106" si="12">IF(E106=0,0,(D106/E106))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" s="13">
+        <f t="shared" ref="F107" si="13">IF(E107=0,0,(D107/E107))</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3209,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4530,7 +4750,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F100" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F110" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.625</v>
       </c>
       <c r="G59" s="3">
@@ -5468,6 +5688,226 @@
         <v>1.5</v>
       </c>
       <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>1265</v>
+      </c>
+      <c r="D101">
+        <v>11</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" s="13">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>320</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103">
+        <v>785</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>7</v>
+      </c>
+      <c r="F103" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>385</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+      <c r="F104" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>95</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>7</v>
+      </c>
+      <c r="F105" s="13">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>1320</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="E106">
+        <v>7</v>
+      </c>
+      <c r="F106" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>830</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>9</v>
+      </c>
+      <c r="F107" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>680</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>150</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>215</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5476,10 +5916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6775,7 +7215,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F99" si="4">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F109" si="4">IF(E58=0,0,(D58/E58))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G58" s="3">
@@ -7713,6 +8153,226 @@
         <v>0.35714285714285715</v>
       </c>
       <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>410</v>
+      </c>
+      <c r="D100">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>520</v>
+      </c>
+      <c r="D101">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102">
+        <v>480</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+      <c r="F102" s="13">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>410</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>7</v>
+      </c>
+      <c r="F103" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>265</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>9</v>
+      </c>
+      <c r="F104" s="13">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>845</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>9</v>
+      </c>
+      <c r="F105" s="13">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>1165</v>
+      </c>
+      <c r="D106">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="F106" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1035</v>
+      </c>
+      <c r="D107">
+        <v>11</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" s="13">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>12</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>9</v>
+      </c>
+      <c r="F109" s="13">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7721,10 +8381,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9042,7 +9702,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F100" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F109" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G59" s="3">
@@ -9980,6 +10640,204 @@
         <v>0.7</v>
       </c>
       <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>790</v>
+      </c>
+      <c r="D101">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>625</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103">
+        <v>540</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>8</v>
+      </c>
+      <c r="F103" s="13">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>11</v>
+      </c>
+      <c r="F104" s="13">
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>950</v>
+      </c>
+      <c r="D105">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>7</v>
+      </c>
+      <c r="F106" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>415</v>
+      </c>
+      <c r="D107">
+        <v>13</v>
+      </c>
+      <c r="E107">
+        <v>16</v>
+      </c>
+      <c r="F107" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8125</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>605</v>
+      </c>
+      <c r="D108">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>9</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>770</v>
+      </c>
+      <c r="D109">
+        <v>13</v>
+      </c>
+      <c r="E109">
+        <v>8</v>
+      </c>
+      <c r="F109" s="13">
+        <f t="shared" si="4"/>
+        <v>1.625</v>
+      </c>
+      <c r="G109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9988,10 +10846,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11287,7 +12145,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F99" si="3">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F109" si="3">IF(E58=0,0,(D58/E58))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G58" s="3">
@@ -12225,6 +13083,226 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1110</v>
+      </c>
+      <c r="D100">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100" s="13">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>915</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>9</v>
+      </c>
+      <c r="F101" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102">
+        <v>665</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+      <c r="F102" s="13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>715</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>11</v>
+      </c>
+      <c r="F103" s="13">
+        <f t="shared" si="3"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>15</v>
+      </c>
+      <c r="F104" s="13">
+        <f t="shared" si="3"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>1105</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>11</v>
+      </c>
+      <c r="F105" s="13">
+        <f t="shared" si="3"/>
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>605</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106" s="13">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>455</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107" s="13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>535</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="3"/>
+        <v>1.125</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>225</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>12</v>
+      </c>
+      <c r="F109" s="13">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="G109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12233,10 +13311,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100:E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14170,7 +15248,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" ref="F86:F99" si="8">IF(E86=0,0,(D86/E86))</f>
+        <f t="shared" ref="F86:F109" si="8">IF(E86=0,0,(D86/E86))</f>
         <v>1.625</v>
       </c>
       <c r="G86" s="3"/>
@@ -14460,6 +15538,226 @@
         <v>1.2857142857142858</v>
       </c>
       <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1420</v>
+      </c>
+      <c r="D100">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100" s="13">
+        <f t="shared" si="8"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>1195</v>
+      </c>
+      <c r="D101">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101" s="13">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102">
+        <v>615</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>7</v>
+      </c>
+      <c r="F102" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>495</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>8</v>
+      </c>
+      <c r="F103" s="13">
+        <f t="shared" si="8"/>
+        <v>1.125</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>1115</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104" s="13">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>490</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>11</v>
+      </c>
+      <c r="F105" s="13">
+        <f t="shared" si="8"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>395</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>9</v>
+      </c>
+      <c r="F106" s="13">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>360</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>9</v>
+      </c>
+      <c r="F107" s="13">
+        <f t="shared" si="8"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>185</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>7</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
+      </c>
+      <c r="F109" s="13">
+        <f t="shared" si="8"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="G109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14503,130 +15801,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="66" t="s">
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="66" t="s">
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="66" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="66" t="s">
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69" t="s">
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="74" t="s">
         <v>14</v>
       </c>
       <c r="AC3" s="28"/>
-      <c r="AD3" s="64" t="s">
+      <c r="AD3" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="64" t="s">
+      <c r="AE3" s="69" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="29" t="s">
         <v>36</v>
       </c>
@@ -14699,10 +15997,10 @@
       <c r="AA4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="70"/>
+      <c r="AB4" s="75"/>
       <c r="AC4" s="31"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
       <c r="AF4" s="32"/>
       <c r="AG4" s="33" t="s">
         <v>26</v>
@@ -16175,69 +17473,69 @@
       <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="71" t="e">
+      <c r="D17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(D5:D15),D5:D15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71" t="e">
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(H5:H15),H5:H15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71" t="e">
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(L5:L15),L5:L15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71" t="e">
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(P5:P15),P5:P15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71" t="e">
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(T5:T15),T5:T15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71" t="e">
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(X5:X15),X5:X15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="64" t="s">
         <v>55</v>
       </c>
       <c r="J20" s="24" t="s">
@@ -16245,13 +17543,13 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="73"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="43" t="s">
@@ -16621,6 +17919,19 @@
     <sortCondition descending="1" ref="E22:E32"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="D1:AE1"/>
+    <mergeCell ref="D2:AE2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="X17:AA17"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
@@ -16634,19 +17945,6 @@
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="P17:S17"/>
     <mergeCell ref="T17:W17"/>
-    <mergeCell ref="D1:AE1"/>
-    <mergeCell ref="D2:AE2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16688,138 +17986,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="80" t="s">
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="80" t="s">
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="80" t="s">
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="80" t="s">
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="78" t="s">
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="77" t="s">
         <v>14</v>
       </c>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="78" t="s">
+      <c r="AE3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="78" t="s">
+      <c r="AF3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="83" t="s">
+      <c r="AH3" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B4" s="87"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="14" t="s">
         <v>36</v>
       </c>
@@ -16892,10 +18190,10 @@
       <c r="AB4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="79"/>
+      <c r="AC4" s="78"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="20" t="s">
         <v>26</v>
@@ -16911,7 +18209,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="79" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -17019,7 +18317,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="85"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -17125,7 +18423,7 @@
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="85"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -17231,7 +18529,7 @@
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="85"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -17337,7 +18635,7 @@
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="85"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -17443,7 +18741,7 @@
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="85"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -17549,7 +18847,7 @@
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="85"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -17655,7 +18953,7 @@
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
@@ -17761,7 +19059,7 @@
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
@@ -17867,7 +19165,7 @@
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="85"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -17973,7 +19271,7 @@
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="86"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
@@ -18116,7 +19414,7 @@
       <c r="AK16" s="21"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="79" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -18222,7 +19520,7 @@
       </c>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B18" s="85"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
@@ -18326,7 +19624,7 @@
       </c>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B19" s="85"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
@@ -18430,7 +19728,7 @@
       </c>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -18534,7 +19832,7 @@
       </c>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -18638,7 +19936,7 @@
       </c>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B22" s="85"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -18742,7 +20040,7 @@
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B23" s="85"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -18846,7 +20144,7 @@
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B24" s="85"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
@@ -18950,7 +20248,7 @@
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B25" s="85"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
@@ -19054,7 +20352,7 @@
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B26" s="85"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
@@ -19158,7 +20456,7 @@
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B27" s="86"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
@@ -19262,7 +20560,7 @@
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -19371,7 +20669,7 @@
       </c>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B30" s="85"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
@@ -19478,7 +20776,7 @@
       </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B31" s="85"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
@@ -19585,7 +20883,7 @@
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B32" s="85"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
@@ -19692,7 +20990,7 @@
       </c>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B33" s="85"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
@@ -19799,7 +21097,7 @@
       </c>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B34" s="85"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
@@ -19906,7 +21204,7 @@
       </c>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B35" s="85"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
@@ -20013,7 +21311,7 @@
       </c>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B36" s="85"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
@@ -20120,7 +21418,7 @@
       </c>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B37" s="85"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
@@ -20227,7 +21525,7 @@
       </c>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B38" s="85"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -20335,7 +21633,7 @@
       </c>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B39" s="86"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -20447,14 +21745,6 @@
     <sortCondition descending="1" ref="AK29:AK39"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="B17:B27"/>
     <mergeCell ref="E1:AF1"/>
     <mergeCell ref="E2:AF2"/>
     <mergeCell ref="C3:C4"/>
@@ -20465,6 +21755,14 @@
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B17:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF87D528-85A2-3C4B-A6C7-F39EBBFD95AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE917A9A-BB53-D343-B4A6-41F23F5F2EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17700" activeTab="3" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17700" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -487,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -672,6 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:G107"/>
+    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3417,10 +3418,186 @@
         <v>0</v>
       </c>
       <c r="F107" s="13">
-        <f t="shared" ref="F107" si="13">IF(E107=0,0,(D107/E107))</f>
+        <f t="shared" ref="F107:F115" si="13">IF(E107=0,0,(D107/E107))</f>
         <v>0</v>
       </c>
       <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="88">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>545</v>
+      </c>
+      <c r="D108">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="13"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="88">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>140</v>
+      </c>
+      <c r="D109">
+        <v>11</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
+      </c>
+      <c r="F109" s="13">
+        <f t="shared" si="13"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="88">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>300</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110" s="13">
+        <f t="shared" si="13"/>
+        <v>1.4</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="88">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>35</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111" s="13">
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="88">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>1240</v>
+      </c>
+      <c r="D112">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="13"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="88">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113">
+        <v>820</v>
+      </c>
+      <c r="D113">
+        <v>13</v>
+      </c>
+      <c r="E113">
+        <v>9</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="13"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="88">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>510</v>
+      </c>
+      <c r="D114">
+        <v>13</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="13"/>
+        <v>1.3</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="88">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>130</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="13"/>
+        <v>0.9</v>
+      </c>
+      <c r="G115" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3429,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101:E110"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4750,7 +4927,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F110" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F118" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.625</v>
       </c>
       <c r="G59" s="3">
@@ -5908,6 +6085,182 @@
         <v>0.5</v>
       </c>
       <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="88">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>995</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111" s="13">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="88">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>1005</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="88">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>235</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="88">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <v>13</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="4"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="88">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>1865</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="88">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116">
+        <v>1105</v>
+      </c>
+      <c r="D116">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="88">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>665</v>
+      </c>
+      <c r="D117">
+        <v>11</v>
+      </c>
+      <c r="E117">
+        <v>11</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="88">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>330</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="G118" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5916,10 +6269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7215,7 +7568,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F109" si="4">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F117" si="4">IF(E58=0,0,(D58/E58))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G58" s="3">
@@ -8373,6 +8726,182 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="88">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>585</v>
+      </c>
+      <c r="D110">
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>11</v>
+      </c>
+      <c r="F110" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="88">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>190</v>
+      </c>
+      <c r="D111">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="88">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>55</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="88">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="88">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>1650</v>
+      </c>
+      <c r="D114">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>9</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="88">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115">
+        <v>1010</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="4"/>
+        <v>1.875</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="88">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>765</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>9</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="88">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>40</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+      <c r="E117">
+        <v>13</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" si="4"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="G117" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8381,10 +8910,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9702,7 +10231,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F109" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F117" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G59" s="3">
@@ -10838,6 +11367,204 @@
         <v>1.625</v>
       </c>
       <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="88">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>1235</v>
+      </c>
+      <c r="D110">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>9</v>
+      </c>
+      <c r="F110" s="13">
+        <f t="shared" si="4"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="88">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>1635</v>
+      </c>
+      <c r="D111">
+        <v>15</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="88">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>300</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>9</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="88">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>795</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="88">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>11</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="88">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>295</v>
+      </c>
+      <c r="D115">
+        <v>14</v>
+      </c>
+      <c r="E115">
+        <v>15</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="4"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="88">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116">
+        <v>845</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>11</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" si="4"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="88">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>810</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>12</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="88">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>245</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" ref="F118" si="5">IF(E118=0,0,(D118/E118))</f>
+        <v>1</v>
+      </c>
+      <c r="G118" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10846,10 +11573,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12145,7 +12872,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F109" si="3">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F117" si="3">IF(E58=0,0,(D58/E58))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G58" s="3">
@@ -13303,6 +14030,182 @@
         <v>0.25</v>
       </c>
       <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="88">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>50</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>12</v>
+      </c>
+      <c r="F110" s="13">
+        <f t="shared" si="3"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="88">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>165</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111" s="13">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="88">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="3"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="88">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>7</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="88">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>1455</v>
+      </c>
+      <c r="D114">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="88">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115">
+        <v>1600</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="3"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="88">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>380</v>
+      </c>
+      <c r="D116">
+        <v>11</v>
+      </c>
+      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" si="3"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="88">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>895</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G117" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13311,10 +14214,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100:E109"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15248,7 +16151,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" ref="F86:F109" si="8">IF(E86=0,0,(D86/E86))</f>
+        <f t="shared" ref="F86:F117" si="8">IF(E86=0,0,(D86/E86))</f>
         <v>1.625</v>
       </c>
       <c r="G86" s="3"/>
@@ -15758,6 +16661,182 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="88">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>575</v>
+      </c>
+      <c r="D110">
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>13</v>
+      </c>
+      <c r="F110" s="13">
+        <f t="shared" si="8"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="88">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>330</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <v>7</v>
+      </c>
+      <c r="F111" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="88">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>550</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="88">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="88">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>545</v>
+      </c>
+      <c r="D114">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <v>9</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="88">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115">
+        <v>755</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="88">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>145</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="88">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>405</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G117" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE917A9A-BB53-D343-B4A6-41F23F5F2EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C935D3-3293-2840-AF99-F571816492AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17700" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17680" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Acumulado" sheetId="3" r:id="rId7"/>
     <sheet name="Detalle" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="66">
   <si>
     <t>Pipe</t>
   </si>
@@ -237,6 +238,9 @@
   </si>
   <si>
     <t>Partida Ganada</t>
+  </si>
+  <si>
+    <t>Jaoko</t>
   </si>
 </sst>
 </file>
@@ -1007,16 +1011,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView showGridLines="0" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
@@ -3208,20 +3212,20 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>1225</v>
+        <v>1270</v>
       </c>
       <c r="D98">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F98" s="13">
         <f t="shared" si="10"/>
-        <v>3.5</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="G98" s="3"/>
     </row>
@@ -3230,20 +3234,20 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>590</v>
+        <v>415</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F99" s="13">
         <f t="shared" si="10"/>
-        <v>1.5714285714285714</v>
+        <v>1.0769230769230769</v>
       </c>
       <c r="G99" s="3"/>
     </row>
@@ -3252,20 +3256,20 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F100" s="13">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3"/>
     </row>
@@ -3277,17 +3281,17 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>175</v>
+        <v>535</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F101" s="13">
         <f t="shared" si="10"/>
-        <v>0.77777777777777779</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G101" s="3"/>
     </row>
@@ -3296,20 +3300,20 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F102" s="13">
         <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G102" s="3"/>
     </row>
@@ -3318,20 +3322,20 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103">
-        <v>240</v>
+        <v>560</v>
       </c>
       <c r="D103">
         <v>13</v>
       </c>
       <c r="E103">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F103" s="13">
         <f t="shared" si="10"/>
-        <v>1.0833333333333333</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="G103" s="3"/>
     </row>
@@ -3340,20 +3344,20 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>585</v>
+        <v>240</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" s="13">
         <f t="shared" si="10"/>
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
       <c r="G104" s="3"/>
     </row>
@@ -3362,20 +3366,20 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E105">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F105" s="13">
-        <f t="shared" ref="F105" si="11">IF(E105=0,0,(D105/E105))</f>
-        <v>0.38461538461538464</v>
+        <f t="shared" ref="F105:F113" si="11">IF(E105=0,0,(D105/E105))</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -3384,220 +3388,366 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E106">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F106" s="13">
         <f t="shared" ref="F106" si="12">IF(E106=0,0,(D106/E106))</f>
-        <v>0.27272727272727271</v>
+        <v>1.375</v>
       </c>
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F107" s="13">
-        <f t="shared" ref="F107:F115" si="13">IF(E107=0,0,(D107/E107))</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2.4444444444444446</v>
       </c>
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="88">
+      <c r="A108" s="3">
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>545</v>
+        <v>995</v>
       </c>
       <c r="D108">
         <v>12</v>
       </c>
       <c r="E108">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F108" s="13">
-        <f t="shared" si="13"/>
-        <v>0.92307692307692313</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="88">
+      <c r="A109" s="3">
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
         <v>11</v>
       </c>
-      <c r="E109">
-        <v>13</v>
-      </c>
       <c r="F109" s="13">
-        <f t="shared" si="13"/>
-        <v>0.84615384615384615</v>
+        <f t="shared" si="11"/>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="88">
+      <c r="A110" s="3">
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>300</v>
+        <v>1225</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F110" s="13">
-        <f t="shared" si="13"/>
-        <v>1.4</v>
+        <f t="shared" si="11"/>
+        <v>1.5</v>
       </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="88">
+      <c r="A111" s="3">
         <v>14</v>
       </c>
       <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>115</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>17</v>
+      </c>
+      <c r="F111" s="13">
+        <f t="shared" si="11"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
         <v>3</v>
       </c>
-      <c r="C111">
-        <v>35</v>
-      </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111">
-        <v>9</v>
-      </c>
-      <c r="F111" s="13">
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="11"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>605</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="11"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114">
+        <v>195</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>16</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" ref="F114:F121" si="13">IF(E114=0,0,(D114/E114))</f>
+        <v>0.6875</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="88">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>1435</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>18</v>
+      </c>
+      <c r="F115" s="13">
         <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="88">
-        <v>14</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112">
-        <v>1240</v>
-      </c>
-      <c r="D112">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="88">
         <v>15</v>
       </c>
-      <c r="E112">
-        <v>7</v>
-      </c>
-      <c r="F112" s="13">
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116">
+        <v>635</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>17</v>
+      </c>
+      <c r="F116" s="13">
         <f t="shared" si="13"/>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="88">
-        <v>14</v>
-      </c>
-      <c r="B113" t="s">
-        <v>63</v>
-      </c>
-      <c r="C113">
-        <v>820</v>
-      </c>
-      <c r="D113">
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="88">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>500</v>
+      </c>
+      <c r="D117">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="88">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>610</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="13"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="88">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>245</v>
+      </c>
+      <c r="D119">
         <v>13</v>
       </c>
-      <c r="E113">
-        <v>9</v>
-      </c>
-      <c r="F113" s="13">
-        <f t="shared" si="13"/>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="88">
-        <v>14</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114">
-        <v>510</v>
-      </c>
-      <c r="D114">
-        <v>13</v>
-      </c>
-      <c r="E114">
+      <c r="E119">
         <v>10</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F119" s="13">
         <f t="shared" si="13"/>
         <v>1.3</v>
       </c>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="88">
-        <v>14</v>
-      </c>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115">
-        <v>130</v>
-      </c>
-      <c r="D115">
-        <v>9</v>
-      </c>
-      <c r="E115">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="88">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>245</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" s="13">
+        <f t="shared" si="13"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="88">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
         <v>10</v>
       </c>
-      <c r="F115" s="13">
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121" s="13">
         <f t="shared" si="13"/>
-        <v>0.9</v>
-      </c>
-      <c r="G115" s="3"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="88">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" ref="F122" si="14">IF(E122=0,0,(D122/E122))</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3606,10 +3756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4927,7 +5077,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F118" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F122" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.625</v>
       </c>
       <c r="G59" s="3">
@@ -5871,20 +6021,20 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101">
-        <v>1265</v>
+        <v>1450</v>
       </c>
       <c r="D101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F101" s="13">
         <f t="shared" si="4"/>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="G101" s="3"/>
     </row>
@@ -5893,20 +6043,20 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>320</v>
+        <v>1240</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" s="13">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>1.4545454545454546</v>
       </c>
       <c r="G102" s="3"/>
     </row>
@@ -5915,20 +6065,20 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>785</v>
+        <v>15</v>
       </c>
       <c r="D103">
         <v>5</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F103" s="13">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="G103" s="3"/>
     </row>
@@ -5940,17 +6090,17 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>385</v>
+        <v>290</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F104" s="13">
         <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
+        <v>0.9</v>
       </c>
       <c r="G104" s="3"/>
     </row>
@@ -5959,20 +6109,20 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F105" s="13">
         <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -5981,20 +6131,20 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106">
-        <v>1320</v>
+        <v>270</v>
       </c>
       <c r="D106">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F106" s="13">
         <f t="shared" si="4"/>
-        <v>1.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="G106" s="3"/>
     </row>
@@ -6003,20 +6153,20 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>830</v>
+        <v>15</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F107" s="13">
         <f t="shared" si="4"/>
-        <v>1.1111111111111112</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G107" s="3"/>
     </row>
@@ -6025,20 +6175,20 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F108" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G108" s="3"/>
     </row>
@@ -6047,220 +6197,345 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C109">
-        <v>150</v>
+        <v>1850</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E109">
         <v>5</v>
       </c>
       <c r="F109" s="13">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F110" s="13">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="88">
+      <c r="A111" s="3">
         <v>14</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111">
-        <v>995</v>
+        <v>865</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F111" s="13">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="88">
+      <c r="A112" s="3">
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>1005</v>
+        <v>65</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F112" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="88">
+      <c r="A113" s="3">
         <v>14</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113">
-        <v>235</v>
+        <v>1765</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F113" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="88">
+      <c r="A114" s="3">
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114" s="13">
         <f t="shared" si="4"/>
-        <v>0.61538461538461542</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="88">
+      <c r="A115" s="3">
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>1865</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F115" s="13">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="88">
+      <c r="A116" s="3">
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>1105</v>
+        <v>350</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" si="4"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="88">
+      <c r="A117" s="3">
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C117">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="D117">
         <v>11</v>
       </c>
       <c r="E117">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="88">
-        <v>14</v>
+      <c r="A118">
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>330</v>
+        <v>1300</v>
       </c>
       <c r="D118">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F118" s="13">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119">
+        <v>1935</v>
+      </c>
+      <c r="D119">
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <v>15</v>
+      </c>
+      <c r="F119" s="13">
+        <f t="shared" si="4"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>920</v>
+      </c>
+      <c r="D120">
+        <v>8</v>
+      </c>
+      <c r="E120">
+        <v>8</v>
+      </c>
+      <c r="F120" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121">
+        <v>150</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>970</v>
+      </c>
+      <c r="D122">
+        <v>7</v>
+      </c>
+      <c r="E122">
+        <v>16</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" si="4"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>115</v>
+      </c>
+      <c r="D123">
+        <v>15</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" ref="F123:F124" si="5">IF(E123=0,0,(D123/E123))</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" s="13">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6269,10 +6544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7568,7 +7843,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F117" si="4">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F116" si="4">IF(E58=0,0,(D58/E58))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G58" s="3">
@@ -8512,20 +8787,20 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>410</v>
+        <v>765</v>
       </c>
       <c r="D100">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F100" s="13">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1.3076923076923077</v>
       </c>
       <c r="G100" s="3"/>
     </row>
@@ -8534,20 +8809,20 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>520</v>
+        <v>670</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F101" s="13">
         <f t="shared" si="4"/>
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="G101" s="3"/>
     </row>
@@ -8556,20 +8831,20 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>480</v>
+        <v>205</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E102">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F102" s="13">
         <f t="shared" si="4"/>
-        <v>0.88888888888888884</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="G102" s="3"/>
     </row>
@@ -8581,17 +8856,17 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>410</v>
+        <v>5</v>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F103" s="13">
         <f t="shared" si="4"/>
-        <v>1.1428571428571428</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G103" s="3"/>
     </row>
@@ -8600,20 +8875,20 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>265</v>
+        <v>860</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F104" s="13">
         <f t="shared" si="4"/>
-        <v>0.88888888888888884</v>
+        <v>2</v>
       </c>
       <c r="G104" s="3"/>
     </row>
@@ -8622,20 +8897,20 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>845</v>
+        <v>80</v>
       </c>
       <c r="D105">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F105" s="13">
         <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -8644,20 +8919,20 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>1165</v>
+        <v>105</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F106" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="G106" s="3"/>
     </row>
@@ -8666,20 +8941,20 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>1035</v>
+        <v>905</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E107">
         <v>4</v>
       </c>
       <c r="F107" s="13">
         <f t="shared" si="4"/>
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="G107" s="3"/>
     </row>
@@ -8688,220 +8963,378 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F108" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="D109">
+        <v>14</v>
+      </c>
+      <c r="E109">
         <v>3</v>
-      </c>
-      <c r="E109">
-        <v>9</v>
       </c>
       <c r="F109" s="13">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="88">
+      <c r="A110" s="3">
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110">
-        <v>585</v>
+        <v>965</v>
       </c>
       <c r="D110">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E110">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F110" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="88">
+      <c r="A111" s="3">
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E111">
         <v>10</v>
       </c>
       <c r="F111" s="13">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="88">
+      <c r="A112" s="3">
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>55</v>
+        <v>485</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F112" s="13">
         <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
+        <v>1</v>
       </c>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="88">
+      <c r="A113" s="3">
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D113">
         <v>7</v>
       </c>
       <c r="E113">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F113" s="13">
         <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
+        <v>3.5</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="88">
+      <c r="A114" s="3">
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>1650</v>
+        <v>215</v>
       </c>
       <c r="D114">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F114" s="13">
         <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="88">
+      <c r="A115" s="3">
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>1010</v>
+        <v>185</v>
       </c>
       <c r="D115">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F115" s="13">
         <f t="shared" si="4"/>
-        <v>1.875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="88">
+      <c r="A116" s="3">
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C116">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" si="4"/>
-        <v>1.4444444444444444</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="88">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>870</v>
+      </c>
+      <c r="D117">
         <v>14</v>
       </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117">
-        <v>40</v>
-      </c>
-      <c r="D117">
-        <v>7</v>
-      </c>
       <c r="E117">
-        <v>13</v>
-      </c>
-      <c r="F117" s="13">
-        <f t="shared" si="4"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="G117" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F117">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="88">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118">
+        <v>780</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="88">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>435</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>9</v>
+      </c>
+      <c r="F119">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="88">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>14</v>
+      </c>
+      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="88">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>970</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>16</v>
+      </c>
+      <c r="F121">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="88">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>755</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="88">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>75</v>
+      </c>
+      <c r="D123">
+        <v>8</v>
+      </c>
+      <c r="E123">
+        <v>11</v>
+      </c>
+      <c r="F123">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="88">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="88">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>35</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8910,10 +9343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10231,7 +10664,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" ref="F59:F117" si="4">IF(E59=0,0,(D59/E59))</f>
+        <f t="shared" ref="F59:F122" si="4">IF(E59=0,0,(D59/E59))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G59" s="3">
@@ -11175,20 +11608,20 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101">
-        <v>790</v>
+        <v>1205</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F101" s="13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="G101" s="3"/>
     </row>
@@ -11197,20 +11630,20 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>625</v>
+        <v>1845</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F102" s="13">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="G102" s="3"/>
     </row>
@@ -11219,20 +11652,20 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F103" s="13">
         <f t="shared" si="4"/>
-        <v>1.125</v>
+        <v>0.625</v>
       </c>
       <c r="G103" s="3"/>
     </row>
@@ -11244,17 +11677,17 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E104">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F104" s="13">
         <f t="shared" si="4"/>
-        <v>0.36363636363636365</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G104" s="3"/>
     </row>
@@ -11263,20 +11696,20 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>950</v>
+        <v>455</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F105" s="13">
         <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -11285,20 +11718,20 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E106">
         <v>7</v>
       </c>
       <c r="F106" s="13">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="G106" s="3"/>
     </row>
@@ -11307,20 +11740,20 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="D107">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F107" s="13">
         <f t="shared" si="4"/>
-        <v>0.8125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G107" s="3"/>
     </row>
@@ -11329,20 +11762,20 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>605</v>
+        <v>355</v>
       </c>
       <c r="D108">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F108" s="13">
         <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="G108" s="3"/>
     </row>
@@ -11351,220 +11784,387 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C109">
-        <v>770</v>
+        <v>570</v>
       </c>
       <c r="D109">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F109" s="13">
         <f t="shared" si="4"/>
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="88">
+      <c r="A110" s="3">
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>1235</v>
+        <v>345</v>
       </c>
       <c r="D110">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F110" s="13">
         <f t="shared" si="4"/>
-        <v>1.7777777777777777</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="88">
+      <c r="A111" s="3">
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>1635</v>
+        <v>1535</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F111" s="13">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="88">
+      <c r="A112" s="3">
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>300</v>
+        <v>555</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F112" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="88">
+      <c r="A113" s="3">
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>795</v>
+        <v>1680</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F113" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="88">
+      <c r="A114" s="3">
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" s="13">
         <f t="shared" si="4"/>
-        <v>0.36363636363636365</v>
+        <v>0.25</v>
       </c>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="88">
+      <c r="A115" s="3">
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F115" s="13">
         <f t="shared" si="4"/>
-        <v>0.93333333333333335</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="88">
+      <c r="A116" s="3">
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>845</v>
+        <v>455</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" si="4"/>
-        <v>0.90909090909090906</v>
+        <v>1</v>
       </c>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="88">
+      <c r="A117" s="3">
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C117">
-        <v>810</v>
+        <v>1275</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E117">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>1.6</v>
       </c>
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="88">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>575</v>
+      </c>
+      <c r="D118">
+        <v>21</v>
+      </c>
+      <c r="E118">
+        <v>22</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="4"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="88">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119">
+        <v>910</v>
+      </c>
+      <c r="D119">
+        <v>11</v>
+      </c>
+      <c r="E119">
+        <v>15</v>
+      </c>
+      <c r="F119" s="13">
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="88">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>235</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="88">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>115</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="88">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>870</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>19</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" si="4"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="88">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>1860</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
         <v>14</v>
       </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118">
-        <v>245</v>
-      </c>
-      <c r="D118">
-        <v>6</v>
-      </c>
-      <c r="E118">
-        <v>6</v>
-      </c>
-      <c r="F118" s="13">
-        <f t="shared" ref="F118" si="5">IF(E118=0,0,(D118/E118))</f>
-        <v>1</v>
-      </c>
-      <c r="G118" s="3"/>
+      <c r="F123" s="13">
+        <f t="shared" ref="F123:F126" si="5">IF(E123=0,0,(D123/E123))</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="88">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>360</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+      <c r="F124" s="13">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="88">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125" s="13">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="88">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11573,10 +12173,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12872,7 +13472,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F117" si="3">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F121" si="3">IF(E58=0,0,(D58/E58))</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G58" s="3">
@@ -13816,20 +14416,20 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>1110</v>
+        <v>1765</v>
       </c>
       <c r="D100">
         <v>16</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F100" s="13">
         <f t="shared" si="3"/>
-        <v>2.6666666666666665</v>
+        <v>3.2</v>
       </c>
       <c r="G100" s="3"/>
     </row>
@@ -13838,20 +14438,20 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>915</v>
+        <v>260</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F101" s="13">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112</v>
+        <v>2.5</v>
       </c>
       <c r="G101" s="3"/>
     </row>
@@ -13860,20 +14460,20 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F102" s="13">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G102" s="3"/>
     </row>
@@ -13885,17 +14485,17 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>715</v>
+        <v>80</v>
       </c>
       <c r="D103">
         <v>7</v>
       </c>
       <c r="E103">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F103" s="13">
         <f t="shared" si="3"/>
-        <v>0.63636363636363635</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G103" s="3"/>
     </row>
@@ -13904,20 +14504,20 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E104">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F104" s="13">
         <f t="shared" si="3"/>
-        <v>0.46666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="G104" s="3"/>
     </row>
@@ -13926,20 +14526,20 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>1105</v>
+        <v>260</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F105" s="13">
         <f t="shared" si="3"/>
-        <v>1.6363636363636365</v>
+        <v>4</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -13948,20 +14548,20 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E106">
         <v>8</v>
       </c>
       <c r="F106" s="13">
         <f t="shared" si="3"/>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G106" s="3"/>
     </row>
@@ -13970,20 +14570,20 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F107" s="13">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G107" s="3"/>
     </row>
@@ -13992,220 +14592,366 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108">
+        <v>90</v>
+      </c>
+      <c r="D108">
         <v>3</v>
       </c>
-      <c r="C108">
-        <v>535</v>
-      </c>
-      <c r="D108">
-        <v>9</v>
-      </c>
       <c r="E108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108" s="13">
         <f t="shared" si="3"/>
-        <v>1.125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>225</v>
+        <v>1270</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F109" s="13">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="88">
+      <c r="A110" s="3">
         <v>14</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110">
-        <v>50</v>
+        <v>585</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F110" s="13">
         <f t="shared" si="3"/>
-        <v>0.58333333333333337</v>
+        <v>0.9</v>
       </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="88">
+      <c r="A111" s="3">
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F111" s="13">
         <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="88">
+      <c r="A112" s="3">
         <v>14</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1395</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>11</v>
       </c>
       <c r="F112" s="13">
         <f t="shared" si="3"/>
-        <v>0.45454545454545453</v>
+        <v>1.6363636363636365</v>
       </c>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="88">
+      <c r="A113" s="3">
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E113">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F113" s="13">
         <f t="shared" si="3"/>
-        <v>0.2857142857142857</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="88">
+      <c r="A114" s="3">
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>1455</v>
+        <v>95</v>
       </c>
       <c r="D114">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F114" s="13">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="88">
+      <c r="A115" s="3">
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>1600</v>
+        <v>135</v>
       </c>
       <c r="D115">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F115" s="13">
         <f t="shared" si="3"/>
-        <v>2.1428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="88">
+      <c r="A116" s="3">
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C116">
-        <v>380</v>
+        <v>895</v>
       </c>
       <c r="D116">
         <v>11</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C117">
-        <v>895</v>
+        <v>1235</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G117" s="3"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="88">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>1095</v>
+      </c>
+      <c r="D118">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>17</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="3"/>
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="88">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>350</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>9</v>
+      </c>
+      <c r="F119" s="13">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="88">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120">
+        <v>40</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="88">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>960</v>
+      </c>
+      <c r="D121">
+        <v>14</v>
+      </c>
+      <c r="E121">
+        <v>19</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="3"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="88">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>1260</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>18</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" ref="F122:F124" si="4">IF(E122=0,0,(D122/E122))</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="88">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>150</v>
+      </c>
+      <c r="D123">
+        <v>13</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" si="4"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="88">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>45</v>
+      </c>
+      <c r="D124">
+        <v>12</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124" s="13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14214,10 +14960,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16151,7 +16897,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" ref="F86:F117" si="8">IF(E86=0,0,(D86/E86))</f>
+        <f t="shared" ref="F86:F125" si="8">IF(E86=0,0,(D86/E86))</f>
         <v>1.625</v>
       </c>
       <c r="G86" s="3"/>
@@ -16447,20 +17193,20 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>1420</v>
+        <v>955</v>
       </c>
       <c r="D100">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F100" s="13">
         <f t="shared" si="8"/>
-        <v>2.1428571428571428</v>
+        <v>1.8</v>
       </c>
       <c r="G100" s="3"/>
     </row>
@@ -16469,20 +17215,20 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>1195</v>
+        <v>515</v>
       </c>
       <c r="D101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F101" s="13">
         <f t="shared" si="8"/>
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="G101" s="3"/>
     </row>
@@ -16491,20 +17237,20 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>615</v>
+        <v>535</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F102" s="13">
         <f t="shared" si="8"/>
-        <v>1.2857142857142858</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G102" s="3"/>
     </row>
@@ -16516,17 +17262,17 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>495</v>
+        <v>965</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E103">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F103" s="13">
         <f t="shared" si="8"/>
-        <v>1.125</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G103" s="3"/>
     </row>
@@ -16535,20 +17281,20 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>1115</v>
+        <v>895</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F104" s="13">
         <f t="shared" si="8"/>
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="G104" s="3"/>
     </row>
@@ -16557,20 +17303,20 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>490</v>
+        <v>425</v>
       </c>
       <c r="D105">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F105" s="13">
         <f t="shared" si="8"/>
-        <v>0.81818181818181823</v>
+        <v>0.875</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -16579,20 +17325,20 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F106" s="13">
         <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G106" s="3"/>
     </row>
@@ -16601,20 +17347,20 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>360</v>
+        <v>1345</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F107" s="13">
         <f t="shared" si="8"/>
-        <v>0.77777777777777779</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G107" s="3"/>
     </row>
@@ -16623,16 +17369,16 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C108">
-        <v>185</v>
+        <v>675</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F108" s="13">
         <f t="shared" si="8"/>
@@ -16642,201 +17388,368 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E109">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F109" s="13">
         <f t="shared" si="8"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.75</v>
       </c>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="88">
+      <c r="A110" s="3">
         <v>14</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110">
-        <v>575</v>
+        <v>1155</v>
       </c>
       <c r="D110">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E110">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F110" s="13">
         <f t="shared" si="8"/>
-        <v>0.84615384615384615</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="88">
+      <c r="A111" s="3">
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>330</v>
+        <v>1425</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F111" s="13">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="88">
+      <c r="A112" s="3">
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F112" s="13">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="88">
+      <c r="A113" s="3">
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>795</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F113" s="13">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="88">
+      <c r="A114" s="3">
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F114" s="13">
         <f t="shared" si="8"/>
-        <v>0.88888888888888884</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="88">
+      <c r="A115" s="3">
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E115">
         <v>6</v>
       </c>
       <c r="F115" s="13">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="88">
+      <c r="A116" s="3">
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C116">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E116">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" si="8"/>
-        <v>1.2</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>405</v>
+        <v>985</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="G117" s="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="88">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118">
+        <v>610</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="88">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>790</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119" s="13">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="88">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>515</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120" s="13">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="88">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>995</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>7</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="8"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="88">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>520</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="88">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>90</v>
+      </c>
+      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="88">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>7</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124" s="13">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="88">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C935D3-3293-2840-AF99-F571816492AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560866CE-5830-A540-8F6E-56F76B41FA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17680" activeTab="5" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17680" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Partida Ganada</t>
-  </si>
-  <si>
-    <t>Jaoko</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3564,7 +3561,7 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C114">
         <v>195</v>
@@ -3759,7 +3756,7 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117:F124"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6373,7 +6370,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C117">
         <v>700</v>
@@ -6547,7 +6544,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9139,7 +9136,7 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -9346,7 +9343,7 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11960,7 +11957,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C117">
         <v>1275</v>
@@ -12176,7 +12173,7 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116:F124"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14768,7 +14765,7 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116">
         <v>895</v>
@@ -14962,8 +14959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17545,7 +17542,7 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116">
         <v>335</v>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560866CE-5830-A540-8F6E-56F76B41FA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DD02F9-E0D9-0745-B640-794255F31A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17680" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17680" activeTab="1" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -595,21 +595,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,7 +622,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,6 +648,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -657,21 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1008,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView showGridLines="0" topLeftCell="A98" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3573,13 +3573,13 @@
         <v>16</v>
       </c>
       <c r="F114" s="13">
-        <f t="shared" ref="F114:F121" si="13">IF(E114=0,0,(D114/E114))</f>
+        <f t="shared" ref="F114:F128" si="13">IF(E114=0,0,(D114/E114))</f>
         <v>0.6875</v>
       </c>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="88">
+      <c r="A115" s="9">
         <v>15</v>
       </c>
       <c r="B115" t="s">
@@ -3589,18 +3589,18 @@
         <v>1435</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F115" s="13">
         <f t="shared" si="13"/>
-        <v>0.33333333333333331</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="88">
+      <c r="A116" s="9">
         <v>15</v>
       </c>
       <c r="B116" t="s">
@@ -3610,18 +3610,18 @@
         <v>635</v>
       </c>
       <c r="D116">
+        <v>17</v>
+      </c>
+      <c r="E116">
         <v>10</v>
-      </c>
-      <c r="E116">
-        <v>17</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" si="13"/>
-        <v>0.58823529411764708</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="88">
+      <c r="A117" s="9">
         <v>15</v>
       </c>
       <c r="B117" t="s">
@@ -3631,18 +3631,18 @@
         <v>500</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="88">
+      <c r="A118" s="9">
         <v>15</v>
       </c>
       <c r="B118" t="s">
@@ -3652,18 +3652,18 @@
         <v>610</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F118" s="13">
         <f t="shared" si="13"/>
-        <v>1.3333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="88">
+      <c r="A119" s="9">
         <v>15</v>
       </c>
       <c r="B119" t="s">
@@ -3673,18 +3673,18 @@
         <v>245</v>
       </c>
       <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
         <v>13</v>
-      </c>
-      <c r="E119">
-        <v>10</v>
       </c>
       <c r="F119" s="13">
         <f t="shared" si="13"/>
-        <v>1.3</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="88">
+      <c r="A120" s="9">
         <v>15</v>
       </c>
       <c r="B120" t="s">
@@ -3694,18 +3694,18 @@
         <v>245</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F120" s="13">
         <f t="shared" si="13"/>
-        <v>1.3333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="88">
+      <c r="A121" s="9">
         <v>15</v>
       </c>
       <c r="B121" t="s">
@@ -3715,18 +3715,18 @@
         <v>5</v>
       </c>
       <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
         <v>10</v>
-      </c>
-      <c r="E121">
-        <v>3</v>
       </c>
       <c r="F121" s="13">
         <f t="shared" si="13"/>
-        <v>3.3333333333333335</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="88">
+      <c r="A122" s="9">
         <v>15</v>
       </c>
       <c r="B122" t="s">
@@ -3736,14 +3736,140 @@
         <v>0</v>
       </c>
       <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
         <v>10</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
       <c r="F122" s="13">
-        <f t="shared" ref="F122" si="14">IF(E122=0,0,(D122/E122))</f>
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="88">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>1355</v>
+      </c>
+      <c r="D123">
+        <v>25</v>
+      </c>
+      <c r="E123">
+        <v>15</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" si="13"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="88">
+        <v>16</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
         <v>10</v>
+      </c>
+      <c r="D124">
+        <v>14</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+      <c r="F124" s="13">
+        <f t="shared" si="13"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="88">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>765</v>
+      </c>
+      <c r="D125">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>7</v>
+      </c>
+      <c r="F125" s="13">
+        <f t="shared" si="13"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="88">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>15</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="13"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="88">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127" s="13">
+        <f t="shared" si="13"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="88">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128">
+        <v>1085</v>
+      </c>
+      <c r="D128">
+        <v>14</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128" s="13">
+        <f t="shared" si="13"/>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -3753,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6398,14 +6524,14 @@
         <v>1300</v>
       </c>
       <c r="D118">
+        <v>16</v>
+      </c>
+      <c r="E118">
         <v>12</v>
-      </c>
-      <c r="E118">
-        <v>16</v>
       </c>
       <c r="F118" s="13">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -6419,14 +6545,14 @@
         <v>1935</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E119">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F119" s="13">
         <f t="shared" si="4"/>
-        <v>0.53333333333333333</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -6461,14 +6587,14 @@
         <v>150</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F121" s="13">
         <f t="shared" si="4"/>
-        <v>1.8</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -6482,14 +6608,14 @@
         <v>970</v>
       </c>
       <c r="D122">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E122">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F122" s="13">
         <f t="shared" si="4"/>
-        <v>0.4375</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -6503,14 +6629,14 @@
         <v>115</v>
       </c>
       <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123">
         <v>15</v>
       </c>
-      <c r="E123">
-        <v>9</v>
-      </c>
       <c r="F123" s="13">
-        <f t="shared" ref="F123:F124" si="5">IF(E123=0,0,(D123/E123))</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="F123:F130" si="5">IF(E123=0,0,(D123/E123))</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -6524,14 +6650,140 @@
         <v>0</v>
       </c>
       <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
         <v>11</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
       </c>
       <c r="F124" s="13">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="88">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>385</v>
+      </c>
+      <c r="D125">
+        <v>7</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125" s="13">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="88">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>540</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="88">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>950</v>
+      </c>
+      <c r="D127">
+        <v>9</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127" s="13">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="88">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>385</v>
+      </c>
+      <c r="D128">
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>9</v>
+      </c>
+      <c r="F128" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="88">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>140</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="88">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130">
+        <v>510</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>8</v>
+      </c>
+      <c r="F130" s="13">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
@@ -6541,10 +6793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126:E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7840,7 +8092,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" ref="F58:F116" si="4">IF(E58=0,0,(D58/E58))</f>
+        <f t="shared" ref="F58:F121" si="4">IF(E58=0,0,(D58/E58))</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="G58" s="3">
@@ -9154,7 +9406,7 @@
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="88">
+      <c r="A117" s="9">
         <v>15</v>
       </c>
       <c r="B117" t="s">
@@ -9164,17 +9416,18 @@
         <v>870</v>
       </c>
       <c r="D117">
+        <v>12</v>
+      </c>
+      <c r="E117">
         <v>14</v>
       </c>
-      <c r="E117">
-        <v>12</v>
-      </c>
-      <c r="F117">
-        <v>870</v>
+      <c r="F117" s="13">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="88">
+      <c r="A118" s="9">
         <v>15</v>
       </c>
       <c r="B118" t="s">
@@ -9184,17 +9437,18 @@
         <v>780</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>8</v>
-      </c>
-      <c r="F118">
-        <v>780</v>
+        <v>9</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="88">
+      <c r="A119" s="9">
         <v>15</v>
       </c>
       <c r="B119" t="s">
@@ -9204,17 +9458,18 @@
         <v>435</v>
       </c>
       <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119">
         <v>10</v>
       </c>
-      <c r="E119">
-        <v>9</v>
-      </c>
-      <c r="F119">
-        <v>435</v>
+      <c r="F119" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="88">
+      <c r="A120" s="9">
         <v>15</v>
       </c>
       <c r="B120" t="s">
@@ -9224,17 +9479,18 @@
         <v>0</v>
       </c>
       <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
         <v>14</v>
       </c>
-      <c r="E120">
-        <v>6</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
+      <c r="F120" s="13">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="88">
+      <c r="A121" s="9">
         <v>15</v>
       </c>
       <c r="B121" t="s">
@@ -9244,17 +9500,18 @@
         <v>970</v>
       </c>
       <c r="D121">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>16</v>
-      </c>
-      <c r="F121">
-        <v>970</v>
+        <v>7</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="88">
+      <c r="A122" s="9">
         <v>15</v>
       </c>
       <c r="B122" t="s">
@@ -9264,17 +9521,18 @@
         <v>755</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E122">
-        <v>11</v>
-      </c>
-      <c r="F122">
-        <v>755</v>
+        <v>8</v>
+      </c>
+      <c r="F122" s="13">
+        <f t="shared" ref="F122:F131" si="5">IF(E122=0,0,(D122/E122))</f>
+        <v>1.375</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="88">
+      <c r="A123" s="9">
         <v>15</v>
       </c>
       <c r="B123" t="s">
@@ -9284,17 +9542,18 @@
         <v>75</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E123">
-        <v>11</v>
-      </c>
-      <c r="F123">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" si="5"/>
+        <v>1.375</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="88">
+      <c r="A124" s="9">
         <v>15</v>
       </c>
       <c r="B124" t="s">
@@ -9304,17 +9563,18 @@
         <v>0</v>
       </c>
       <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
         <v>11</v>
       </c>
-      <c r="E124">
-        <v>6</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
+      <c r="F124" s="13">
+        <f t="shared" si="5"/>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="88">
+      <c r="A125" s="9">
         <v>15</v>
       </c>
       <c r="B125" t="s">
@@ -9324,13 +9584,140 @@
         <v>35</v>
       </c>
       <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
         <v>1</v>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>35</v>
+      <c r="F125" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="88">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>185</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>13</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="5"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="88">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>430</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>7</v>
+      </c>
+      <c r="F127" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="88">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>500</v>
+      </c>
+      <c r="D128">
+        <v>13</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128" s="13">
+        <f t="shared" si="5"/>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="88">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>260</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129" s="13">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="88">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>50</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130" s="13">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="88">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131">
+        <v>1195</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>6</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9340,10 +9727,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="B127" sqref="B127:E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11975,7 +12362,7 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="88">
+      <c r="A118" s="9">
         <v>15</v>
       </c>
       <c r="B118" t="s">
@@ -11985,18 +12372,18 @@
         <v>575</v>
       </c>
       <c r="D118">
+        <v>22</v>
+      </c>
+      <c r="E118">
         <v>21</v>
-      </c>
-      <c r="E118">
-        <v>22</v>
       </c>
       <c r="F118" s="13">
         <f t="shared" si="4"/>
-        <v>0.95454545454545459</v>
+        <v>1.0476190476190477</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="88">
+      <c r="A119" s="9">
         <v>15</v>
       </c>
       <c r="B119" t="s">
@@ -12006,18 +12393,18 @@
         <v>910</v>
       </c>
       <c r="D119">
+        <v>15</v>
+      </c>
+      <c r="E119">
         <v>11</v>
-      </c>
-      <c r="E119">
-        <v>15</v>
       </c>
       <c r="F119" s="13">
         <f t="shared" si="4"/>
-        <v>0.73333333333333328</v>
+        <v>1.3636363636363635</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="88">
+      <c r="A120" s="9">
         <v>15</v>
       </c>
       <c r="B120" t="s">
@@ -12027,18 +12414,18 @@
         <v>235</v>
       </c>
       <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
         <v>11</v>
-      </c>
-      <c r="E120">
-        <v>5</v>
       </c>
       <c r="F120" s="13">
         <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="88">
+      <c r="A121" s="9">
         <v>15</v>
       </c>
       <c r="B121" t="s">
@@ -12048,18 +12435,18 @@
         <v>115</v>
       </c>
       <c r="D121">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F121" s="13">
         <f t="shared" si="4"/>
-        <v>1.4</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="88">
+      <c r="A122" s="9">
         <v>15</v>
       </c>
       <c r="B122" t="s">
@@ -12069,18 +12456,18 @@
         <v>870</v>
       </c>
       <c r="D122">
+        <v>19</v>
+      </c>
+      <c r="E122">
         <v>10</v>
-      </c>
-      <c r="E122">
-        <v>19</v>
       </c>
       <c r="F122" s="13">
         <f t="shared" si="4"/>
-        <v>0.52631578947368418</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="88">
+      <c r="A123" s="9">
         <v>15</v>
       </c>
       <c r="B123" t="s">
@@ -12090,18 +12477,18 @@
         <v>1860</v>
       </c>
       <c r="D123">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E123">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F123" s="13">
-        <f t="shared" ref="F123:F126" si="5">IF(E123=0,0,(D123/E123))</f>
-        <v>0.42857142857142855</v>
+        <f t="shared" ref="F123:F132" si="5">IF(E123=0,0,(D123/E123))</f>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="88">
+      <c r="A124" s="9">
         <v>15</v>
       </c>
       <c r="B124" t="s">
@@ -12111,18 +12498,18 @@
         <v>360</v>
       </c>
       <c r="D124">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E124">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F124" s="13">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="88">
+      <c r="A125" s="9">
         <v>15</v>
       </c>
       <c r="B125" t="s">
@@ -12132,18 +12519,18 @@
         <v>0</v>
       </c>
       <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
         <v>13</v>
-      </c>
-      <c r="E125">
-        <v>5</v>
       </c>
       <c r="F125" s="13">
         <f t="shared" si="5"/>
-        <v>2.6</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="88">
+      <c r="A126" s="9">
         <v>15</v>
       </c>
       <c r="B126" t="s">
@@ -12153,14 +12540,140 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F126" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="88">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>495</v>
+      </c>
+      <c r="D127">
+        <v>11</v>
+      </c>
+      <c r="E127">
+        <v>16</v>
+      </c>
+      <c r="F127" s="13">
+        <f t="shared" si="5"/>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="88">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>1805</v>
+      </c>
+      <c r="D128">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="F128" s="13">
+        <f t="shared" si="5"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="88">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>195</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129" s="13">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="88">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>14</v>
+      </c>
+      <c r="F130" s="13">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="88">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>830</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="88">
+        <v>16</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132">
+        <v>960</v>
+      </c>
+      <c r="D132">
+        <v>15</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="5"/>
+        <v>1.1538461538461537</v>
       </c>
     </row>
   </sheetData>
@@ -12170,10 +12683,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="B125" sqref="B125:E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14783,7 +15296,7 @@
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="88">
+      <c r="A117" s="9">
         <v>15</v>
       </c>
       <c r="B117" t="s">
@@ -14793,18 +15306,18 @@
         <v>1235</v>
       </c>
       <c r="D117">
+        <v>19</v>
+      </c>
+      <c r="E117">
         <v>12</v>
-      </c>
-      <c r="E117">
-        <v>19</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="3"/>
-        <v>0.63157894736842102</v>
+        <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="88">
+      <c r="A118" s="9">
         <v>15</v>
       </c>
       <c r="B118" t="s">
@@ -14814,18 +15327,18 @@
         <v>1095</v>
       </c>
       <c r="D118">
+        <v>17</v>
+      </c>
+      <c r="E118">
         <v>12</v>
-      </c>
-      <c r="E118">
-        <v>17</v>
       </c>
       <c r="F118" s="13">
         <f t="shared" si="3"/>
-        <v>0.70588235294117652</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="88">
+      <c r="A119" s="9">
         <v>15</v>
       </c>
       <c r="B119" t="s">
@@ -14835,18 +15348,18 @@
         <v>350</v>
       </c>
       <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119">
         <v>10</v>
-      </c>
-      <c r="E119">
-        <v>9</v>
       </c>
       <c r="F119" s="13">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="88">
+      <c r="A120" s="9">
         <v>15</v>
       </c>
       <c r="B120" t="s">
@@ -14856,18 +15369,18 @@
         <v>40</v>
       </c>
       <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
         <v>10</v>
-      </c>
-      <c r="E120">
-        <v>5</v>
       </c>
       <c r="F120" s="13">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="88">
+      <c r="A121" s="9">
         <v>15</v>
       </c>
       <c r="B121" t="s">
@@ -14877,18 +15390,18 @@
         <v>960</v>
       </c>
       <c r="D121">
+        <v>19</v>
+      </c>
+      <c r="E121">
         <v>14</v>
-      </c>
-      <c r="E121">
-        <v>19</v>
       </c>
       <c r="F121" s="13">
         <f t="shared" si="3"/>
-        <v>0.73684210526315785</v>
+        <v>1.3571428571428572</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="88">
+      <c r="A122" s="9">
         <v>15</v>
       </c>
       <c r="B122" t="s">
@@ -14898,18 +15411,18 @@
         <v>1260</v>
       </c>
       <c r="D122">
+        <v>18</v>
+      </c>
+      <c r="E122">
         <v>11</v>
       </c>
-      <c r="E122">
-        <v>18</v>
-      </c>
       <c r="F122" s="13">
-        <f t="shared" ref="F122:F124" si="4">IF(E122=0,0,(D122/E122))</f>
-        <v>0.61111111111111116</v>
+        <f t="shared" ref="F122:F130" si="4">IF(E122=0,0,(D122/E122))</f>
+        <v>1.6363636363636365</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="88">
+      <c r="A123" s="9">
         <v>15</v>
       </c>
       <c r="B123" t="s">
@@ -14919,18 +15432,18 @@
         <v>150</v>
       </c>
       <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
         <v>13</v>
-      </c>
-      <c r="E123">
-        <v>3</v>
       </c>
       <c r="F123" s="13">
         <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="88">
+      <c r="A124" s="9">
         <v>15</v>
       </c>
       <c r="B124" t="s">
@@ -14940,14 +15453,140 @@
         <v>45</v>
       </c>
       <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
         <v>12</v>
-      </c>
-      <c r="E124">
-        <v>3</v>
       </c>
       <c r="F124" s="13">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="88">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>1115</v>
+      </c>
+      <c r="D125">
+        <v>16</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125" s="13">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="88">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>12</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="88">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>590</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>9</v>
+      </c>
+      <c r="F127" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="88">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>300</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128" s="13">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="88">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+      <c r="E129">
+        <v>11</v>
+      </c>
+      <c r="F129" s="13">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="88">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130">
+        <v>1290</v>
+      </c>
+      <c r="D130">
+        <v>11</v>
+      </c>
+      <c r="E130">
+        <v>9</v>
+      </c>
+      <c r="F130" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2222222222222223</v>
       </c>
     </row>
   </sheetData>
@@ -14957,10 +15596,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16894,7 +17533,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" ref="F86:F125" si="8">IF(E86=0,0,(D86/E86))</f>
+        <f t="shared" ref="F86:F131" si="8">IF(E86=0,0,(D86/E86))</f>
         <v>1.625</v>
       </c>
       <c r="G86" s="3"/>
@@ -17560,7 +18199,7 @@
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="88">
+      <c r="A117" s="9">
         <v>15</v>
       </c>
       <c r="B117" t="s">
@@ -17570,18 +18209,18 @@
         <v>985</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="8"/>
-        <v>0.55555555555555558</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="88">
+      <c r="A118" s="9">
         <v>15</v>
       </c>
       <c r="B118" t="s">
@@ -17591,18 +18230,18 @@
         <v>610</v>
       </c>
       <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
         <v>10</v>
-      </c>
-      <c r="E118">
-        <v>8</v>
       </c>
       <c r="F118" s="13">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="88">
+      <c r="A119" s="9">
         <v>15</v>
       </c>
       <c r="B119" t="s">
@@ -17612,18 +18251,18 @@
         <v>790</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F119" s="13">
         <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="88">
+      <c r="A120" s="9">
         <v>15</v>
       </c>
       <c r="B120" t="s">
@@ -17633,18 +18272,18 @@
         <v>515</v>
       </c>
       <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
         <v>2</v>
-      </c>
-      <c r="E120">
-        <v>3</v>
       </c>
       <c r="F120" s="13">
         <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="88">
+      <c r="A121" s="9">
         <v>15</v>
       </c>
       <c r="B121" t="s">
@@ -17654,18 +18293,18 @@
         <v>995</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F121" s="13">
         <f t="shared" si="8"/>
-        <v>0.5714285714285714</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="88">
+      <c r="A122" s="9">
         <v>15</v>
       </c>
       <c r="B122" t="s">
@@ -17675,18 +18314,18 @@
         <v>520</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F122" s="13">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="88">
+      <c r="A123" s="9">
         <v>15</v>
       </c>
       <c r="B123" t="s">
@@ -17696,18 +18335,18 @@
         <v>90</v>
       </c>
       <c r="D123">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F123" s="13">
         <f t="shared" si="8"/>
-        <v>1.8</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="88">
+      <c r="A124" s="9">
         <v>15</v>
       </c>
       <c r="B124" t="s">
@@ -17717,18 +18356,18 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F124" s="13">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="88">
+      <c r="A125" s="9">
         <v>15</v>
       </c>
       <c r="B125" t="s">
@@ -17738,14 +18377,140 @@
         <v>25</v>
       </c>
       <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
         <v>1</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
       </c>
       <c r="F125" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="88">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>485</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>7</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="8"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="88">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>230</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="88">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>510</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="88">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>575</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>7</v>
+      </c>
+      <c r="F129" s="13">
+        <f t="shared" si="8"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="88">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>410</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="88">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131">
+        <v>710</v>
+      </c>
+      <c r="D131">
+        <v>8</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -17790,130 +18555,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="71" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="71" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="71" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="71" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="71" t="s">
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="74" t="s">
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="69" t="s">
         <v>14</v>
       </c>
       <c r="AC3" s="28"/>
-      <c r="AD3" s="69" t="s">
+      <c r="AD3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="69" t="s">
+      <c r="AE3" s="64" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="29" t="s">
         <v>36</v>
       </c>
@@ -17986,10 +18751,10 @@
       <c r="AA4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="75"/>
+      <c r="AB4" s="70"/>
       <c r="AC4" s="31"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
       <c r="AF4" s="32"/>
       <c r="AG4" s="33" t="s">
         <v>26</v>
@@ -19462,69 +20227,69 @@
       <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="62" t="e">
+      <c r="D17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(D5:D15),D5:D15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62" t="e">
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(H5:H15),H5:H15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62" t="e">
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(L5:L15),L5:L15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62" t="e">
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(P5:P15),P5:P15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62" t="e">
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(T5:T15),T5:T15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62" t="e">
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(X5:X15),X5:X15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="73" t="s">
         <v>55</v>
       </c>
       <c r="J20" s="24" t="s">
@@ -19532,13 +20297,13 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="43" t="s">
@@ -19908,6 +20673,19 @@
     <sortCondition descending="1" ref="E22:E32"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
     <mergeCell ref="D1:AE1"/>
     <mergeCell ref="D2:AE2"/>
     <mergeCell ref="B3:B4"/>
@@ -19921,19 +20699,6 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -19975,138 +20740,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="85" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="85" t="s">
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="85" t="s">
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="85" t="s">
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="85" t="s">
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="77" t="s">
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="78" t="s">
         <v>14</v>
       </c>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="77" t="s">
+      <c r="AE3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="77" t="s">
+      <c r="AF3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="76" t="s">
+      <c r="AH3" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B4" s="82"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="14" t="s">
         <v>36</v>
       </c>
@@ -20179,10 +20944,10 @@
       <c r="AB4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="78"/>
+      <c r="AC4" s="79"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="20" t="s">
         <v>26</v>
@@ -20198,7 +20963,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -20306,7 +21071,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="80"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -20412,7 +21177,7 @@
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="80"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -20518,7 +21283,7 @@
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="80"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -20624,7 +21389,7 @@
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="80"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -20730,7 +21495,7 @@
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="80"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -20836,7 +21601,7 @@
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -20942,7 +21707,7 @@
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="80"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
@@ -21048,7 +21813,7 @@
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="80"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
@@ -21154,7 +21919,7 @@
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="80"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -21260,7 +22025,7 @@
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="81"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
@@ -21403,7 +22168,7 @@
       <c r="AK16" s="21"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="84" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -21509,7 +22274,7 @@
       </c>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B18" s="80"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
@@ -21613,7 +22378,7 @@
       </c>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B19" s="80"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
@@ -21717,7 +22482,7 @@
       </c>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B20" s="80"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -21821,7 +22586,7 @@
       </c>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B21" s="80"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -21925,7 +22690,7 @@
       </c>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B22" s="80"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -22029,7 +22794,7 @@
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B23" s="80"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -22133,7 +22898,7 @@
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B24" s="80"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
@@ -22237,7 +23002,7 @@
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B25" s="80"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
@@ -22341,7 +23106,7 @@
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B26" s="80"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
@@ -22445,7 +23210,7 @@
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B27" s="81"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
@@ -22549,7 +23314,7 @@
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="84" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -22658,7 +23423,7 @@
       </c>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
@@ -22765,7 +23530,7 @@
       </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B31" s="80"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
@@ -22872,7 +23637,7 @@
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B32" s="80"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
@@ -22979,7 +23744,7 @@
       </c>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B33" s="80"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
@@ -23086,7 +23851,7 @@
       </c>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B34" s="80"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
@@ -23193,7 +23958,7 @@
       </c>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B35" s="80"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
@@ -23300,7 +24065,7 @@
       </c>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B36" s="80"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
@@ -23407,7 +24172,7 @@
       </c>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B37" s="80"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
@@ -23514,7 +24279,7 @@
       </c>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B38" s="80"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -23622,7 +24387,7 @@
       </c>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B39" s="81"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -23734,6 +24499,14 @@
     <sortCondition descending="1" ref="AK29:AK39"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B17:B27"/>
     <mergeCell ref="E1:AF1"/>
     <mergeCell ref="E2:AF2"/>
     <mergeCell ref="C3:C4"/>
@@ -23744,14 +24517,6 @@
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="B17:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
+++ b/Estadiscticas Campeonato interno Sniper Elite 6_ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asovino/Documents/Torneo sniper elite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DD02F9-E0D9-0745-B640-794255F31A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D542F-6A36-C745-9C7A-95D187FB74E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17680" activeTab="1" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17680" xr2:uid="{4EB38A51-5034-EC45-B2AB-457B688BA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Chateau" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="65">
   <si>
     <t>Pipe</t>
   </si>
@@ -595,6 +595,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,25 +637,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,18 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -672,6 +657,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1008,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8E53F-95D5-8A4E-BCD5-C095BDBDEE54}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A98" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123:E128"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3573,7 +3573,7 @@
         <v>16</v>
       </c>
       <c r="F114" s="13">
-        <f t="shared" ref="F114:F128" si="13">IF(E114=0,0,(D114/E114))</f>
+        <f t="shared" ref="F114:F134" si="13">IF(E114=0,0,(D114/E114))</f>
         <v>0.6875</v>
       </c>
       <c r="G114" s="3"/>
@@ -3747,7 +3747,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="88">
+      <c r="A123" s="9">
         <v>16</v>
       </c>
       <c r="B123" t="s">
@@ -3768,7 +3768,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="88">
+      <c r="A124" s="9">
         <v>16</v>
       </c>
       <c r="B124" t="s">
@@ -3789,7 +3789,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="88">
+      <c r="A125" s="9">
         <v>16</v>
       </c>
       <c r="B125" t="s">
@@ -3810,7 +3810,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="88">
+      <c r="A126" s="9">
         <v>16</v>
       </c>
       <c r="B126" t="s">
@@ -3831,7 +3831,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="88">
+      <c r="A127" s="9">
         <v>16</v>
       </c>
       <c r="B127" t="s">
@@ -3852,7 +3852,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="88">
+      <c r="A128" s="9">
         <v>16</v>
       </c>
       <c r="B128" t="s">
@@ -3870,6 +3870,132 @@
       <c r="F128" s="13">
         <f t="shared" si="13"/>
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="88">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>16</v>
+      </c>
+      <c r="F129" s="13">
+        <f t="shared" si="13"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="88">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>560</v>
+      </c>
+      <c r="D130">
+        <v>13</v>
+      </c>
+      <c r="E130">
+        <v>9</v>
+      </c>
+      <c r="F130" s="13">
+        <f t="shared" si="13"/>
+        <v>1.4444444444444444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="88">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>360</v>
+      </c>
+      <c r="D131">
+        <v>11</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" si="13"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="88">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>1150</v>
+      </c>
+      <c r="D132">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="13"/>
+        <v>1.4615384615384615</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="88">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>560</v>
+      </c>
+      <c r="D133">
+        <v>10</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="88">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134">
+        <v>2125</v>
+      </c>
+      <c r="D134">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>9</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="13"/>
+        <v>1.8888888888888888</v>
       </c>
     </row>
   </sheetData>
@@ -3879,10 +4005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E459-74FA-FC4D-8D30-631D3539FC66}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130:F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6635,7 +6761,7 @@
         <v>15</v>
       </c>
       <c r="F123" s="13">
-        <f t="shared" ref="F123:F130" si="5">IF(E123=0,0,(D123/E123))</f>
+        <f t="shared" ref="F123:F136" si="5">IF(E123=0,0,(D123/E123))</f>
         <v>0.6</v>
       </c>
     </row>
@@ -6661,7 +6787,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="88">
+      <c r="A125" s="9">
         <v>16</v>
       </c>
       <c r="B125" t="s">
@@ -6682,7 +6808,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="88">
+      <c r="A126" s="9">
         <v>16</v>
       </c>
       <c r="B126" t="s">
@@ -6703,7 +6829,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="88">
+      <c r="A127" s="9">
         <v>16</v>
       </c>
       <c r="B127" t="s">
@@ -6724,7 +6850,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="88">
+      <c r="A128" s="9">
         <v>16</v>
       </c>
       <c r="B128" t="s">
@@ -6745,7 +6871,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="88">
+      <c r="A129" s="9">
         <v>16</v>
       </c>
       <c r="B129" t="s">
@@ -6766,7 +6892,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="88">
+      <c r="A130" s="9">
         <v>16</v>
       </c>
       <c r="B130" t="s">
@@ -6784,6 +6910,132 @@
       <c r="F130" s="13">
         <f t="shared" si="5"/>
         <v>0.625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="88">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>330</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>6</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="88">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>900</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="88">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>570</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="88">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="88">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>250</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" s="13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="88">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136">
+        <v>460</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136" s="13">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6793,10 +7045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF05F13C-856F-6441-AC95-B2FF6DBE5CBD}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126:E131"/>
+      <selection activeCell="F131" sqref="F131:F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9527,7 +9779,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="13">
-        <f t="shared" ref="F122:F131" si="5">IF(E122=0,0,(D122/E122))</f>
+        <f t="shared" ref="F122:F137" si="5">IF(E122=0,0,(D122/E122))</f>
         <v>1.375</v>
       </c>
     </row>
@@ -9595,7 +9847,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="88">
+      <c r="A126" s="9">
         <v>16</v>
       </c>
       <c r="B126" t="s">
@@ -9616,7 +9868,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="88">
+      <c r="A127" s="9">
         <v>16</v>
       </c>
       <c r="B127" t="s">
@@ -9637,7 +9889,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="88">
+      <c r="A128" s="9">
         <v>16</v>
       </c>
       <c r="B128" t="s">
@@ -9658,7 +9910,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="88">
+      <c r="A129" s="9">
         <v>16</v>
       </c>
       <c r="B129" t="s">
@@ -9679,7 +9931,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="88">
+      <c r="A130" s="9">
         <v>16</v>
       </c>
       <c r="B130" t="s">
@@ -9700,7 +9952,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="88">
+      <c r="A131" s="9">
         <v>16</v>
       </c>
       <c r="B131" t="s">
@@ -9718,6 +9970,132 @@
       <c r="F131" s="13">
         <f t="shared" si="5"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="88">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>8</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="88">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="88">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>11</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="88">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>530</v>
+      </c>
+      <c r="D135">
+        <v>7</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135" s="13">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="88">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>360</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="88">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137">
+        <v>1850</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="F137" s="13">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -9727,10 +10105,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A91687B-840D-6E43-A6A1-B3DD60E50B39}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127:E132"/>
+      <selection activeCell="F132" sqref="F132:F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12483,7 +12861,7 @@
         <v>6</v>
       </c>
       <c r="F123" s="13">
-        <f t="shared" ref="F123:F132" si="5">IF(E123=0,0,(D123/E123))</f>
+        <f t="shared" ref="F123:F138" si="5">IF(E123=0,0,(D123/E123))</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -12551,7 +12929,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="88">
+      <c r="A127" s="9">
         <v>16</v>
       </c>
       <c r="B127" t="s">
@@ -12572,7 +12950,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="88">
+      <c r="A128" s="9">
         <v>16</v>
       </c>
       <c r="B128" t="s">
@@ -12593,7 +12971,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="88">
+      <c r="A129" s="9">
         <v>16</v>
       </c>
       <c r="B129" t="s">
@@ -12614,7 +12992,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="88">
+      <c r="A130" s="9">
         <v>16</v>
       </c>
       <c r="B130" t="s">
@@ -12635,7 +13013,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="88">
+      <c r="A131" s="9">
         <v>16</v>
       </c>
       <c r="B131" t="s">
@@ -12656,7 +13034,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="88">
+      <c r="A132" s="9">
         <v>16</v>
       </c>
       <c r="B132" t="s">
@@ -12674,6 +13052,132 @@
       <c r="F132" s="13">
         <f t="shared" si="5"/>
         <v>1.1538461538461537</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="88">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>20</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>14</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="88">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>365</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>7</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="5"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="88">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>655</v>
+      </c>
+      <c r="D135">
+        <v>12</v>
+      </c>
+      <c r="E135">
+        <v>15</v>
+      </c>
+      <c r="F135" s="13">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="88">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>1060</v>
+      </c>
+      <c r="D136">
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+      <c r="F136" s="13">
+        <f t="shared" si="5"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="88">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>365</v>
+      </c>
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>8</v>
+      </c>
+      <c r="F137" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="88">
+        <v>17</v>
+      </c>
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138">
+        <v>940</v>
+      </c>
+      <c r="D138">
+        <v>15</v>
+      </c>
+      <c r="E138">
+        <v>12</v>
+      </c>
+      <c r="F138" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -12683,10 +13187,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624F9B4B-1283-144F-A73F-6B1B47C9EF5A}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:E130"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130:F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15417,7 +15921,7 @@
         <v>11</v>
       </c>
       <c r="F122" s="13">
-        <f t="shared" ref="F122:F130" si="4">IF(E122=0,0,(D122/E122))</f>
+        <f t="shared" ref="F122:F136" si="4">IF(E122=0,0,(D122/E122))</f>
         <v>1.6363636363636365</v>
       </c>
     </row>
@@ -15464,7 +15968,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="88">
+      <c r="A125" s="9">
         <v>16</v>
       </c>
       <c r="B125" t="s">
@@ -15485,7 +15989,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="88">
+      <c r="A126" s="9">
         <v>16</v>
       </c>
       <c r="B126" t="s">
@@ -15506,7 +16010,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="88">
+      <c r="A127" s="9">
         <v>16</v>
       </c>
       <c r="B127" t="s">
@@ -15527,7 +16031,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="88">
+      <c r="A128" s="9">
         <v>16</v>
       </c>
       <c r="B128" t="s">
@@ -15548,7 +16052,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="88">
+      <c r="A129" s="9">
         <v>16</v>
       </c>
       <c r="B129" t="s">
@@ -15569,7 +16073,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="88">
+      <c r="A130" s="9">
         <v>16</v>
       </c>
       <c r="B130" t="s">
@@ -15587,6 +16091,132 @@
       <c r="F130" s="13">
         <f t="shared" si="4"/>
         <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="88">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>290</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="88">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>8</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="88">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>450</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="88">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>1005</v>
+      </c>
+      <c r="D134">
+        <v>14</v>
+      </c>
+      <c r="E134">
+        <v>7</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="88">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
+      <c r="F135" s="13">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="88">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136">
+        <v>330</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -15596,10 +16226,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD35F1-A123-A54B-AD25-C03A5A17BA82}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17533,7 +18163,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" ref="F86:F131" si="8">IF(E86=0,0,(D86/E86))</f>
+        <f t="shared" ref="F86:F137" si="8">IF(E86=0,0,(D86/E86))</f>
         <v>1.625</v>
       </c>
       <c r="G86" s="3"/>
@@ -18388,7 +19018,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="88">
+      <c r="A126" s="9">
         <v>16</v>
       </c>
       <c r="B126" t="s">
@@ -18409,7 +19039,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="88">
+      <c r="A127" s="9">
         <v>16</v>
       </c>
       <c r="B127" t="s">
@@ -18430,7 +19060,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="88">
+      <c r="A128" s="9">
         <v>16</v>
       </c>
       <c r="B128" t="s">
@@ -18451,7 +19081,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="88">
+      <c r="A129" s="9">
         <v>16</v>
       </c>
       <c r="B129" t="s">
@@ -18472,7 +19102,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="88">
+      <c r="A130" s="9">
         <v>16</v>
       </c>
       <c r="B130" t="s">
@@ -18493,7 +19123,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="88">
+      <c r="A131" s="9">
         <v>16</v>
       </c>
       <c r="B131" t="s">
@@ -18511,6 +19141,132 @@
       <c r="F131" s="13">
         <f t="shared" si="8"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="88">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>7</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="8"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="88">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>300</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="88">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>395</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="88">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>1190</v>
+      </c>
+      <c r="D135">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135" s="13">
+        <f t="shared" si="8"/>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="88">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>50</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>9</v>
+      </c>
+      <c r="F136" s="13">
+        <f t="shared" si="8"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="88">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137">
+        <v>1155</v>
+      </c>
+      <c r="D137">
+        <v>9</v>
+      </c>
+      <c r="E137">
+        <v>9</v>
+      </c>
+      <c r="F137" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18555,130 +19311,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="66" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="66" t="s">
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="66" t="s">
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="66" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="66" t="s">
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69" t="s">
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="74" t="s">
         <v>14</v>
       </c>
       <c r="AC3" s="28"/>
-      <c r="AD3" s="64" t="s">
+      <c r="AD3" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="64" t="s">
+      <c r="AE3" s="69" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="29" t="s">
         <v>36</v>
       </c>
@@ -18751,10 +19507,10 @@
       <c r="AA4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="70"/>
+      <c r="AB4" s="75"/>
       <c r="AC4" s="31"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
       <c r="AF4" s="32"/>
       <c r="AG4" s="33" t="s">
         <v>26</v>
@@ -20227,69 +20983,69 @@
       <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="71" t="e">
+      <c r="D17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(D5:D15),D5:D15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71" t="e">
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(H5:H15),H5:H15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71" t="e">
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(L5:L15),L5:L15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71" t="e">
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(P5:P15),P5:P15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71" t="e">
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(T5:T15),T5:T15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71" t="e">
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62" t="e">
         <f>IF($AB5=0,"-",INDEX($C$5:$C$15,MATCH(MAX(X5:X15),X5:X15,0)))</f>
         <v>#REF!</v>
       </c>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="64" t="s">
         <v>55</v>
       </c>
       <c r="J20" s="24" t="s">
@@ -20297,13 +21053,13 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="73"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="43" t="s">
@@ -20673,6 +21429,19 @@
     <sortCondition descending="1" ref="E22:E32"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="D1:AE1"/>
+    <mergeCell ref="D2:AE2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="X17:AA17"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
@@ -20686,19 +21455,6 @@
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="P17:S17"/>
     <mergeCell ref="T17:W17"/>
-    <mergeCell ref="D1:AE1"/>
-    <mergeCell ref="D2:AE2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -20740,138 +21496,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="80" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="80" t="s">
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="80" t="s">
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="80" t="s">
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="80" t="s">
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="78" t="s">
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="77" t="s">
         <v>14</v>
       </c>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="78" t="s">
+      <c r="AE3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="78" t="s">
+      <c r="AF3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="83" t="s">
+      <c r="AH3" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B4" s="87"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="14" t="s">
         <v>36</v>
       </c>
@@ -20944,10 +21700,10 @@
       <c r="AB4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="79"/>
+      <c r="AC4" s="78"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="20" t="s">
         <v>26</v>
@@ -20963,7 +21719,7 @@
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="79" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -21071,7 +21827,7 @@
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="85"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -21177,7 +21933,7 @@
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="85"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
@@ -21283,7 +22039,7 @@
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="85"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -21389,7 +22145,7 @@
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="85"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -21495,7 +22251,7 @@
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="85"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -21601,7 +22357,7 @@
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B11" s="85"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
@@ -21707,7 +22463,7 @@
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
@@ -21813,7 +22569,7 @@
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
@@ -21919,7 +22675,7 @@
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="85"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -22025,7 +22781,7 @@
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B15" s="86"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
@@ -22168,7 +22924,7 @@
       <c r="AK16" s="21"/>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="79" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -22274,7 +23030,7 @@
       </c>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B18" s="85"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
@@ -22378,7 +23134,7 @@
       </c>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B19" s="85"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
@@ -22482,7 +23238,7 @@
       </c>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -22586,7 +23342,7 @@
       </c>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -22690,7 +23446,7 @@
       </c>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B22" s="85"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -22794,7 +23550,7 @@
       </c>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B23" s="85"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -22898,7 +23654,7 @@
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B24" s="85"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="3" t="s">
         <v>24</v>
       </c>
@@ -23002,7 +23758,7 @@
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B25" s="85"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
@@ -23106,7 +23862,7 @@
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B26" s="85"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
@@ -23210,7 +23966,7 @@
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B27" s="86"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
@@ -23314,7 +24070,7 @@
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -23423,7 +24179,7 @@
       </c>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B30" s="85"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
@@ -23530,7 +24286,7 @@
       </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B31" s="85"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
@@ -23637,7 +24393,7 @@
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B32" s="85"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
@@ -23744,7 +24500,7 @@
       </c>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B33" s="85"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
@@ -23851,7 +24607,7 @@
       </c>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B34" s="85"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
@@ -23958,7 +24714,7 @@
       </c>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B35" s="85"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
@@ -24065,7 +24821,7 @@
       </c>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B36" s="85"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
@@ -24172,7 +24928,7 @@
       </c>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B37" s="85"/>
+      <c r="B37" s="80"/>
       <c r="C37" s="3" t="s">
         <v>25</v>
       </c>
@@ -24279,7 +25035,7 @@
       </c>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B38" s="85"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
@@ -24387,7 +25143,7 @@
       </c>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B39" s="86"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
@@ -24499,14 +25255,6 @@
     <sortCondition descending="1" ref="AK29:AK39"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="B17:B27"/>
     <mergeCell ref="E1:AF1"/>
     <mergeCell ref="E2:AF2"/>
     <mergeCell ref="C3:C4"/>
@@ -24517,6 +25265,14 @@
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B17:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
